--- a/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
+++ b/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bozho1\Desktop\Thesis Code\ThesisWorkCybercom\pyFiles\RL\Results\New Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AB6845-4F87-468A-B305-55C77BD9B257}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF91EDCC-EEDF-4BE9-BFF3-72C9199EA58A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="17">
   <si>
     <t>Controller</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Until all node dies</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -222,6 +225,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2693EA75-5C63-4FDE-887F-C7326CFE699C}">
-  <dimension ref="A1:R99"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +653,15 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
+      <c r="B6" s="15">
+        <v>242826</v>
+      </c>
+      <c r="C6">
+        <v>1265</v>
+      </c>
+      <c r="D6" s="15">
+        <v>53.6036261000012</v>
+      </c>
       <c r="G6">
         <v>1</v>
       </c>
@@ -666,6 +682,15 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
+      <c r="B7" s="15">
+        <v>147029</v>
+      </c>
+      <c r="C7">
+        <v>765</v>
+      </c>
+      <c r="D7" s="15">
+        <v>43.380756600000502</v>
+      </c>
       <c r="G7">
         <v>1</v>
       </c>
@@ -686,6 +711,15 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
+      <c r="B8" s="15">
+        <v>180792</v>
+      </c>
+      <c r="C8">
+        <v>938</v>
+      </c>
+      <c r="D8" s="15">
+        <v>47.762579000000599</v>
+      </c>
       <c r="G8">
         <v>1</v>
       </c>
@@ -705,6 +739,15 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
+      </c>
+      <c r="B9" s="15">
+        <v>191064</v>
+      </c>
+      <c r="C9">
+        <v>995</v>
+      </c>
+      <c r="D9" s="15">
+        <v>48.797405000000602</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,6 +769,15 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
+      <c r="B10" s="15">
+        <v>166513</v>
+      </c>
+      <c r="C10">
+        <v>865</v>
+      </c>
+      <c r="D10" s="15">
+        <v>50.320584200000603</v>
+      </c>
       <c r="G10">
         <v>1</v>
       </c>
@@ -746,6 +798,15 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
+      <c r="B11" s="15">
+        <v>178600</v>
+      </c>
+      <c r="C11">
+        <v>931</v>
+      </c>
+      <c r="D11" s="15">
+        <v>48.646262300000799</v>
+      </c>
       <c r="G11">
         <v>1</v>
       </c>
@@ -766,6 +827,15 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
+      <c r="B12" s="15">
+        <v>183435</v>
+      </c>
+      <c r="C12">
+        <v>955</v>
+      </c>
+      <c r="D12" s="15">
+        <v>44.689656100000498</v>
+      </c>
       <c r="G12">
         <v>1</v>
       </c>
@@ -785,6 +855,15 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
+      </c>
+      <c r="B13" s="15">
+        <v>174312</v>
+      </c>
+      <c r="C13">
+        <v>909</v>
+      </c>
+      <c r="D13" s="15">
+        <v>48.8300467000008</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -806,9 +885,15 @@
       <c r="A14" s="5">
         <v>9</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="15">
+        <v>188296</v>
+      </c>
+      <c r="C14" s="6">
+        <v>986</v>
+      </c>
+      <c r="D14" s="15">
+        <v>50.529076200000901</v>
+      </c>
       <c r="G14">
         <v>1</v>
       </c>
@@ -832,6 +917,15 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
+      <c r="B15" s="15">
+        <v>193395</v>
+      </c>
+      <c r="C15">
+        <v>1008</v>
+      </c>
+      <c r="D15" s="15">
+        <v>46.347527000000603</v>
+      </c>
       <c r="G15">
         <v>1</v>
       </c>
@@ -1051,7 +1145,18 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
+      <c r="A26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="16">
+        <v>48.290751920000702</v>
+      </c>
+      <c r="C26" s="15">
+        <v>961.7</v>
+      </c>
+      <c r="D26" s="15">
+        <v>184626.2</v>
+      </c>
       <c r="M26" s="8"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -1066,7 +1171,15 @@
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="15">
+        <v>240264</v>
+      </c>
+      <c r="C29">
+        <v>1265</v>
+      </c>
+      <c r="D29" s="15">
+        <v>42.335760600000697</v>
+      </c>
       <c r="G29">
         <v>1</v>
       </c>
@@ -1087,7 +1200,15 @@
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="15">
+        <v>145292</v>
+      </c>
+      <c r="C30">
+        <v>765</v>
+      </c>
+      <c r="D30" s="15">
+        <v>27.3269671000001</v>
+      </c>
       <c r="G30">
         <v>1</v>
       </c>
@@ -1108,7 +1229,15 @@
       <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="15">
+        <v>178145</v>
+      </c>
+      <c r="C31">
+        <v>938</v>
+      </c>
+      <c r="D31" s="15">
+        <v>33.695929600000397</v>
+      </c>
       <c r="G31">
         <v>1</v>
       </c>
@@ -1129,7 +1258,15 @@
       <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="15">
+        <v>188956</v>
+      </c>
+      <c r="C32">
+        <v>995</v>
+      </c>
+      <c r="D32" s="15">
+        <v>34.348432100000501</v>
+      </c>
       <c r="G32">
         <v>1</v>
       </c>
@@ -1150,7 +1287,15 @@
       <c r="A33">
         <v>5</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="15">
+        <v>164317</v>
+      </c>
+      <c r="C33">
+        <v>865</v>
+      </c>
+      <c r="D33" s="15">
+        <v>30.360200100000199</v>
+      </c>
       <c r="G33">
         <v>1</v>
       </c>
@@ -1171,7 +1316,15 @@
       <c r="A34">
         <v>6</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="15">
+        <v>176812</v>
+      </c>
+      <c r="C34">
+        <v>931</v>
+      </c>
+      <c r="D34" s="15">
+        <v>32.679522100000398</v>
+      </c>
       <c r="G34">
         <v>1</v>
       </c>
@@ -1192,7 +1345,15 @@
       <c r="A35">
         <v>7</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="15">
+        <v>181396</v>
+      </c>
+      <c r="C35">
+        <v>955</v>
+      </c>
+      <c r="D35" s="15">
+        <v>31.813657400000299</v>
+      </c>
       <c r="G35">
         <v>1</v>
       </c>
@@ -1213,7 +1374,15 @@
       <c r="A36">
         <v>8</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="15">
+        <v>172612</v>
+      </c>
+      <c r="C36">
+        <v>909</v>
+      </c>
+      <c r="D36" s="15">
+        <v>29.1576011000002</v>
+      </c>
       <c r="G36">
         <v>1</v>
       </c>
@@ -1234,7 +1403,15 @@
       <c r="A37">
         <v>9</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="15">
+        <v>187286</v>
+      </c>
+      <c r="C37" s="6">
+        <v>986</v>
+      </c>
+      <c r="D37" s="15">
+        <v>33.5256339000005</v>
+      </c>
       <c r="G37">
         <v>1</v>
       </c>
@@ -1255,7 +1432,15 @@
       <c r="A38">
         <v>10</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="15">
+        <v>191379</v>
+      </c>
+      <c r="C38">
+        <v>1008</v>
+      </c>
+      <c r="D38" s="15">
+        <v>33.079108700000297</v>
+      </c>
       <c r="G38">
         <v>1</v>
       </c>
@@ -1480,6 +1665,23 @@
       </c>
       <c r="R48" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="15">
+        <v>182645.9</v>
+      </c>
+      <c r="C49" s="15">
+        <v>961.7</v>
+      </c>
+      <c r="D49" s="15">
+        <v>32.832281270000301</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -1550,7 +1752,7 @@
         <v>6</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H56" t="s">
         <v>8</v>
@@ -1570,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H57" t="s">
         <v>8</v>
@@ -1590,7 +1792,7 @@
         <v>2</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H58" t="s">
         <v>8</v>
@@ -1610,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H59" t="s">
         <v>8</v>
@@ -1630,8 +1832,8 @@
         <v>4</v>
       </c>
       <c r="B60" s="1"/>
-      <c r="G60" s="1">
-        <v>1</v>
+      <c r="G60">
+        <v>0.05</v>
       </c>
       <c r="H60" t="s">
         <v>8</v>
@@ -1651,8 +1853,8 @@
         <v>5</v>
       </c>
       <c r="B61" s="1"/>
-      <c r="G61" s="1">
-        <v>1</v>
+      <c r="G61">
+        <v>0.05</v>
       </c>
       <c r="H61" t="s">
         <v>8</v>
@@ -1672,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H62" t="s">
         <v>8</v>
@@ -1692,7 +1894,7 @@
         <v>7</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H63" t="s">
         <v>8</v>
@@ -1712,7 +1914,7 @@
         <v>8</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H64" t="s">
         <v>8</v>
@@ -1732,7 +1934,7 @@
         <v>9</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H65" t="s">
         <v>8</v>
@@ -1752,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H66" t="s">
         <v>8</v>
@@ -1772,7 +1974,7 @@
         <v>11</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H67" t="s">
         <v>8</v>
@@ -1792,7 +1994,7 @@
         <v>12</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H68" t="s">
         <v>8</v>
@@ -1812,7 +2014,7 @@
         <v>13</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H69" t="s">
         <v>8</v>
@@ -1832,7 +2034,7 @@
         <v>14</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H70" t="s">
         <v>8</v>
@@ -1852,7 +2054,7 @@
         <v>15</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H71" t="s">
         <v>8</v>
@@ -1872,8 +2074,8 @@
         <v>16</v>
       </c>
       <c r="B72" s="1"/>
-      <c r="G72" s="1">
-        <v>1</v>
+      <c r="G72">
+        <v>0.05</v>
       </c>
       <c r="H72" t="s">
         <v>8</v>
@@ -1893,8 +2095,8 @@
         <v>17</v>
       </c>
       <c r="B73" s="1"/>
-      <c r="G73" s="1">
-        <v>1</v>
+      <c r="G73">
+        <v>0.05</v>
       </c>
       <c r="H73" t="s">
         <v>8</v>
@@ -1914,8 +2116,8 @@
         <v>18</v>
       </c>
       <c r="B74" s="1"/>
-      <c r="G74" s="1">
-        <v>1</v>
+      <c r="G74">
+        <v>0.05</v>
       </c>
       <c r="H74" t="s">
         <v>8</v>
@@ -1935,8 +2137,8 @@
         <v>19</v>
       </c>
       <c r="B75" s="1"/>
-      <c r="G75" s="1">
-        <v>1</v>
+      <c r="G75">
+        <v>0.05</v>
       </c>
       <c r="H75" t="s">
         <v>8</v>
@@ -1956,8 +2158,8 @@
         <v>20</v>
       </c>
       <c r="B76" s="1"/>
-      <c r="G76" s="1">
-        <v>1</v>
+      <c r="G76">
+        <v>0.05</v>
       </c>
       <c r="H76" t="s">
         <v>8</v>
@@ -1973,9 +2175,14 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B77" s="1"/>
       <c r="G77" s="1"/>
+      <c r="L77" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
@@ -1997,8 +2204,8 @@
         <v>1</v>
       </c>
       <c r="B80" s="1"/>
-      <c r="G80" s="1">
-        <v>1</v>
+      <c r="G80">
+        <v>0.05</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -2018,8 +2225,8 @@
         <v>2</v>
       </c>
       <c r="B81" s="1"/>
-      <c r="G81" s="1">
-        <v>1</v>
+      <c r="G81">
+        <v>0.05</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -2039,8 +2246,8 @@
         <v>3</v>
       </c>
       <c r="B82" s="1"/>
-      <c r="G82" s="1">
-        <v>1</v>
+      <c r="G82">
+        <v>0.05</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -2061,7 +2268,7 @@
       </c>
       <c r="B83" s="1"/>
       <c r="G83">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -2082,7 +2289,7 @@
       </c>
       <c r="B84" s="1"/>
       <c r="G84">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -2103,7 +2310,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="G85">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -2124,7 +2331,7 @@
       </c>
       <c r="B86" s="1"/>
       <c r="G86">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -2145,7 +2352,7 @@
       </c>
       <c r="B87" s="1"/>
       <c r="G87">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -2166,7 +2373,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="G88">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -2186,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -2206,7 +2413,7 @@
         <v>11</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -2226,7 +2433,7 @@
         <v>12</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -2246,7 +2453,7 @@
         <v>13</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -2266,7 +2473,7 @@
         <v>14</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -2286,7 +2493,7 @@
         <v>15</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -2306,7 +2513,7 @@
         <v>16</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -2326,7 +2533,7 @@
         <v>17</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -2346,7 +2553,7 @@
         <v>18</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -2366,7 +2573,7 @@
         <v>19</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -2386,7 +2593,7 @@
         <v>20</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -2401,7 +2608,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100">
+        <v>0.05</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6">
+    <sortCondition ref="C6"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
+++ b/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bozho1\Desktop\Thesis Code\ThesisWorkCybercom\pyFiles\RL\Results\New Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF91EDCC-EEDF-4BE9-BFF3-72C9199EA58A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05512BB5-4D52-4D07-ADA0-29F1D0CADF71}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="19">
   <si>
     <t>Controller</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>Mean 1J</t>
+  </si>
+  <si>
+    <t>Mean 0.05J</t>
   </si>
 </sst>
 </file>
@@ -543,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2693EA75-5C63-4FDE-887F-C7326CFE699C}">
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105:K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,8 +952,17 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
+      <c r="B16">
+        <v>15589</v>
+      </c>
+      <c r="C16">
+        <v>82</v>
+      </c>
+      <c r="D16">
+        <v>2.8362612999999901</v>
+      </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>8</v>
@@ -966,8 +981,17 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
+      <c r="B17">
+        <v>11664</v>
+      </c>
+      <c r="C17">
+        <v>61</v>
+      </c>
+      <c r="D17">
+        <v>2.0675134999999898</v>
+      </c>
       <c r="G17">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>8</v>
@@ -986,9 +1010,17 @@
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18">
+        <v>12626</v>
+      </c>
+      <c r="C18">
+        <v>66</v>
+      </c>
+      <c r="D18">
+        <v>2.2550701999999898</v>
+      </c>
       <c r="G18">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>8</v>
@@ -1008,8 +1040,17 @@
       <c r="A19" s="1">
         <v>14</v>
       </c>
+      <c r="B19">
+        <v>13733</v>
+      </c>
+      <c r="C19">
+        <v>72</v>
+      </c>
+      <c r="D19">
+        <v>2.61115549999999</v>
+      </c>
       <c r="G19">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>8</v>
@@ -1028,8 +1069,17 @@
       <c r="A20" s="1">
         <v>15</v>
       </c>
+      <c r="B20">
+        <v>13046</v>
+      </c>
+      <c r="C20">
+        <v>68</v>
+      </c>
+      <c r="D20">
+        <v>2.5050877999999899</v>
+      </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>8</v>
@@ -1048,8 +1098,17 @@
       <c r="A21" s="1">
         <v>16</v>
       </c>
+      <c r="B21">
+        <v>13553</v>
+      </c>
+      <c r="C21">
+        <v>71</v>
+      </c>
+      <c r="D21">
+        <v>2.4996553999999902</v>
+      </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>8</v>
@@ -1068,8 +1127,17 @@
       <c r="A22" s="1">
         <v>17</v>
       </c>
+      <c r="B22">
+        <v>7763</v>
+      </c>
+      <c r="C22">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>2.2754759999999998</v>
+      </c>
       <c r="G22">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>8</v>
@@ -1088,8 +1156,17 @@
       <c r="A23" s="1">
         <v>18</v>
       </c>
+      <c r="B23">
+        <v>10910</v>
+      </c>
+      <c r="C23">
+        <v>57</v>
+      </c>
+      <c r="D23">
+        <v>2.2377007</v>
+      </c>
       <c r="G23">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>8</v>
@@ -1108,8 +1185,17 @@
       <c r="A24" s="1">
         <v>19</v>
       </c>
+      <c r="B24">
+        <v>12963</v>
+      </c>
+      <c r="C24">
+        <v>68</v>
+      </c>
+      <c r="D24">
+        <v>2.4179460999999902</v>
+      </c>
       <c r="G24">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>8</v>
@@ -1128,8 +1214,17 @@
       <c r="A25" s="1">
         <v>20</v>
       </c>
+      <c r="B25">
+        <v>14138</v>
+      </c>
+      <c r="C25">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>2.739277</v>
+      </c>
       <c r="G25">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>8</v>
@@ -1146,7 +1241,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="16">
         <v>48.290751920000702</v>
@@ -1159,84 +1254,40 @@
       </c>
       <c r="M26" s="8"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>12598.5</v>
+      </c>
+      <c r="C27" s="15">
+        <v>66</v>
+      </c>
+      <c r="D27">
+        <v>2.4445143499999902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" s="15">
-        <v>240264</v>
-      </c>
-      <c r="C29">
-        <v>1265</v>
-      </c>
-      <c r="D29" s="15">
-        <v>42.335760600000697</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" s="15">
-        <v>145292</v>
-      </c>
-      <c r="C30">
-        <v>765</v>
-      </c>
-      <c r="D30" s="15">
-        <v>27.3269671000001</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" s="15">
-        <v>178145</v>
+        <v>240264</v>
       </c>
       <c r="C31">
-        <v>938</v>
+        <v>1265</v>
       </c>
       <c r="D31" s="15">
-        <v>33.695929600000397</v>
+        <v>42.335760600000697</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1245,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -1256,16 +1307,16 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" s="15">
-        <v>188956</v>
+        <v>145292</v>
       </c>
       <c r="C32">
-        <v>995</v>
+        <v>765</v>
       </c>
       <c r="D32" s="15">
-        <v>34.348432100000501</v>
+        <v>27.3269671000001</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1274,7 +1325,7 @@
         <v>4</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -1285,16 +1336,16 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" s="15">
-        <v>164317</v>
+        <v>178145</v>
       </c>
       <c r="C33">
-        <v>865</v>
+        <v>938</v>
       </c>
       <c r="D33" s="15">
-        <v>30.360200100000199</v>
+        <v>33.695929600000397</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1303,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="L33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -1314,16 +1365,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B34" s="15">
-        <v>176812</v>
+        <v>188956</v>
       </c>
       <c r="C34">
-        <v>931</v>
+        <v>995</v>
       </c>
       <c r="D34" s="15">
-        <v>32.679522100000398</v>
+        <v>34.348432100000501</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1332,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="L34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -1343,16 +1394,16 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B35" s="15">
-        <v>181396</v>
+        <v>164317</v>
       </c>
       <c r="C35">
-        <v>955</v>
+        <v>865</v>
       </c>
       <c r="D35" s="15">
-        <v>31.813657400000299</v>
+        <v>30.360200100000199</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1361,7 +1412,7 @@
         <v>4</v>
       </c>
       <c r="L35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -1372,16 +1423,16 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" s="15">
-        <v>172612</v>
+        <v>176812</v>
       </c>
       <c r="C36">
-        <v>909</v>
+        <v>931</v>
       </c>
       <c r="D36" s="15">
-        <v>29.1576011000002</v>
+        <v>32.679522100000398</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1390,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -1401,16 +1452,16 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B37" s="15">
-        <v>187286</v>
-      </c>
-      <c r="C37" s="6">
-        <v>986</v>
+        <v>181396</v>
+      </c>
+      <c r="C37">
+        <v>955</v>
       </c>
       <c r="D37" s="15">
-        <v>33.5256339000005</v>
+        <v>31.813657400000299</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1419,7 +1470,7 @@
         <v>4</v>
       </c>
       <c r="L37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -1430,16 +1481,16 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" s="15">
-        <v>191379</v>
+        <v>172612</v>
       </c>
       <c r="C38">
-        <v>1008</v>
+        <v>909</v>
       </c>
       <c r="D38" s="15">
-        <v>33.079108700000297</v>
+        <v>29.1576011000002</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1448,7 +1499,7 @@
         <v>4</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -1459,9 +1510,17 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>11</v>
-      </c>
-      <c r="B39" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B39" s="15">
+        <v>187286</v>
+      </c>
+      <c r="C39" s="6">
+        <v>986</v>
+      </c>
+      <c r="D39" s="15">
+        <v>33.5256339000005</v>
+      </c>
       <c r="G39">
         <v>1</v>
       </c>
@@ -1469,7 +1528,7 @@
         <v>4</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -1480,9 +1539,17 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>12</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B40" s="15">
+        <v>191379</v>
+      </c>
+      <c r="C40">
+        <v>1008</v>
+      </c>
+      <c r="D40" s="15">
+        <v>33.079108700000297</v>
+      </c>
       <c r="G40">
         <v>1</v>
       </c>
@@ -1490,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="L40">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -1501,17 +1568,25 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>13</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>15436</v>
+      </c>
+      <c r="C41">
+        <v>82</v>
+      </c>
+      <c r="D41">
+        <v>2.8057885999999899</v>
+      </c>
       <c r="G41">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -1522,17 +1597,25 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>14</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>11497</v>
+      </c>
+      <c r="C42">
+        <v>61</v>
+      </c>
+      <c r="D42">
+        <v>2.0023970999999898</v>
+      </c>
       <c r="G42">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -1543,17 +1626,25 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>15</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>12433</v>
+      </c>
+      <c r="C43">
+        <v>66</v>
+      </c>
+      <c r="D43">
+        <v>2.1722548999999902</v>
+      </c>
       <c r="G43">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -1564,17 +1655,25 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>16</v>
-      </c>
-      <c r="B44" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>13538</v>
+      </c>
+      <c r="C44">
+        <v>72</v>
+      </c>
+      <c r="D44">
+        <v>2.5624339999999899</v>
+      </c>
       <c r="G44">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -1585,17 +1684,25 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>17</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>12805</v>
+      </c>
+      <c r="C45">
+        <v>68</v>
+      </c>
+      <c r="D45">
+        <v>2.44224579999999</v>
+      </c>
       <c r="G45">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q45">
         <v>1</v>
@@ -1606,17 +1713,25 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>18</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>13380</v>
+      </c>
+      <c r="C46">
+        <v>71</v>
+      </c>
+      <c r="D46">
+        <v>2.44635109999999</v>
+      </c>
       <c r="G46">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -1627,17 +1742,25 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>19</v>
-      </c>
-      <c r="B47" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>7756</v>
+      </c>
+      <c r="C47">
+        <v>41</v>
+      </c>
+      <c r="D47">
+        <v>1.36562899999999</v>
+      </c>
       <c r="G47">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q47">
         <v>1</v>
@@ -1648,158 +1771,198 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>10738</v>
+      </c>
+      <c r="C48">
+        <v>57</v>
+      </c>
+      <c r="D48">
+        <v>1.9462492</v>
+      </c>
+      <c r="G48">
+        <v>0.05</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>18</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <v>12832</v>
+      </c>
+      <c r="C49">
+        <v>68</v>
+      </c>
+      <c r="D49">
+        <v>2.3060661999999899</v>
+      </c>
+      <c r="G49">
+        <v>0.05</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>19</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>20</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48">
+      <c r="B50">
+        <v>13906</v>
+      </c>
+      <c r="C50">
+        <v>74</v>
+      </c>
+      <c r="D50">
+        <v>2.29986269999999</v>
+      </c>
+      <c r="G50">
+        <v>0.05</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50">
         <v>20</v>
       </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="15">
+        <v>182645.9</v>
+      </c>
+      <c r="C51" s="15">
+        <v>961.7</v>
+      </c>
+      <c r="D51" s="15">
+        <v>32.832281270000301</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="15">
-        <v>182645.9</v>
-      </c>
-      <c r="C49" s="15">
-        <v>961.7</v>
-      </c>
-      <c r="D49" s="15">
-        <v>32.832281270000301</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="15">
+        <v>12432.1</v>
+      </c>
+      <c r="C52" s="15">
+        <v>66</v>
+      </c>
+      <c r="D52">
+        <v>2.2349278599999902</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="11" t="s">
+      <c r="L56" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M56" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
+    <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="14" t="s">
+      <c r="C57" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14" t="s">
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H57" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14" t="s">
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M55" s="14" t="s">
+      <c r="M57" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N55" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="O55" s="14" t="s">
+      <c r="N57" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O57" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14" t="s">
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="R55" s="14" t="s">
+      <c r="R57" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G56">
-        <v>0.05</v>
-      </c>
-      <c r="H56" t="s">
-        <v>8</v>
-      </c>
-      <c r="L56" s="7" t="s">
+      <c r="G58">
+        <v>0.05</v>
+      </c>
+      <c r="H58" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-      <c r="R56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>0.05</v>
-      </c>
-      <c r="H57" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>1</v>
-      </c>
-      <c r="R57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="G58">
-        <v>0.05</v>
-      </c>
-      <c r="H58" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58">
-        <v>2</v>
-      </c>
       <c r="Q58">
         <v>1</v>
       </c>
@@ -1808,8 +1971,17 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>3</v>
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>24885</v>
+      </c>
+      <c r="C59">
+        <v>200</v>
+      </c>
+      <c r="D59">
+        <v>4.9999999999999902</v>
       </c>
       <c r="G59">
         <v>0.05</v>
@@ -1818,7 +1990,7 @@
         <v>8</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -1829,9 +2001,17 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>4</v>
-      </c>
-      <c r="B60" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>22616</v>
+      </c>
+      <c r="C60">
+        <v>291</v>
+      </c>
+      <c r="D60">
+        <v>4.9999999999999902</v>
+      </c>
       <c r="G60">
         <v>0.05</v>
       </c>
@@ -1839,7 +2019,7 @@
         <v>8</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q60">
         <v>1</v>
@@ -1849,10 +2029,18 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>5</v>
-      </c>
-      <c r="B61" s="1"/>
+      <c r="A61" s="7">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>32826</v>
+      </c>
+      <c r="C61">
+        <v>384</v>
+      </c>
+      <c r="D61">
+        <v>4.9999999999999902</v>
+      </c>
       <c r="G61">
         <v>0.05</v>
       </c>
@@ -1860,7 +2048,7 @@
         <v>8</v>
       </c>
       <c r="L61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -1871,7 +2059,16 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>31652</v>
+      </c>
+      <c r="C62">
+        <v>337</v>
+      </c>
+      <c r="D62">
+        <v>4.9999999999999902</v>
       </c>
       <c r="G62">
         <v>0.05</v>
@@ -1880,7 +2077,7 @@
         <v>8</v>
       </c>
       <c r="L62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -1891,7 +2088,16 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>31772</v>
+      </c>
+      <c r="C63">
+        <v>325</v>
+      </c>
+      <c r="D63">
+        <v>4.9999999999999902</v>
       </c>
       <c r="G63">
         <v>0.05</v>
@@ -1900,7 +2106,7 @@
         <v>8</v>
       </c>
       <c r="L63">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -1911,7 +2117,16 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>20890</v>
+      </c>
+      <c r="C64">
+        <v>365</v>
+      </c>
+      <c r="D64">
+        <v>4.9999999999999902</v>
       </c>
       <c r="G64">
         <v>0.05</v>
@@ -1920,7 +2135,7 @@
         <v>8</v>
       </c>
       <c r="L64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -1931,7 +2146,16 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>29029</v>
+      </c>
+      <c r="C65">
+        <v>280</v>
+      </c>
+      <c r="D65">
+        <v>4.9999999999999902</v>
       </c>
       <c r="G65">
         <v>0.05</v>
@@ -1940,7 +2164,7 @@
         <v>8</v>
       </c>
       <c r="L65">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -1951,7 +2175,16 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>32403</v>
+      </c>
+      <c r="C66">
+        <v>322</v>
+      </c>
+      <c r="D66">
+        <v>4.9999999999999902</v>
       </c>
       <c r="G66">
         <v>0.05</v>
@@ -1960,7 +2193,7 @@
         <v>8</v>
       </c>
       <c r="L66">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -1971,7 +2204,16 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>33315</v>
+      </c>
+      <c r="C67">
+        <v>344</v>
+      </c>
+      <c r="D67">
+        <v>4.9999999999999902</v>
       </c>
       <c r="G67">
         <v>0.05</v>
@@ -1980,7 +2222,7 @@
         <v>8</v>
       </c>
       <c r="L67">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -1991,7 +2233,16 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>27200</v>
+      </c>
+      <c r="C68">
+        <v>220</v>
+      </c>
+      <c r="D68">
+        <v>4.9999999999999902</v>
       </c>
       <c r="G68">
         <v>0.05</v>
@@ -2000,7 +2251,7 @@
         <v>8</v>
       </c>
       <c r="L68">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -2011,7 +2262,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G69">
         <v>0.05</v>
@@ -2020,7 +2271,7 @@
         <v>8</v>
       </c>
       <c r="L69">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -2031,57 +2282,56 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="G70">
+        <v>0.05</v>
+      </c>
+      <c r="H70" t="s">
+        <v>8</v>
+      </c>
+      <c r="L70">
+        <v>12</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>13</v>
+      </c>
+      <c r="G71">
+        <v>0.05</v>
+      </c>
+      <c r="H71" t="s">
+        <v>8</v>
+      </c>
+      <c r="L71">
+        <v>13</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>14</v>
       </c>
-      <c r="G70">
-        <v>0.05</v>
-      </c>
-      <c r="H70" t="s">
-        <v>8</v>
-      </c>
-      <c r="L70">
+      <c r="G72">
+        <v>0.05</v>
+      </c>
+      <c r="H72" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72">
         <v>14</v>
-      </c>
-      <c r="Q70">
-        <v>1</v>
-      </c>
-      <c r="R70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <v>15</v>
-      </c>
-      <c r="G71">
-        <v>0.05</v>
-      </c>
-      <c r="H71" t="s">
-        <v>8</v>
-      </c>
-      <c r="L71">
-        <v>15</v>
-      </c>
-      <c r="Q71">
-        <v>1</v>
-      </c>
-      <c r="R71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>16</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="G72">
-        <v>0.05</v>
-      </c>
-      <c r="H72" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72">
-        <v>16</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -2092,9 +2342,8 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
-        <v>17</v>
-      </c>
-      <c r="B73" s="1"/>
+        <v>15</v>
+      </c>
       <c r="G73">
         <v>0.05</v>
       </c>
@@ -2102,7 +2351,7 @@
         <v>8</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -2113,7 +2362,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B74" s="1"/>
       <c r="G74">
@@ -2123,7 +2372,7 @@
         <v>8</v>
       </c>
       <c r="L74">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -2134,7 +2383,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B75" s="1"/>
       <c r="G75">
@@ -2144,7 +2393,7 @@
         <v>8</v>
       </c>
       <c r="L75">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -2155,7 +2404,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B76" s="1"/>
       <c r="G76">
@@ -2165,87 +2414,103 @@
         <v>8</v>
       </c>
       <c r="L76">
+        <v>18</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
+        <v>19</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="G77">
+        <v>0.05</v>
+      </c>
+      <c r="H77" t="s">
+        <v>8</v>
+      </c>
+      <c r="L77">
+        <v>19</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
         <v>20</v>
       </c>
-      <c r="Q76">
-        <v>1</v>
-      </c>
-      <c r="R76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="L77" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
       <c r="B78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="G78">
+        <v>0.05</v>
+      </c>
+      <c r="H78" t="s">
+        <v>8</v>
+      </c>
+      <c r="L78">
+        <v>20</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="1">
+        <v>28658.799999999999</v>
+      </c>
+      <c r="C79">
+        <v>306.8</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="L79" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="L79" s="7" t="s">
+      <c r="B81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="L81" s="7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>1</v>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="G80">
-        <v>0.05</v>
-      </c>
-      <c r="H80" t="s">
-        <v>4</v>
-      </c>
-      <c r="L80" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>1</v>
-      </c>
-      <c r="R80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>2</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="G81">
-        <v>0.05</v>
-      </c>
-      <c r="H81" t="s">
-        <v>4</v>
-      </c>
-      <c r="L81" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q81">
-        <v>1</v>
-      </c>
-      <c r="R81" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
-        <v>3</v>
-      </c>
-      <c r="B82" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>31661</v>
+      </c>
+      <c r="C82">
+        <v>405</v>
+      </c>
+      <c r="D82">
+        <v>4.9999999999999902</v>
+      </c>
       <c r="G82">
         <v>0.05</v>
       </c>
@@ -2253,7 +2518,7 @@
         <v>4</v>
       </c>
       <c r="L82" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -2264,9 +2529,17 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
-        <v>4</v>
-      </c>
-      <c r="B83" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>31189</v>
+      </c>
+      <c r="C83">
+        <v>382</v>
+      </c>
+      <c r="D83">
+        <v>4.9999999999999902</v>
+      </c>
       <c r="G83">
         <v>0.05</v>
       </c>
@@ -2274,7 +2547,7 @@
         <v>4</v>
       </c>
       <c r="L83" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -2285,9 +2558,17 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
-        <v>5</v>
-      </c>
-      <c r="B84" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>32319</v>
+      </c>
+      <c r="C84">
+        <v>432</v>
+      </c>
+      <c r="D84">
+        <v>4.9999999999999902</v>
+      </c>
       <c r="G84">
         <v>0.05</v>
       </c>
@@ -2295,7 +2576,7 @@
         <v>4</v>
       </c>
       <c r="L84" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -2306,9 +2587,17 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
-        <v>6</v>
-      </c>
-      <c r="B85" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>32511</v>
+      </c>
+      <c r="C85">
+        <v>420</v>
+      </c>
+      <c r="D85">
+        <v>4.9999999999999902</v>
+      </c>
       <c r="G85">
         <v>0.05</v>
       </c>
@@ -2316,7 +2605,7 @@
         <v>4</v>
       </c>
       <c r="L85" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -2327,9 +2616,17 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
-        <v>7</v>
-      </c>
-      <c r="B86" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>32761</v>
+      </c>
+      <c r="C86">
+        <v>423</v>
+      </c>
+      <c r="D86">
+        <v>4.9999999999999902</v>
+      </c>
       <c r="G86">
         <v>0.05</v>
       </c>
@@ -2337,7 +2634,7 @@
         <v>4</v>
       </c>
       <c r="L86" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -2348,9 +2645,17 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
-        <v>8</v>
-      </c>
-      <c r="B87" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>31463</v>
+      </c>
+      <c r="C87">
+        <v>404</v>
+      </c>
+      <c r="D87">
+        <v>4.9999999999999902</v>
+      </c>
       <c r="G87">
         <v>0.05</v>
       </c>
@@ -2358,7 +2663,7 @@
         <v>4</v>
       </c>
       <c r="L87" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -2369,9 +2674,17 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
-        <v>9</v>
-      </c>
-      <c r="B88" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>34237</v>
+      </c>
+      <c r="C88">
+        <v>409</v>
+      </c>
+      <c r="D88">
+        <v>4.9999999999999902</v>
+      </c>
       <c r="G88">
         <v>0.05</v>
       </c>
@@ -2379,7 +2692,7 @@
         <v>4</v>
       </c>
       <c r="L88" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -2390,7 +2703,16 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>34687</v>
+      </c>
+      <c r="C89">
+        <v>415</v>
+      </c>
+      <c r="D89">
+        <v>4.9999999999999902</v>
       </c>
       <c r="G89">
         <v>0.05</v>
@@ -2399,7 +2721,7 @@
         <v>4</v>
       </c>
       <c r="L89" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q89">
         <v>1</v>
@@ -2410,7 +2732,16 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>34413</v>
+      </c>
+      <c r="C90">
+        <v>422</v>
+      </c>
+      <c r="D90">
+        <v>4.9999999999999902</v>
       </c>
       <c r="G90">
         <v>0.05</v>
@@ -2419,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="L90" s="13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -2430,7 +2761,16 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B91">
+        <v>33048</v>
+      </c>
+      <c r="C91">
+        <v>447</v>
+      </c>
+      <c r="D91">
+        <v>4.9999999999999902</v>
       </c>
       <c r="G91">
         <v>0.05</v>
@@ -2439,7 +2779,7 @@
         <v>4</v>
       </c>
       <c r="L91" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -2450,7 +2790,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G92">
         <v>0.05</v>
@@ -2459,7 +2799,7 @@
         <v>4</v>
       </c>
       <c r="L92" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -2470,7 +2810,7 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G93">
         <v>0.05</v>
@@ -2479,7 +2819,7 @@
         <v>4</v>
       </c>
       <c r="L93" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q93">
         <v>1</v>
@@ -2490,7 +2830,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G94">
         <v>0.05</v>
@@ -2499,7 +2839,7 @@
         <v>4</v>
       </c>
       <c r="L94" s="13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -2510,7 +2850,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G95">
         <v>0.05</v>
@@ -2519,7 +2859,7 @@
         <v>4</v>
       </c>
       <c r="L95" s="13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -2530,7 +2870,7 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G96">
         <v>0.05</v>
@@ -2539,7 +2879,7 @@
         <v>4</v>
       </c>
       <c r="L96" s="13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -2550,7 +2890,7 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G97">
         <v>0.05</v>
@@ -2559,7 +2899,7 @@
         <v>4</v>
       </c>
       <c r="L97" s="13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -2570,7 +2910,7 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G98">
         <v>0.05</v>
@@ -2579,7 +2919,7 @@
         <v>4</v>
       </c>
       <c r="L98" s="13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -2590,32 +2930,81 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
+        <v>18</v>
+      </c>
+      <c r="G99">
+        <v>0.05</v>
+      </c>
+      <c r="H99" t="s">
+        <v>4</v>
+      </c>
+      <c r="L99" s="13">
+        <v>18</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" s="13">
+        <v>19</v>
+      </c>
+      <c r="G100">
+        <v>0.05</v>
+      </c>
+      <c r="H100" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="13">
+        <v>19</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" s="13">
         <v>20</v>
       </c>
-      <c r="G99">
-        <v>0.05</v>
-      </c>
-      <c r="H99" t="s">
-        <v>4</v>
-      </c>
-      <c r="L99" s="13">
+      <c r="G101">
+        <v>0.05</v>
+      </c>
+      <c r="H101" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="13">
         <v>20</v>
       </c>
-      <c r="Q99">
-        <v>1</v>
-      </c>
-      <c r="R99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G100">
-        <v>0.05</v>
-      </c>
-      <c r="L100" s="3" t="s">
+      <c r="B102">
+        <v>32828.9</v>
+      </c>
+      <c r="C102">
+        <v>415.9</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <v>0.05</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
+++ b/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bozho1\Desktop\Thesis Code\ThesisWorkCybercom\pyFiles\RL\Results\New Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05512BB5-4D52-4D07-ADA0-29F1D0CADF71}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D56DAB-727C-4317-94C7-DC6C8B6644F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="20">
   <si>
     <t>Controller</t>
   </si>
@@ -93,13 +93,16 @@
     <t>Until all node dies</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
     <t>Mean 1J</t>
   </si>
   <si>
     <t>Mean 0.05J</t>
+  </si>
+  <si>
+    <t>Until One Node Dies</t>
+  </si>
+  <si>
+    <t>Pac. per Energy</t>
   </si>
 </sst>
 </file>
@@ -212,9 +215,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -235,6 +235,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2693EA75-5C63-4FDE-887F-C7326CFE699C}">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105:K105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,31 +570,42 @@
     <col min="11" max="11" width="35.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="34.7109375" customWidth="1"/>
-    <col min="14" max="15" width="18" customWidth="1"/>
-    <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -606,6 +618,9 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E4" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
@@ -624,50 +639,48 @@
       <c r="O4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="P4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E5" s="13"/>
+      <c r="H5" s="1"/>
       <c r="L5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>242826</v>
       </c>
       <c r="C6">
         <v>1265</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>53.6036261000012</v>
       </c>
+      <c r="E6">
+        <f>B6/D6</f>
+        <v>4530.0293593383331</v>
+      </c>
       <c r="G6">
         <v>1</v>
       </c>
@@ -677,25 +690,29 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>147029</v>
       </c>
       <c r="C7">
         <v>765</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>43.380756600000502</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E52" si="0">B7/D7</f>
+        <v>3389.2677657908412</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -706,25 +723,29 @@
       <c r="L7" s="1">
         <v>2</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>180792</v>
       </c>
       <c r="C8">
         <v>938</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>47.762579000000599</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3785.2227368207596</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -735,26 +756,30 @@
       <c r="L8" s="1">
         <v>3</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>191064</v>
       </c>
       <c r="C9">
         <v>995</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>48.797405000000602</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3915.4541107257169</v>
+      </c>
       <c r="G9">
         <v>1</v>
       </c>
@@ -764,25 +789,29 @@
       <c r="L9" s="1">
         <v>4</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>166513</v>
       </c>
       <c r="C10">
         <v>865</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>50.320584200000603</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3309.0434589985944</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -793,25 +822,29 @@
       <c r="L10" s="1">
         <v>5</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>178600</v>
       </c>
       <c r="C11">
         <v>931</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>48.646262300000799</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3671.402314500061</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -822,25 +855,29 @@
       <c r="L11" s="1">
         <v>6</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>183435</v>
       </c>
       <c r="C12">
         <v>955</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>44.689656100000498</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4104.6411185070174</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -851,26 +888,30 @@
       <c r="L12" s="1">
         <v>7</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>174312</v>
       </c>
       <c r="C13">
         <v>909</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>48.8300467000008</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3569.7692666756584</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
@@ -880,57 +921,65 @@
       <c r="L13" s="1">
         <v>8</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>188296</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>986</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>50.529076200000901</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3726.4880769776796</v>
+      </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>9</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>193395</v>
       </c>
       <c r="C15">
         <v>1008</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>46.347527000000603</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4172.7145441869525</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -941,14 +990,14 @@
       <c r="L15" s="1">
         <v>10</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -961,6 +1010,10 @@
       <c r="D16">
         <v>2.8362612999999901</v>
       </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5496.3201028057802</v>
+      </c>
       <c r="G16">
         <v>0.05</v>
       </c>
@@ -970,14 +1023,14 @@
       <c r="L16" s="1">
         <v>11</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>0.05</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -990,6 +1043,10 @@
       <c r="D17">
         <v>2.0675134999999898</v>
       </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>5641.5592933250773</v>
+      </c>
       <c r="G17">
         <v>0.05</v>
       </c>
@@ -999,14 +1056,14 @@
       <c r="L17" s="1">
         <v>12</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>0.05</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -1019,6 +1076,10 @@
       <c r="D18">
         <v>2.2550701999999898</v>
       </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5598.9387824822734</v>
+      </c>
       <c r="G18">
         <v>0.05</v>
       </c>
@@ -1029,14 +1090,14 @@
         <v>13</v>
       </c>
       <c r="M18" s="1"/>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>0.05</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -1049,6 +1110,10 @@
       <c r="D19">
         <v>2.61115549999999</v>
       </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>5259.3573994348681</v>
+      </c>
       <c r="G19">
         <v>0.05</v>
       </c>
@@ -1058,14 +1123,14 @@
       <c r="L19" s="1">
         <v>14</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>0.05</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -1078,6 +1143,10 @@
       <c r="D20">
         <v>2.5050877999999899</v>
       </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>5207.8014990133488</v>
+      </c>
       <c r="G20">
         <v>0.05</v>
       </c>
@@ -1087,14 +1156,14 @@
       <c r="L20" s="1">
         <v>15</v>
       </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>0.05</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -1107,6 +1176,10 @@
       <c r="D21">
         <v>2.4996553999999902</v>
       </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>5421.9473612242928</v>
+      </c>
       <c r="G21">
         <v>0.05</v>
       </c>
@@ -1116,14 +1189,14 @@
       <c r="L21" s="1">
         <v>16</v>
       </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>0.05</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -1136,6 +1209,10 @@
       <c r="D22">
         <v>2.2754759999999998</v>
       </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>3411.5938818954805</v>
+      </c>
       <c r="G22">
         <v>0.05</v>
       </c>
@@ -1145,14 +1222,14 @@
       <c r="L22" s="1">
         <v>17</v>
       </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>0.05</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -1165,6 +1242,10 @@
       <c r="D23">
         <v>2.2377007</v>
       </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4875.5403258353545</v>
+      </c>
       <c r="G23">
         <v>0.05</v>
       </c>
@@ -1174,14 +1255,14 @@
       <c r="L23" s="1">
         <v>18</v>
       </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>0.05</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -1194,6 +1275,10 @@
       <c r="D24">
         <v>2.4179460999999902</v>
       </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>5361.1616900807066</v>
+      </c>
       <c r="G24">
         <v>0.05</v>
       </c>
@@ -1203,14 +1288,14 @@
       <c r="L24" s="1">
         <v>19</v>
       </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>0.05</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -1223,6 +1308,10 @@
       <c r="D25">
         <v>2.739277</v>
       </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>5161.2158974795175</v>
+      </c>
       <c r="G25">
         <v>0.05</v>
       </c>
@@ -1232,341 +1321,398 @@
       <c r="L25" s="1">
         <v>20</v>
       </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="R25">
+        <v>0.05</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="14">
+        <v>184626.2</v>
+      </c>
+      <c r="C26" s="14">
+        <v>961.7</v>
+      </c>
+      <c r="D26" s="15">
+        <v>48.290751920000702</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>3823.2206511477598</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B26" s="16">
-        <v>48.290751920000702</v>
-      </c>
-      <c r="C26" s="15">
-        <v>961.7</v>
-      </c>
-      <c r="D26" s="15">
-        <v>184626.2</v>
-      </c>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="B27">
         <v>12598.5</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>66</v>
       </c>
       <c r="D27">
         <v>2.4445143499999902</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>5153.7844316602395</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>240264</v>
       </c>
       <c r="C31">
         <v>1265</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <v>42.335760600000697</v>
       </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>5675.2021599440932</v>
+      </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <v>145292</v>
       </c>
       <c r="C32">
         <v>765</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="14">
         <v>27.3269671000001</v>
       </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>5316.7993165256703</v>
+      </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="1">
         <v>2</v>
       </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>178145</v>
       </c>
       <c r="C33">
         <v>938</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>33.695929600000397</v>
       </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>5286.8403428762476</v>
+      </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="1">
         <v>3</v>
       </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <v>188956</v>
       </c>
       <c r="C34">
         <v>995</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <v>34.348432100000501</v>
       </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>5501.1535737608601</v>
+      </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L34">
-        <v>4</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <v>164317</v>
       </c>
       <c r="C35">
         <v>865</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <v>30.360200100000199</v>
       </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>5412.2502308540097</v>
+      </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="1">
         <v>5</v>
       </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <v>176812</v>
       </c>
       <c r="C36">
         <v>931</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>32.679522100000398</v>
       </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>5410.48303763285</v>
+      </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="1">
         <v>6</v>
       </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="14">
         <v>181396</v>
       </c>
       <c r="C37">
         <v>955</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="14">
         <v>31.813657400000299</v>
       </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>5701.827919979999</v>
+      </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="1">
         <v>7</v>
       </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="14">
         <v>172612</v>
       </c>
       <c r="C38">
         <v>909</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="14">
         <v>29.1576011000002</v>
       </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>5919.9657546586996</v>
+      </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L38">
-        <v>8</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>8</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="14">
         <v>187286</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>986</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <v>33.5256339000005</v>
       </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>5586.3522389653372</v>
+      </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="4">
         <v>9</v>
       </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M39" s="4"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="14">
         <v>191379</v>
       </c>
       <c r="C40">
         <v>1008</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="14">
         <v>33.079108700000297</v>
       </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>5785.4944562033579</v>
+      </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="1">
         <v>10</v>
       </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11</v>
       </c>
@@ -1579,23 +1725,27 @@
       <c r="D41">
         <v>2.8057885999999899</v>
       </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>5501.4836114167883</v>
+      </c>
       <c r="G41">
         <v>0.05</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="1">
         <v>11</v>
       </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>0.05</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -1608,23 +1758,27 @@
       <c r="D42">
         <v>2.0023970999999898</v>
       </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>5741.6183832867409</v>
+      </c>
       <c r="G42">
         <v>0.05</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="1">
         <v>12</v>
       </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>0.05</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>13</v>
       </c>
@@ -1637,23 +1791,28 @@
       <c r="D43">
         <v>2.1722548999999902</v>
       </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>5723.5456115210309</v>
+      </c>
       <c r="G43">
         <v>0.05</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="1">
         <v>13</v>
       </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M43" s="1"/>
+      <c r="R43">
+        <v>0.05</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14</v>
       </c>
@@ -1666,23 +1825,27 @@
       <c r="D44">
         <v>2.5624339999999899</v>
       </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>5283.2580273287249</v>
+      </c>
       <c r="G44">
         <v>0.05</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="1">
         <v>14</v>
       </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>0.05</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>15</v>
       </c>
@@ -1695,23 +1858,27 @@
       <c r="D45">
         <v>2.44224579999999</v>
       </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>5243.1249958542467</v>
+      </c>
       <c r="G45">
         <v>0.05</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="1">
         <v>15</v>
       </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>0.05</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16</v>
       </c>
@@ -1724,23 +1891,27 @@
       <c r="D46">
         <v>2.44635109999999</v>
       </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>5469.3702796790103</v>
+      </c>
       <c r="G46">
         <v>0.05</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="1">
         <v>16</v>
       </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>0.05</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>17</v>
       </c>
@@ -1753,23 +1924,27 @@
       <c r="D47">
         <v>1.36562899999999</v>
       </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>5679.4341655017997</v>
+      </c>
       <c r="G47">
         <v>0.05</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="1">
         <v>17</v>
       </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>0.05</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>18</v>
       </c>
@@ -1782,23 +1957,27 @@
       <c r="D48">
         <v>1.9462492</v>
       </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>5517.2790822470215</v>
+      </c>
       <c r="G48">
         <v>0.05</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="1">
         <v>18</v>
       </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>0.05</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>19</v>
       </c>
@@ -1811,23 +1990,27 @@
       <c r="D49">
         <v>2.3060661999999899</v>
       </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>5564.4543075129659</v>
+      </c>
       <c r="G49">
         <v>0.05</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="1">
         <v>19</v>
       </c>
-      <c r="Q49">
-        <v>1</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>0.05</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20</v>
       </c>
@@ -1840,1172 +2023,1582 @@
       <c r="D50">
         <v>2.29986269999999</v>
       </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>6046.4479031726805</v>
+      </c>
       <c r="G50">
         <v>0.05</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="1">
         <v>20</v>
       </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="R50">
+        <v>0.05</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="14">
+        <v>182645.9</v>
+      </c>
+      <c r="C51" s="14">
+        <v>961.7</v>
+      </c>
+      <c r="D51" s="14">
+        <v>32.832281270000301</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>5562.9975419005759</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="15">
-        <v>182645.9</v>
-      </c>
-      <c r="C51" s="15">
-        <v>961.7</v>
-      </c>
-      <c r="D51" s="15">
-        <v>32.832281270000301</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="15">
+      <c r="B52" s="14">
         <v>12432.1</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="14">
         <v>66</v>
       </c>
       <c r="D52">
         <v>2.2349278599999902</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>5562.6403977084319</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="L55" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="11" t="s">
+      <c r="L56" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M56" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
+    <row r="57" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="14" t="s">
+      <c r="C57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14" t="s">
+      <c r="E57" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14" t="s">
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="M57" s="14" t="s">
+      <c r="M57" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="O57" s="14" t="s">
+      <c r="N57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O57" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14" t="s">
+      <c r="P57" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R57" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R57" s="14" t="s">
+      <c r="S57" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G58">
-        <v>0.05</v>
-      </c>
       <c r="H58" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="7" t="s">
+      <c r="L58" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q58">
-        <v>1</v>
-      </c>
-      <c r="R58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59">
-        <v>24885</v>
+        <v>409677</v>
       </c>
       <c r="C59">
-        <v>200</v>
+        <v>3367</v>
       </c>
       <c r="D59">
-        <v>4.9999999999999902</v>
+        <v>99.999999999999503</v>
+      </c>
+      <c r="E59">
+        <f>B59/D59</f>
+        <v>4096.7700000000204</v>
       </c>
       <c r="G59">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>8</v>
       </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>1</v>
-      </c>
-      <c r="R59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
       <c r="B60">
-        <v>22616</v>
+        <v>329240</v>
       </c>
       <c r="C60">
-        <v>291</v>
+        <v>2402</v>
       </c>
       <c r="D60">
-        <v>4.9999999999999902</v>
+        <v>99.999999999999304</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60:E104" si="1">B60/D60</f>
+        <v>3292.4000000000228</v>
       </c>
       <c r="G60">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
         <v>8</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="1">
         <v>2</v>
       </c>
-      <c r="Q60">
-        <v>1</v>
-      </c>
-      <c r="R60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
         <v>3</v>
       </c>
       <c r="B61">
-        <v>32826</v>
+        <v>362759</v>
       </c>
       <c r="C61">
-        <v>384</v>
+        <v>2927</v>
       </c>
       <c r="D61">
-        <v>4.9999999999999902</v>
+        <v>99.999999999999005</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>3627.5900000000361</v>
       </c>
       <c r="G61">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
         <v>8</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="1">
         <v>3</v>
       </c>
-      <c r="Q61">
-        <v>1</v>
-      </c>
-      <c r="R61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
       <c r="B62">
-        <v>31652</v>
+        <v>445986</v>
       </c>
       <c r="C62">
-        <v>337</v>
+        <v>3550</v>
       </c>
       <c r="D62">
-        <v>4.9999999999999902</v>
+        <v>99.999999999999304</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>4459.8600000000315</v>
       </c>
       <c r="G62">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
         <v>8</v>
       </c>
-      <c r="L62">
-        <v>4</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-      <c r="R62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L62" s="1">
+        <v>4</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
       <c r="B63">
-        <v>31772</v>
+        <v>444987</v>
       </c>
       <c r="C63">
-        <v>325</v>
+        <v>3646</v>
       </c>
       <c r="D63">
-        <v>4.9999999999999902</v>
+        <v>99.999999999999304</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>4449.8700000000308</v>
       </c>
       <c r="G63">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
         <v>8</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="1">
         <v>5</v>
       </c>
-      <c r="Q63">
-        <v>1</v>
-      </c>
-      <c r="R63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
       <c r="B64">
-        <v>20890</v>
+        <v>292675</v>
       </c>
       <c r="C64">
-        <v>365</v>
+        <v>2405</v>
       </c>
       <c r="D64">
-        <v>4.9999999999999902</v>
+        <v>99.999999999999403</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>2926.7500000000173</v>
       </c>
       <c r="G64">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
         <v>8</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="1">
         <v>6</v>
       </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-      <c r="R64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
       <c r="B65">
-        <v>29029</v>
+        <v>388164</v>
       </c>
       <c r="C65">
-        <v>280</v>
+        <v>2849</v>
       </c>
       <c r="D65">
-        <v>4.9999999999999902</v>
+        <v>99.999999999999403</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>3881.6400000000231</v>
       </c>
       <c r="G65">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
         <v>8</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="1">
         <v>7</v>
       </c>
-      <c r="Q65">
-        <v>1</v>
-      </c>
-      <c r="R65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
       <c r="B66">
-        <v>32403</v>
+        <v>389213</v>
       </c>
       <c r="C66">
-        <v>322</v>
+        <v>2769</v>
       </c>
       <c r="D66">
-        <v>4.9999999999999902</v>
+        <v>99.999999999999304</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>3892.1300000000269</v>
       </c>
       <c r="G66">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
         <v>8</v>
       </c>
-      <c r="L66">
-        <v>8</v>
-      </c>
-      <c r="Q66">
-        <v>1</v>
-      </c>
-      <c r="R66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L66" s="1">
+        <v>8</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9</v>
       </c>
       <c r="B67">
-        <v>33315</v>
+        <v>434805</v>
       </c>
       <c r="C67">
-        <v>344</v>
+        <v>3906</v>
       </c>
       <c r="D67">
-        <v>4.9999999999999902</v>
+        <v>99.999999999999403</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>4348.0500000000256</v>
       </c>
       <c r="G67">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
         <v>8</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="4">
         <v>9</v>
       </c>
-      <c r="Q67">
-        <v>1</v>
-      </c>
-      <c r="R67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M67" s="4"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10</v>
       </c>
       <c r="B68">
-        <v>27200</v>
+        <v>425856</v>
       </c>
       <c r="C68">
-        <v>220</v>
+        <v>3434</v>
       </c>
       <c r="D68">
-        <v>4.9999999999999902</v>
+        <v>99.999999999999403</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>4258.5600000000259</v>
       </c>
       <c r="G68">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
         <v>8</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="1">
         <v>10</v>
       </c>
-      <c r="Q68">
-        <v>1</v>
-      </c>
-      <c r="R68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>11</v>
       </c>
+      <c r="B69">
+        <v>24885</v>
+      </c>
+      <c r="C69">
+        <v>200</v>
+      </c>
+      <c r="D69">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>4977.00000000001</v>
+      </c>
       <c r="G69">
         <v>0.05</v>
       </c>
       <c r="H69" t="s">
         <v>8</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="1">
         <v>11</v>
       </c>
-      <c r="Q69">
-        <v>1</v>
-      </c>
-      <c r="R69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <v>0.05</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12</v>
       </c>
+      <c r="B70">
+        <v>22616</v>
+      </c>
+      <c r="C70">
+        <v>291</v>
+      </c>
+      <c r="D70">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>4523.2000000000089</v>
+      </c>
       <c r="G70">
         <v>0.05</v>
       </c>
       <c r="H70" t="s">
         <v>8</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="1">
         <v>12</v>
       </c>
-      <c r="Q70">
-        <v>1</v>
-      </c>
-      <c r="R70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>0.05</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>13</v>
       </c>
+      <c r="B71">
+        <v>32826</v>
+      </c>
+      <c r="C71">
+        <v>384</v>
+      </c>
+      <c r="D71">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>6565.2000000000126</v>
+      </c>
       <c r="G71">
         <v>0.05</v>
       </c>
       <c r="H71" t="s">
         <v>8</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="1">
         <v>13</v>
       </c>
-      <c r="Q71">
-        <v>1</v>
-      </c>
-      <c r="R71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M71" s="1"/>
+      <c r="R71">
+        <v>0.05</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14</v>
       </c>
+      <c r="B72">
+        <v>31652</v>
+      </c>
+      <c r="C72">
+        <v>337</v>
+      </c>
+      <c r="D72">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>6330.4000000000124</v>
+      </c>
       <c r="G72">
         <v>0.05</v>
       </c>
       <c r="H72" t="s">
         <v>8</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="1">
         <v>14</v>
       </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
-      <c r="R72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
+      <c r="R72">
+        <v>0.05</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
         <v>15</v>
       </c>
+      <c r="B73">
+        <v>31772</v>
+      </c>
+      <c r="C73">
+        <v>325</v>
+      </c>
+      <c r="D73">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>6354.4000000000124</v>
+      </c>
       <c r="G73">
         <v>0.05</v>
       </c>
       <c r="H73" t="s">
         <v>8</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="1">
         <v>15</v>
       </c>
-      <c r="Q73">
-        <v>1</v>
-      </c>
-      <c r="R73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
+      <c r="R73">
+        <v>0.05</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
         <v>16</v>
       </c>
-      <c r="B74" s="1"/>
+      <c r="B74">
+        <v>20890</v>
+      </c>
+      <c r="C74">
+        <v>365</v>
+      </c>
+      <c r="D74">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>4178.0000000000082</v>
+      </c>
       <c r="G74">
         <v>0.05</v>
       </c>
       <c r="H74" t="s">
         <v>8</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="1">
         <v>16</v>
       </c>
-      <c r="Q74">
-        <v>1</v>
-      </c>
-      <c r="R74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
+      <c r="R74">
+        <v>0.05</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
         <v>17</v>
       </c>
-      <c r="B75" s="1"/>
+      <c r="B75">
+        <v>29029</v>
+      </c>
+      <c r="C75">
+        <v>280</v>
+      </c>
+      <c r="D75">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>5805.8000000000111</v>
+      </c>
       <c r="G75">
         <v>0.05</v>
       </c>
       <c r="H75" t="s">
         <v>8</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="1">
         <v>17</v>
       </c>
-      <c r="Q75">
-        <v>1</v>
-      </c>
-      <c r="R75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
+      <c r="R75">
+        <v>0.05</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="12">
         <v>18</v>
       </c>
-      <c r="B76" s="1"/>
+      <c r="B76">
+        <v>32403</v>
+      </c>
+      <c r="C76">
+        <v>322</v>
+      </c>
+      <c r="D76">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>6480.6000000000131</v>
+      </c>
       <c r="G76">
         <v>0.05</v>
       </c>
       <c r="H76" t="s">
         <v>8</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="1">
         <v>18</v>
       </c>
-      <c r="Q76">
-        <v>1</v>
-      </c>
-      <c r="R76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
+      <c r="R76">
+        <v>0.05</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="12">
         <v>19</v>
       </c>
-      <c r="B77" s="1"/>
+      <c r="B77">
+        <v>33315</v>
+      </c>
+      <c r="C77">
+        <v>344</v>
+      </c>
+      <c r="D77">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>6663.0000000000127</v>
+      </c>
       <c r="G77">
         <v>0.05</v>
       </c>
       <c r="H77" t="s">
         <v>8</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="1">
         <v>19</v>
       </c>
-      <c r="Q77">
-        <v>1</v>
-      </c>
-      <c r="R77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
+      <c r="R77">
+        <v>0.05</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
         <v>20</v>
       </c>
-      <c r="B78" s="1"/>
+      <c r="B78">
+        <v>27200</v>
+      </c>
+      <c r="C78">
+        <v>220</v>
+      </c>
+      <c r="D78">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>5440.0000000000109</v>
+      </c>
       <c r="G78">
         <v>0.05</v>
       </c>
       <c r="H78" t="s">
         <v>8</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="1">
         <v>20</v>
       </c>
-      <c r="Q78">
-        <v>1</v>
-      </c>
-      <c r="R78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <v>0.05</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79">
+        <v>392336.2</v>
+      </c>
+      <c r="C79">
+        <v>3125.5</v>
+      </c>
+      <c r="D79">
+        <v>100</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>3923.3620000000001</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="L79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" s="7"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="1">
         <v>28658.799999999999</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>306.8</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>5</v>
       </c>
-      <c r="G79" s="1"/>
-      <c r="L79" s="3" t="s">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>5731.76</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="L80" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="12">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>613524</v>
+      </c>
+      <c r="C83">
+        <v>7833</v>
+      </c>
+      <c r="D83">
+        <v>99.999999999999503</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>6135.2400000000307</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>660518</v>
+      </c>
+      <c r="C84">
+        <v>9066</v>
+      </c>
+      <c r="D84">
+        <v>99.999999999999304</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>6605.1800000000458</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>4</v>
+      </c>
+      <c r="L84" s="1">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>696948</v>
+      </c>
+      <c r="C85">
+        <v>8170</v>
+      </c>
+      <c r="D85">
+        <v>99.999999999999005</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>6969.4800000000696</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>4</v>
+      </c>
+      <c r="L85" s="1">
+        <v>2</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="12">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>620810</v>
+      </c>
+      <c r="C86">
+        <v>8588</v>
+      </c>
+      <c r="D86">
+        <v>99.999999999999304</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>6208.1000000000431</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>4</v>
+      </c>
+      <c r="L86" s="1">
+        <v>3</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>640259</v>
+      </c>
+      <c r="C87">
+        <v>8112</v>
+      </c>
+      <c r="D87">
+        <v>99.999999999999304</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>6402.5900000000447</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4</v>
+      </c>
+      <c r="L87" s="1">
+        <v>4</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="12">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>575698</v>
+      </c>
+      <c r="C88">
+        <v>7539</v>
+      </c>
+      <c r="D88">
+        <v>99.999999999999403</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>5756.9800000000341</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>4</v>
+      </c>
+      <c r="L88" s="1">
+        <v>5</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="12">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>620482</v>
+      </c>
+      <c r="C89">
+        <v>8517</v>
+      </c>
+      <c r="D89">
+        <v>99.999999999999403</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>6204.820000000037</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="1">
+        <v>6</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="12">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>643178</v>
+      </c>
+      <c r="C90">
+        <v>8392</v>
+      </c>
+      <c r="D90">
+        <v>99.999999999999304</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>6431.7800000000452</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4</v>
+      </c>
+      <c r="L90" s="1">
+        <v>7</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="12">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>654880</v>
+      </c>
+      <c r="C91">
+        <v>7828</v>
+      </c>
+      <c r="D91">
+        <v>99.999999999999403</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>6548.8000000000393</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="1">
+        <v>8</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <v>602162</v>
+      </c>
+      <c r="C92">
+        <v>8963</v>
+      </c>
+      <c r="D92">
+        <v>99.999999999999403</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>6021.6200000000363</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>4</v>
+      </c>
+      <c r="L92" s="4">
+        <v>9</v>
+      </c>
+      <c r="M92" s="4"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="12">
+        <v>11</v>
+      </c>
+      <c r="B93">
+        <v>31661</v>
+      </c>
+      <c r="C93">
+        <v>405</v>
+      </c>
+      <c r="D93">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>6332.2000000000126</v>
+      </c>
+      <c r="G93">
+        <v>0.05</v>
+      </c>
+      <c r="H93" t="s">
+        <v>4</v>
+      </c>
+      <c r="L93" s="1">
+        <v>10</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="12">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>31189</v>
+      </c>
+      <c r="C94">
+        <v>382</v>
+      </c>
+      <c r="D94">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>6237.800000000012</v>
+      </c>
+      <c r="G94">
+        <v>0.05</v>
+      </c>
+      <c r="H94" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="1">
+        <v>11</v>
+      </c>
+      <c r="R94">
+        <v>0.05</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
+        <v>13</v>
+      </c>
+      <c r="B95">
+        <v>32319</v>
+      </c>
+      <c r="C95">
+        <v>432</v>
+      </c>
+      <c r="D95">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>6463.8000000000129</v>
+      </c>
+      <c r="G95">
+        <v>0.05</v>
+      </c>
+      <c r="H95" t="s">
+        <v>4</v>
+      </c>
+      <c r="L95" s="1">
+        <v>12</v>
+      </c>
+      <c r="R95">
+        <v>0.05</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="12">
+        <v>14</v>
+      </c>
+      <c r="B96">
+        <v>32511</v>
+      </c>
+      <c r="C96">
+        <v>420</v>
+      </c>
+      <c r="D96">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>6502.2000000000126</v>
+      </c>
+      <c r="G96">
+        <v>0.05</v>
+      </c>
+      <c r="H96" t="s">
+        <v>4</v>
+      </c>
+      <c r="L96" s="1">
+        <v>13</v>
+      </c>
+      <c r="M96" s="1"/>
+      <c r="R96">
+        <v>0.05</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
+        <v>15</v>
+      </c>
+      <c r="B97">
+        <v>32761</v>
+      </c>
+      <c r="C97">
+        <v>423</v>
+      </c>
+      <c r="D97">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>6552.2000000000126</v>
+      </c>
+      <c r="G97">
+        <v>0.05</v>
+      </c>
+      <c r="H97" t="s">
+        <v>4</v>
+      </c>
+      <c r="L97" s="1">
+        <v>14</v>
+      </c>
+      <c r="R97">
+        <v>0.05</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="1"/>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="L81" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
-        <v>1</v>
-      </c>
-      <c r="B82">
-        <v>31661</v>
-      </c>
-      <c r="C82">
-        <v>405</v>
-      </c>
-      <c r="D82">
+      <c r="B98">
+        <v>31463</v>
+      </c>
+      <c r="C98">
+        <v>404</v>
+      </c>
+      <c r="D98">
         <v>4.9999999999999902</v>
       </c>
-      <c r="G82">
-        <v>0.05</v>
-      </c>
-      <c r="H82" t="s">
-        <v>4</v>
-      </c>
-      <c r="L82" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>1</v>
-      </c>
-      <c r="R82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
-        <v>2</v>
-      </c>
-      <c r="B83">
-        <v>31189</v>
-      </c>
-      <c r="C83">
-        <v>382</v>
-      </c>
-      <c r="D83">
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>6292.6000000000122</v>
+      </c>
+      <c r="G98">
+        <v>0.05</v>
+      </c>
+      <c r="H98" t="s">
+        <v>4</v>
+      </c>
+      <c r="L98" s="1">
+        <v>15</v>
+      </c>
+      <c r="R98">
+        <v>0.05</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
+        <v>17</v>
+      </c>
+      <c r="B99">
+        <v>34237</v>
+      </c>
+      <c r="C99">
+        <v>409</v>
+      </c>
+      <c r="D99">
         <v>4.9999999999999902</v>
       </c>
-      <c r="G83">
-        <v>0.05</v>
-      </c>
-      <c r="H83" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q83">
-        <v>1</v>
-      </c>
-      <c r="R83" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
-        <v>3</v>
-      </c>
-      <c r="B84">
-        <v>32319</v>
-      </c>
-      <c r="C84">
-        <v>432</v>
-      </c>
-      <c r="D84">
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>6847.4000000000133</v>
+      </c>
+      <c r="G99">
+        <v>0.05</v>
+      </c>
+      <c r="H99" t="s">
+        <v>4</v>
+      </c>
+      <c r="L99" s="1">
+        <v>16</v>
+      </c>
+      <c r="R99">
+        <v>0.05</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
+        <v>18</v>
+      </c>
+      <c r="B100">
+        <v>34687</v>
+      </c>
+      <c r="C100">
+        <v>415</v>
+      </c>
+      <c r="D100">
         <v>4.9999999999999902</v>
       </c>
-      <c r="G84">
-        <v>0.05</v>
-      </c>
-      <c r="H84" t="s">
-        <v>4</v>
-      </c>
-      <c r="L84" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q84">
-        <v>1</v>
-      </c>
-      <c r="R84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
-        <v>4</v>
-      </c>
-      <c r="B85">
-        <v>32511</v>
-      </c>
-      <c r="C85">
-        <v>420</v>
-      </c>
-      <c r="D85">
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>6937.4000000000133</v>
+      </c>
+      <c r="G100">
+        <v>0.05</v>
+      </c>
+      <c r="H100" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="1">
+        <v>17</v>
+      </c>
+      <c r="R100">
+        <v>0.05</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="12">
+        <v>19</v>
+      </c>
+      <c r="B101">
+        <v>34413</v>
+      </c>
+      <c r="C101">
+        <v>422</v>
+      </c>
+      <c r="D101">
         <v>4.9999999999999902</v>
       </c>
-      <c r="G85">
-        <v>0.05</v>
-      </c>
-      <c r="H85" t="s">
-        <v>4</v>
-      </c>
-      <c r="L85" s="13">
-        <v>4</v>
-      </c>
-      <c r="Q85">
-        <v>1</v>
-      </c>
-      <c r="R85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>6882.6000000000131</v>
+      </c>
+      <c r="G101">
+        <v>0.05</v>
+      </c>
+      <c r="H101" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="1">
+        <v>18</v>
+      </c>
+      <c r="R101">
+        <v>0.05</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
+        <v>20</v>
+      </c>
+      <c r="B102">
+        <v>33048</v>
+      </c>
+      <c r="C102">
+        <v>447</v>
+      </c>
+      <c r="D102">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>6609.6000000000131</v>
+      </c>
+      <c r="G102">
+        <v>0.05</v>
+      </c>
+      <c r="H102" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="1">
+        <v>19</v>
+      </c>
+      <c r="R102">
+        <v>0.05</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103">
+        <v>632845.9</v>
+      </c>
+      <c r="C103">
+        <v>8300.7999999999993</v>
+      </c>
+      <c r="D103">
+        <v>100</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>6328.4589999999998</v>
+      </c>
+      <c r="L103" s="1">
+        <v>20</v>
+      </c>
+      <c r="R103">
+        <v>0.05</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104">
+        <v>32828.9</v>
+      </c>
+      <c r="C104">
+        <v>415.9</v>
+      </c>
+      <c r="D104">
         <v>5</v>
       </c>
-      <c r="B86">
-        <v>32761</v>
-      </c>
-      <c r="C86">
-        <v>423</v>
-      </c>
-      <c r="D86">
-        <v>4.9999999999999902</v>
-      </c>
-      <c r="G86">
-        <v>0.05</v>
-      </c>
-      <c r="H86" t="s">
-        <v>4</v>
-      </c>
-      <c r="L86" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q86">
-        <v>1</v>
-      </c>
-      <c r="R86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>6</v>
-      </c>
-      <c r="B87">
-        <v>31463</v>
-      </c>
-      <c r="C87">
-        <v>404</v>
-      </c>
-      <c r="D87">
-        <v>4.9999999999999902</v>
-      </c>
-      <c r="G87">
-        <v>0.05</v>
-      </c>
-      <c r="H87" t="s">
-        <v>4</v>
-      </c>
-      <c r="L87" s="13">
-        <v>6</v>
-      </c>
-      <c r="Q87">
-        <v>1</v>
-      </c>
-      <c r="R87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>7</v>
-      </c>
-      <c r="B88">
-        <v>34237</v>
-      </c>
-      <c r="C88">
-        <v>409</v>
-      </c>
-      <c r="D88">
-        <v>4.9999999999999902</v>
-      </c>
-      <c r="G88">
-        <v>0.05</v>
-      </c>
-      <c r="H88" t="s">
-        <v>4</v>
-      </c>
-      <c r="L88" s="13">
-        <v>7</v>
-      </c>
-      <c r="Q88">
-        <v>1</v>
-      </c>
-      <c r="R88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>8</v>
-      </c>
-      <c r="B89">
-        <v>34687</v>
-      </c>
-      <c r="C89">
-        <v>415</v>
-      </c>
-      <c r="D89">
-        <v>4.9999999999999902</v>
-      </c>
-      <c r="G89">
-        <v>0.05</v>
-      </c>
-      <c r="H89" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="13">
-        <v>8</v>
-      </c>
-      <c r="Q89">
-        <v>1</v>
-      </c>
-      <c r="R89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>9</v>
-      </c>
-      <c r="B90">
-        <v>34413</v>
-      </c>
-      <c r="C90">
-        <v>422</v>
-      </c>
-      <c r="D90">
-        <v>4.9999999999999902</v>
-      </c>
-      <c r="G90">
-        <v>0.05</v>
-      </c>
-      <c r="H90" t="s">
-        <v>4</v>
-      </c>
-      <c r="L90" s="13">
-        <v>9</v>
-      </c>
-      <c r="Q90">
-        <v>1</v>
-      </c>
-      <c r="R90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>10</v>
-      </c>
-      <c r="B91">
-        <v>33048</v>
-      </c>
-      <c r="C91">
-        <v>447</v>
-      </c>
-      <c r="D91">
-        <v>4.9999999999999902</v>
-      </c>
-      <c r="G91">
-        <v>0.05</v>
-      </c>
-      <c r="H91" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q91">
-        <v>1</v>
-      </c>
-      <c r="R91" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>11</v>
-      </c>
-      <c r="G92">
-        <v>0.05</v>
-      </c>
-      <c r="H92" t="s">
-        <v>4</v>
-      </c>
-      <c r="L92" s="13">
-        <v>11</v>
-      </c>
-      <c r="Q92">
-        <v>1</v>
-      </c>
-      <c r="R92" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
-        <v>12</v>
-      </c>
-      <c r="G93">
-        <v>0.05</v>
-      </c>
-      <c r="H93" t="s">
-        <v>4</v>
-      </c>
-      <c r="L93" s="13">
-        <v>12</v>
-      </c>
-      <c r="Q93">
-        <v>1</v>
-      </c>
-      <c r="R93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
-        <v>13</v>
-      </c>
-      <c r="G94">
-        <v>0.05</v>
-      </c>
-      <c r="H94" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="13">
-        <v>13</v>
-      </c>
-      <c r="Q94">
-        <v>1</v>
-      </c>
-      <c r="R94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
-        <v>14</v>
-      </c>
-      <c r="G95">
-        <v>0.05</v>
-      </c>
-      <c r="H95" t="s">
-        <v>4</v>
-      </c>
-      <c r="L95" s="13">
-        <v>14</v>
-      </c>
-      <c r="Q95">
-        <v>1</v>
-      </c>
-      <c r="R95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
-        <v>15</v>
-      </c>
-      <c r="G96">
-        <v>0.05</v>
-      </c>
-      <c r="H96" t="s">
-        <v>4</v>
-      </c>
-      <c r="L96" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q96">
-        <v>1</v>
-      </c>
-      <c r="R96" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>6565.7800000000007</v>
+      </c>
+      <c r="L104" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G97">
-        <v>0.05</v>
-      </c>
-      <c r="H97" t="s">
-        <v>4</v>
-      </c>
-      <c r="L97" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q97">
-        <v>1</v>
-      </c>
-      <c r="R97" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
+      <c r="M104" s="7"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L105" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="G98">
-        <v>0.05</v>
-      </c>
-      <c r="H98" t="s">
-        <v>4</v>
-      </c>
-      <c r="L98" s="13">
-        <v>17</v>
-      </c>
-      <c r="Q98">
-        <v>1</v>
-      </c>
-      <c r="R98" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
-        <v>18</v>
-      </c>
-      <c r="G99">
-        <v>0.05</v>
-      </c>
-      <c r="H99" t="s">
-        <v>4</v>
-      </c>
-      <c r="L99" s="13">
-        <v>18</v>
-      </c>
-      <c r="Q99">
-        <v>1</v>
-      </c>
-      <c r="R99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
-        <v>19</v>
-      </c>
-      <c r="G100">
-        <v>0.05</v>
-      </c>
-      <c r="H100" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="13">
-        <v>19</v>
-      </c>
-      <c r="Q100">
-        <v>1</v>
-      </c>
-      <c r="R100" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
-        <v>20</v>
-      </c>
-      <c r="G101">
-        <v>0.05</v>
-      </c>
-      <c r="H101" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="13">
-        <v>20</v>
-      </c>
-      <c r="Q101">
-        <v>1</v>
-      </c>
-      <c r="R101" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B102">
-        <v>32828.9</v>
-      </c>
-      <c r="C102">
-        <v>415.9</v>
-      </c>
-      <c r="D102">
-        <v>5</v>
-      </c>
-      <c r="G102">
-        <v>0.05</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
+++ b/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bozho1\Desktop\Thesis Code\ThesisWorkCybercom\pyFiles\RL\Results\New Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D56DAB-727C-4317-94C7-DC6C8B6644F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F2856-CDC8-4ABC-B95A-D906DA13B2A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="28">
   <si>
     <t>Controller</t>
   </si>
@@ -75,6 +75,42 @@
     <t>Energy Cons.</t>
   </si>
   <si>
+    <t>Until all node dies</t>
+  </si>
+  <si>
+    <t>Mean 1J</t>
+  </si>
+  <si>
+    <t>Mean 0.05J</t>
+  </si>
+  <si>
+    <t>Until One Node Dies</t>
+  </si>
+  <si>
+    <t>Pac. per Energy</t>
+  </si>
+  <si>
+    <t>Fixed Node Placement</t>
+  </si>
+  <si>
+    <t>Until one Node Dies</t>
+  </si>
+  <si>
+    <t>______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________</t>
+  </si>
+  <si>
+    <t>Until one node dies</t>
+  </si>
+  <si>
+    <t>Mean 0.1J</t>
+  </si>
+  <si>
+    <t>Mean 0.05</t>
+  </si>
+  <si>
+    <t>Fix ε Randomized  Energy</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Fix </t>
     </r>
@@ -88,21 +124,20 @@
       </rPr>
       <t>ε</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Distributed Energy</t>
+    </r>
   </si>
   <si>
-    <t>Until all node dies</t>
-  </si>
-  <si>
-    <t>Mean 1J</t>
-  </si>
-  <si>
-    <t>Mean 0.05J</t>
-  </si>
-  <si>
-    <t>Until One Node Dies</t>
-  </si>
-  <si>
-    <t>Pac. per Energy</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -550,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2693EA75-5C63-4FDE-887F-C7326CFE699C}">
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:AN159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="T70" workbookViewId="0">
+      <selection activeCell="AH70" sqref="AH70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,22 +611,45 @@
     <col min="17" max="17" width="8.7109375" customWidth="1"/>
     <col min="18" max="18" width="17.85546875" customWidth="1"/>
     <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" customWidth="1"/>
+    <col min="23" max="23" width="34.85546875" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="26" max="26" width="17.7109375" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" customWidth="1"/>
+    <col min="34" max="34" width="36.85546875" customWidth="1"/>
+    <col min="35" max="35" width="13" customWidth="1"/>
+    <col min="36" max="36" width="15.42578125" customWidth="1"/>
+    <col min="37" max="37" width="18.140625" customWidth="1"/>
+    <col min="39" max="39" width="17.85546875" customWidth="1"/>
+    <col min="40" max="40" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:40" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -604,8 +662,20 @@
       <c r="M3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +689,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>2</v>
@@ -640,7 +710,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>2</v>
@@ -648,8 +718,50 @@
       <c r="S4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -663,8 +775,26 @@
       <c r="M5" s="1"/>
       <c r="O5" s="1"/>
       <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5">
+        <v>0.1</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM5">
+        <v>0.1</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -690,14 +820,71 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
+      <c r="M6">
+        <v>215339</v>
+      </c>
+      <c r="N6">
+        <v>1124</v>
+      </c>
+      <c r="O6">
+        <v>67.506436300001496</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P15" si="0">M6/O6</f>
+        <v>3189.9032418631054</v>
+      </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>443</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>8.0960982256880906E-2</v>
+      </c>
+      <c r="Z6">
+        <f>W6/Y6</f>
+        <v>5471.7715577413128</v>
+      </c>
+      <c r="AB6">
+        <v>0.1</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>202</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>3.79855781103371E-2</v>
+      </c>
+      <c r="AK6">
+        <f>AH6/AJ6</f>
+        <v>5317.8077062101966</v>
+      </c>
+      <c r="AM6">
+        <v>0.1</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -711,7 +898,7 @@
         <v>43.380756600000502</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E52" si="0">B7/D7</f>
+        <f t="shared" ref="E7:E52" si="1">B7/D7</f>
         <v>3389.2677657908412</v>
       </c>
       <c r="G7">
@@ -723,14 +910,71 @@
       <c r="L7" s="1">
         <v>2</v>
       </c>
+      <c r="M7">
+        <v>209844</v>
+      </c>
+      <c r="N7">
+        <v>1099</v>
+      </c>
+      <c r="O7">
+        <v>48.101838400000901</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>4362.4943864930547</v>
+      </c>
       <c r="R7">
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>1169</v>
+      </c>
+      <c r="X7">
+        <v>7</v>
+      </c>
+      <c r="Y7">
+        <v>0.20456565623946599</v>
+      </c>
+      <c r="Z7">
+        <f>W7/Y7</f>
+        <v>5714.54672054805</v>
+      </c>
+      <c r="AB7">
+        <v>0.1</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG7">
+        <v>2</v>
+      </c>
+      <c r="AH7">
+        <v>297</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
+      </c>
+      <c r="AJ7">
+        <v>6.4410163344809104E-2</v>
+      </c>
+      <c r="AK7">
+        <f>AH7/AJ7</f>
+        <v>4611.0735414543178</v>
+      </c>
+      <c r="AM7">
+        <v>0.1</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -744,7 +988,7 @@
         <v>47.762579000000599</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3785.2227368207596</v>
       </c>
       <c r="G8">
@@ -756,14 +1000,71 @@
       <c r="L8" s="1">
         <v>3</v>
       </c>
+      <c r="M8">
+        <v>189637</v>
+      </c>
+      <c r="N8">
+        <v>990</v>
+      </c>
+      <c r="O8">
+        <v>61.108915300000902</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>3103.2624138232281</v>
+      </c>
       <c r="R8">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>593</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>9.5694199999999896E-2</v>
+      </c>
+      <c r="Z8">
+        <f>W8/Y8</f>
+        <v>6196.8227959479327</v>
+      </c>
+      <c r="AB8">
+        <v>0.1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG8">
+        <v>3</v>
+      </c>
+      <c r="AH8">
+        <v>832</v>
+      </c>
+      <c r="AI8">
+        <v>4</v>
+      </c>
+      <c r="AJ8">
+        <v>0.14901249999999999</v>
+      </c>
+      <c r="AK8">
+        <f>AH8/AJ8</f>
+        <v>5583.4242093784078</v>
+      </c>
+      <c r="AM8">
+        <v>0.1</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -777,17 +1078,30 @@
         <v>48.797405000000602</v>
       </c>
       <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3915.4541107257169</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>243623</v>
+      </c>
+      <c r="N9">
+        <v>1270</v>
+      </c>
+      <c r="O9">
+        <v>59.427170600000998</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="0"/>
-        <v>3915.4541107257169</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="1">
-        <v>4</v>
+        <v>4099.5221132065117</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -795,8 +1109,52 @@
       <c r="S9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>199</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>3.4754300000000002E-2</v>
+      </c>
+      <c r="Z9">
+        <f>W9/Y9</f>
+        <v>5725.9101751437947</v>
+      </c>
+      <c r="AB9">
+        <v>0.1</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG9">
+        <v>4</v>
+      </c>
+      <c r="AH9">
+        <v>370</v>
+      </c>
+      <c r="AI9">
+        <v>2</v>
+      </c>
+      <c r="AJ9">
+        <v>6.7502695408586694E-2</v>
+      </c>
+      <c r="AK9">
+        <f>AH9/AJ9</f>
+        <v>5481.2626038179515</v>
+      </c>
+      <c r="AM9">
+        <v>0.1</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -810,7 +1168,7 @@
         <v>50.320584200000603</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3309.0434589985944</v>
       </c>
       <c r="G10">
@@ -822,14 +1180,71 @@
       <c r="L10" s="1">
         <v>5</v>
       </c>
+      <c r="M10">
+        <v>211885</v>
+      </c>
+      <c r="N10">
+        <v>1100</v>
+      </c>
+      <c r="O10">
+        <v>59.4682033000011</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>3562.9964963141247</v>
+      </c>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>162</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>3.2103327794318098E-2</v>
+      </c>
+      <c r="Z10">
+        <f>W10/Y10</f>
+        <v>5046.2058337974559</v>
+      </c>
+      <c r="AB10">
+        <v>0.1</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG10">
+        <v>5</v>
+      </c>
+      <c r="AH10">
+        <v>224</v>
+      </c>
+      <c r="AI10">
+        <v>2</v>
+      </c>
+      <c r="AJ10">
+        <v>3.7862999850257303E-2</v>
+      </c>
+      <c r="AK10">
+        <f>AH10/AJ10</f>
+        <v>5916.0658396293911</v>
+      </c>
+      <c r="AM10">
+        <v>0.1</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -843,7 +1258,7 @@
         <v>48.646262300000799</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3671.402314500061</v>
       </c>
       <c r="G11">
@@ -855,14 +1270,71 @@
       <c r="L11" s="1">
         <v>6</v>
       </c>
+      <c r="M11">
+        <v>166038</v>
+      </c>
+      <c r="N11">
+        <v>865</v>
+      </c>
+      <c r="O11">
+        <v>48.909334600000598</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>3394.8120815366392</v>
+      </c>
       <c r="R11">
         <v>1</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <v>6</v>
+      </c>
+      <c r="W11">
+        <v>418</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>6.4828499999999997E-2</v>
+      </c>
+      <c r="Z11">
+        <f>W11/Y11</f>
+        <v>6447.7814541443968</v>
+      </c>
+      <c r="AB11">
+        <v>0.1</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG11">
+        <v>6</v>
+      </c>
+      <c r="AH11">
+        <v>188</v>
+      </c>
+      <c r="AI11">
+        <v>2</v>
+      </c>
+      <c r="AJ11">
+        <v>3.4175571645349297E-2</v>
+      </c>
+      <c r="AK11">
+        <f>AH11/AJ11</f>
+        <v>5501.005278007794</v>
+      </c>
+      <c r="AM11">
+        <v>0.1</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -876,7 +1348,7 @@
         <v>44.689656100000498</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4104.6411185070174</v>
       </c>
       <c r="G12">
@@ -888,14 +1360,71 @@
       <c r="L12" s="1">
         <v>7</v>
       </c>
+      <c r="M12">
+        <v>270668</v>
+      </c>
+      <c r="N12">
+        <v>1408</v>
+      </c>
+      <c r="O12">
+        <v>50.201937200001197</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>5391.5847693621181</v>
+      </c>
       <c r="R12">
         <v>1</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>202</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>4.25092068684437E-2</v>
+      </c>
+      <c r="Z12">
+        <f>W12/Y12</f>
+        <v>4751.911759378243</v>
+      </c>
+      <c r="AB12">
+        <v>0.1</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG12">
+        <v>7</v>
+      </c>
+      <c r="AH12">
+        <v>552</v>
+      </c>
+      <c r="AI12">
+        <v>4</v>
+      </c>
+      <c r="AJ12">
+        <v>9.9442390105072997E-2</v>
+      </c>
+      <c r="AK12">
+        <f>AH12/AJ12</f>
+        <v>5550.9526613021344</v>
+      </c>
+      <c r="AM12">
+        <v>0.1</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -909,17 +1438,30 @@
         <v>48.8300467000008</v>
       </c>
       <c r="E13">
+        <f t="shared" si="1"/>
+        <v>3569.7692666756584</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="1">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>189634</v>
+      </c>
+      <c r="N13">
+        <v>983</v>
+      </c>
+      <c r="O13">
+        <v>52.1735900000008</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="0"/>
-        <v>3569.7692666756584</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="1">
-        <v>8</v>
+        <v>3634.674171357522</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -927,8 +1469,52 @@
       <c r="S13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <v>8</v>
+      </c>
+      <c r="W13">
+        <v>213</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>3.5021799999999999E-2</v>
+      </c>
+      <c r="Z13">
+        <f>W13/Y13</f>
+        <v>6081.9261145914834</v>
+      </c>
+      <c r="AB13">
+        <v>0.1</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG13">
+        <v>8</v>
+      </c>
+      <c r="AH13">
+        <v>852</v>
+      </c>
+      <c r="AI13">
+        <v>4</v>
+      </c>
+      <c r="AJ13">
+        <v>0.14937989999999901</v>
+      </c>
+      <c r="AK13">
+        <f>AH13/AJ13</f>
+        <v>5703.5785939072503</v>
+      </c>
+      <c r="AM13">
+        <v>0.1</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -942,7 +1528,7 @@
         <v>50.529076200000901</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3726.4880769776796</v>
       </c>
       <c r="G14">
@@ -954,17 +1540,71 @@
       <c r="L14" s="4">
         <v>9</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="M14">
+        <v>131543</v>
+      </c>
+      <c r="N14">
+        <v>681</v>
+      </c>
+      <c r="O14">
+        <v>38.105316300000297</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>3452.090489536206</v>
+      </c>
       <c r="R14">
         <v>1</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <v>9</v>
+      </c>
+      <c r="W14">
+        <v>390</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>6.6500415448856098E-2</v>
+      </c>
+      <c r="Z14">
+        <f>W14/Y14</f>
+        <v>5864.6250157630939</v>
+      </c>
+      <c r="AB14">
+        <v>0.1</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG14">
+        <v>9</v>
+      </c>
+      <c r="AH14">
+        <v>434</v>
+      </c>
+      <c r="AI14">
+        <v>2</v>
+      </c>
+      <c r="AJ14">
+        <v>7.8313499999999897E-2</v>
+      </c>
+      <c r="AK14">
+        <f>AH14/AJ14</f>
+        <v>5541.8286757711066</v>
+      </c>
+      <c r="AM14">
+        <v>0.1</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -978,7 +1618,7 @@
         <v>46.347527000000603</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4172.7145441869525</v>
       </c>
       <c r="G15">
@@ -990,14 +1630,71 @@
       <c r="L15" s="1">
         <v>10</v>
       </c>
+      <c r="M15">
+        <v>195380</v>
+      </c>
+      <c r="N15">
+        <v>1021</v>
+      </c>
+      <c r="O15">
+        <v>48.327619200000797</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>4042.822784036437</v>
+      </c>
       <c r="R15">
         <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <v>10</v>
+      </c>
+      <c r="W15">
+        <v>685</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Y15">
+        <v>0.1244639</v>
+      </c>
+      <c r="Z15">
+        <f>W15/Y15</f>
+        <v>5503.6038562185504</v>
+      </c>
+      <c r="AB15">
+        <v>0.1</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG15">
+        <v>10</v>
+      </c>
+      <c r="AH15">
+        <v>210</v>
+      </c>
+      <c r="AI15">
+        <v>2</v>
+      </c>
+      <c r="AJ15">
+        <v>4.1716103308022202E-2</v>
+      </c>
+      <c r="AK15">
+        <f>AH15/AJ15</f>
+        <v>5034.0272304296459</v>
+      </c>
+      <c r="AM15">
+        <v>0.1</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -1011,7 +1708,7 @@
         <v>2.8362612999999901</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5496.3201028057802</v>
       </c>
       <c r="G16">
@@ -1023,14 +1720,39 @@
       <c r="L16" s="1">
         <v>11</v>
       </c>
+      <c r="M16">
+        <v>12016</v>
+      </c>
+      <c r="N16">
+        <v>63</v>
+      </c>
+      <c r="O16">
+        <v>2.2311146999999898</v>
+      </c>
+      <c r="P16">
+        <f>M16/O16</f>
+        <v>5385.6487073479702</v>
+      </c>
       <c r="R16">
         <v>0.05</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <v>11</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG16">
+        <v>11</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -1044,7 +1766,7 @@
         <v>2.0675134999999898</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5641.5592933250773</v>
       </c>
       <c r="G17">
@@ -1056,14 +1778,39 @@
       <c r="L17" s="1">
         <v>12</v>
       </c>
+      <c r="M17">
+        <v>15500</v>
+      </c>
+      <c r="N17">
+        <v>81</v>
+      </c>
+      <c r="O17">
+        <v>2.9312787999999901</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17:P80" si="2">M17/O17</f>
+        <v>5287.7945284495127</v>
+      </c>
       <c r="R17">
         <v>0.05</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <v>12</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG17">
+        <v>12</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -1077,7 +1824,7 @@
         <v>2.2550701999999898</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5598.9387824822734</v>
       </c>
       <c r="G18">
@@ -1089,15 +1836,39 @@
       <c r="L18" s="1">
         <v>13</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18">
+        <v>13820</v>
+      </c>
+      <c r="N18">
+        <v>72</v>
+      </c>
+      <c r="O18">
+        <v>2.4170403999999901</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>5717.736451571127</v>
+      </c>
       <c r="R18">
         <v>0.05</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <v>13</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG18">
+        <v>13</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -1111,7 +1882,7 @@
         <v>2.61115549999999</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5259.3573994348681</v>
       </c>
       <c r="G19">
@@ -1123,14 +1894,39 @@
       <c r="L19" s="1">
         <v>14</v>
       </c>
+      <c r="M19">
+        <v>13441</v>
+      </c>
+      <c r="N19">
+        <v>70</v>
+      </c>
+      <c r="O19">
+        <v>2.5736364999999899</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>5222.5712527779478</v>
+      </c>
       <c r="R19">
         <v>0.05</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <v>14</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG19">
+        <v>14</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -1144,7 +1940,7 @@
         <v>2.5050877999999899</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5207.8014990133488</v>
       </c>
       <c r="G20">
@@ -1156,14 +1952,39 @@
       <c r="L20" s="1">
         <v>15</v>
       </c>
+      <c r="M20">
+        <v>13511</v>
+      </c>
+      <c r="N20">
+        <v>70</v>
+      </c>
+      <c r="O20">
+        <v>2.6003372999999899</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>5195.8643980533034</v>
+      </c>
       <c r="R20">
         <v>0.05</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <v>15</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG20">
+        <v>15</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -1177,7 +1998,7 @@
         <v>2.4996553999999902</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5421.9473612242928</v>
       </c>
       <c r="G21">
@@ -1189,14 +2010,39 @@
       <c r="L21" s="1">
         <v>16</v>
       </c>
+      <c r="M21">
+        <v>12534</v>
+      </c>
+      <c r="N21">
+        <v>66</v>
+      </c>
+      <c r="O21">
+        <v>2.15862199999999</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>5806.4820983016289</v>
+      </c>
       <c r="R21">
         <v>0.05</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <v>16</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG21">
+        <v>16</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -1210,7 +2056,7 @@
         <v>2.2754759999999998</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3411.5938818954805</v>
       </c>
       <c r="G22">
@@ -1222,14 +2068,39 @@
       <c r="L22" s="1">
         <v>17</v>
       </c>
+      <c r="M22">
+        <v>8123</v>
+      </c>
+      <c r="N22">
+        <v>43</v>
+      </c>
+      <c r="O22">
+        <v>1.8829049999999901</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>4314.0785116615243</v>
+      </c>
       <c r="R22">
         <v>0.05</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>17</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG22">
+        <v>17</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -1243,7 +2114,7 @@
         <v>2.2377007</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4875.5403258353545</v>
       </c>
       <c r="G23">
@@ -1255,14 +2126,39 @@
       <c r="L23" s="1">
         <v>18</v>
       </c>
+      <c r="M23">
+        <v>13174</v>
+      </c>
+      <c r="N23">
+        <v>69</v>
+      </c>
+      <c r="O23">
+        <v>2.5708855999999898</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>5124.3042475324664</v>
+      </c>
       <c r="R23">
         <v>0.05</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <v>18</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG23">
+        <v>18</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -1276,7 +2172,7 @@
         <v>2.4179460999999902</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5361.1616900807066</v>
       </c>
       <c r="G24">
@@ -1288,14 +2184,39 @@
       <c r="L24" s="1">
         <v>19</v>
       </c>
+      <c r="M24">
+        <v>9321</v>
+      </c>
+      <c r="N24">
+        <v>49</v>
+      </c>
+      <c r="O24">
+        <v>1.89899339999999</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>4908.3898869790964</v>
+      </c>
       <c r="R24">
         <v>0.05</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <v>19</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG24">
+        <v>19</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -1309,7 +2230,7 @@
         <v>2.739277</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5161.2158974795175</v>
       </c>
       <c r="G25">
@@ -1321,16 +2242,41 @@
       <c r="L25" s="1">
         <v>20</v>
       </c>
+      <c r="M25">
+        <v>15355</v>
+      </c>
+      <c r="N25">
+        <v>80</v>
+      </c>
+      <c r="O25">
+        <v>2.7512728999999898</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>5581.0530463917476</v>
+      </c>
       <c r="R25">
         <v>0.05</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG25">
+        <v>20</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="14">
         <v>184626.2</v>
@@ -1342,17 +2288,68 @@
         <v>48.290751920000702</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3823.2206511477598</v>
       </c>
       <c r="L26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>202359.1</v>
+      </c>
+      <c r="N26">
+        <v>1054.0999999999999</v>
+      </c>
+      <c r="O26">
+        <v>53.333036120000898</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>3794.2542694304161</v>
+      </c>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W26">
+        <v>447.4</v>
+      </c>
+      <c r="X26">
+        <v>2.6</v>
+      </c>
+      <c r="Y26">
+        <v>7.8140228860796496E-2</v>
+      </c>
+      <c r="Z26">
+        <f>W26/Y26</f>
+        <v>5725.6039113607421</v>
+      </c>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH26">
+        <v>416.1</v>
+      </c>
+      <c r="AI26">
+        <v>2.5</v>
+      </c>
+      <c r="AJ26">
+        <v>7.5980140177243499E-2</v>
+      </c>
+      <c r="AK26">
+        <f>AH26/AJ26</f>
+        <v>5476.4310651354181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="B27">
         <v>12598.5</v>
@@ -1364,22 +2361,106 @@
         <v>2.4445143499999902</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5153.7844316602395</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="M27">
+        <v>12679.5</v>
+      </c>
+      <c r="N27">
+        <v>66.3</v>
+      </c>
+      <c r="O27">
+        <v>2.4016086599999902</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>5279.5862253428295</v>
+      </c>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>200202.2</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>445</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <v>8.1049200000000002E-2</v>
+      </c>
+      <c r="Z30">
+        <f>W30/Y30</f>
+        <v>5490.4921948643541</v>
+      </c>
+      <c r="AB30">
+        <v>0.1</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30">
+        <v>194</v>
+      </c>
+      <c r="AI30">
+        <v>2</v>
+      </c>
+      <c r="AJ30">
+        <v>3.6376278085432999E-2</v>
+      </c>
+      <c r="AK30">
+        <f>AH30/AJ30</f>
+        <v>5333.1459459478883</v>
+      </c>
+      <c r="AM30">
+        <v>0.1</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1393,7 +2474,7 @@
         <v>42.335760600000697</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5675.2021599440932</v>
       </c>
       <c r="G31">
@@ -1405,14 +2486,71 @@
       <c r="L31" s="1">
         <v>1</v>
       </c>
+      <c r="M31">
+        <v>213499</v>
+      </c>
+      <c r="N31">
+        <v>1124</v>
+      </c>
+      <c r="O31">
+        <v>38.713830400000603</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>5514.7991762653555</v>
+      </c>
       <c r="R31">
         <v>1</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>1183</v>
+      </c>
+      <c r="X31">
+        <v>7</v>
+      </c>
+      <c r="Y31">
+        <v>0.20546209999999901</v>
+      </c>
+      <c r="Z31">
+        <f>W31/Y31</f>
+        <v>5757.75288970572</v>
+      </c>
+      <c r="AB31">
+        <v>0.1</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG31">
+        <v>2</v>
+      </c>
+      <c r="AH31">
+        <v>303</v>
+      </c>
+      <c r="AI31">
+        <v>2</v>
+      </c>
+      <c r="AJ31">
+        <v>6.4813499999999996E-2</v>
+      </c>
+      <c r="AK31">
+        <f>AH31/AJ31</f>
+        <v>4674.9519775972603</v>
+      </c>
+      <c r="AM31">
+        <v>0.1</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1426,7 +2564,7 @@
         <v>27.3269671000001</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5316.7993165256703</v>
       </c>
       <c r="G32">
@@ -1438,14 +2576,71 @@
       <c r="L32" s="1">
         <v>2</v>
       </c>
+      <c r="M32">
+        <v>208712</v>
+      </c>
+      <c r="N32">
+        <v>1099</v>
+      </c>
+      <c r="O32">
+        <v>36.8888985000006</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>5657.8539475771177</v>
+      </c>
       <c r="R32">
         <v>1</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>566</v>
+      </c>
+      <c r="X32">
+        <v>4</v>
+      </c>
+      <c r="Y32">
+        <v>9.2735786303480797E-2</v>
+      </c>
+      <c r="Z32">
+        <f>W32/Y32</f>
+        <v>6103.3612002571163</v>
+      </c>
+      <c r="AB32">
+        <v>0.1</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG32">
+        <v>3</v>
+      </c>
+      <c r="AH32">
+        <v>819</v>
+      </c>
+      <c r="AI32">
+        <v>5</v>
+      </c>
+      <c r="AJ32">
+        <v>0.146754020967897</v>
+      </c>
+      <c r="AK32">
+        <f>AH32/AJ32</f>
+        <v>5580.767018159996</v>
+      </c>
+      <c r="AM32">
+        <v>0.1</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1459,7 +2654,7 @@
         <v>33.695929600000397</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5286.8403428762476</v>
       </c>
       <c r="G33">
@@ -1471,14 +2666,71 @@
       <c r="L33" s="1">
         <v>3</v>
       </c>
+      <c r="M33">
+        <v>188014</v>
+      </c>
+      <c r="N33">
+        <v>990</v>
+      </c>
+      <c r="O33">
+        <v>33.1780442000004</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>5666.8198663740923</v>
+      </c>
       <c r="R33">
         <v>1</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V33">
+        <v>4</v>
+      </c>
+      <c r="W33">
+        <v>188</v>
+      </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>3.2243167656376699E-2</v>
+      </c>
+      <c r="Z33">
+        <f>W33/Y33</f>
+        <v>5830.6926293210963</v>
+      </c>
+      <c r="AB33">
+        <v>0.1</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG33">
+        <v>4</v>
+      </c>
+      <c r="AH33">
+        <v>379</v>
+      </c>
+      <c r="AI33">
+        <v>3</v>
+      </c>
+      <c r="AJ33">
+        <v>7.0902335112985604E-2</v>
+      </c>
+      <c r="AK33">
+        <f>AH33/AJ33</f>
+        <v>5345.3810709625977</v>
+      </c>
+      <c r="AM33">
+        <v>0.1</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1492,7 +2744,7 @@
         <v>34.348432100000501</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5501.1535737608601</v>
       </c>
       <c r="G34">
@@ -1504,14 +2756,71 @@
       <c r="L34" s="1">
         <v>4</v>
       </c>
+      <c r="M34">
+        <v>241210</v>
+      </c>
+      <c r="N34">
+        <v>1270</v>
+      </c>
+      <c r="O34">
+        <v>42.504061900000799</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>5674.987029886559</v>
+      </c>
       <c r="R34">
         <v>1</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>144</v>
+      </c>
+      <c r="X34">
+        <v>2</v>
+      </c>
+      <c r="Y34">
+        <v>2.60453995694148E-2</v>
+      </c>
+      <c r="Z34">
+        <f>W34/Y34</f>
+        <v>5528.8074815753516</v>
+      </c>
+      <c r="AB34">
+        <v>0.1</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG34">
+        <v>5</v>
+      </c>
+      <c r="AH34">
+        <v>230</v>
+      </c>
+      <c r="AI34">
+        <v>2</v>
+      </c>
+      <c r="AJ34">
+        <v>3.8236999999999903E-2</v>
+      </c>
+      <c r="AK34">
+        <f>AH34/AJ34</f>
+        <v>6015.1162486596904</v>
+      </c>
+      <c r="AM34">
+        <v>0.1</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1525,7 +2834,7 @@
         <v>30.360200100000199</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5412.2502308540097</v>
       </c>
       <c r="G35">
@@ -1537,14 +2846,71 @@
       <c r="L35" s="1">
         <v>5</v>
       </c>
+      <c r="M35">
+        <v>208911</v>
+      </c>
+      <c r="N35">
+        <v>1100</v>
+      </c>
+      <c r="O35">
+        <v>36.226749300000499</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>5766.7608614278051</v>
+      </c>
       <c r="R35">
         <v>1</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="W35">
+        <v>401</v>
+      </c>
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Y35">
+        <v>6.2683631266634399E-2</v>
+      </c>
+      <c r="Z35">
+        <f>W35/Y35</f>
+        <v>6397.2043721316213</v>
+      </c>
+      <c r="AB35">
+        <v>0.1</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG35">
+        <v>6</v>
+      </c>
+      <c r="AH35">
+        <v>199</v>
+      </c>
+      <c r="AI35">
+        <v>2</v>
+      </c>
+      <c r="AJ35">
+        <v>3.7457999999999901E-2</v>
+      </c>
+      <c r="AK35">
+        <f>AH35/AJ35</f>
+        <v>5312.6167974798582</v>
+      </c>
+      <c r="AM35">
+        <v>0.1</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1558,7 +2924,7 @@
         <v>32.679522100000398</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5410.48303763285</v>
       </c>
       <c r="G36">
@@ -1570,14 +2936,71 @@
       <c r="L36" s="1">
         <v>6</v>
       </c>
+      <c r="M36">
+        <v>164274</v>
+      </c>
+      <c r="N36">
+        <v>865</v>
+      </c>
+      <c r="O36">
+        <v>29.067712500000201</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>5651.4250992402258</v>
+      </c>
       <c r="R36">
         <v>1</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V36">
+        <v>7</v>
+      </c>
+      <c r="W36">
+        <v>203</v>
+      </c>
+      <c r="X36">
+        <v>2</v>
+      </c>
+      <c r="Y36">
+        <v>4.2739699999999999E-2</v>
+      </c>
+      <c r="Z36">
+        <f>W36/Y36</f>
+        <v>4749.6823796142698</v>
+      </c>
+      <c r="AB36">
+        <v>0.1</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG36">
+        <v>7</v>
+      </c>
+      <c r="AH36">
+        <v>560</v>
+      </c>
+      <c r="AI36">
+        <v>4</v>
+      </c>
+      <c r="AJ36">
+        <v>9.7946699999999998E-2</v>
+      </c>
+      <c r="AK36">
+        <f>AH36/AJ36</f>
+        <v>5717.3952772273087</v>
+      </c>
+      <c r="AM36">
+        <v>0.1</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
@@ -1591,7 +3014,7 @@
         <v>31.813657400000299</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5701.827919979999</v>
       </c>
       <c r="G37">
@@ -1603,14 +3026,71 @@
       <c r="L37" s="1">
         <v>7</v>
       </c>
+      <c r="M37">
+        <v>267508</v>
+      </c>
+      <c r="N37">
+        <v>1408</v>
+      </c>
+      <c r="O37">
+        <v>43.540416600001002</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>6143.9007912476854</v>
+      </c>
       <c r="R37">
         <v>1</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V37">
+        <v>8</v>
+      </c>
+      <c r="W37">
+        <v>206</v>
+      </c>
+      <c r="X37">
+        <v>2</v>
+      </c>
+      <c r="Y37">
+        <v>3.4714297761270899E-2</v>
+      </c>
+      <c r="Z37">
+        <f>W37/Y37</f>
+        <v>5934.1543192564441</v>
+      </c>
+      <c r="AB37">
+        <v>0.1</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG37">
+        <v>8</v>
+      </c>
+      <c r="AH37">
+        <v>813</v>
+      </c>
+      <c r="AI37">
+        <v>5</v>
+      </c>
+      <c r="AJ37">
+        <v>0.13830170213443099</v>
+      </c>
+      <c r="AK37">
+        <f>AH37/AJ37</f>
+        <v>5878.4525964095064</v>
+      </c>
+      <c r="AM37">
+        <v>0.1</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
@@ -1624,7 +3104,7 @@
         <v>29.1576011000002</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5919.9657546586996</v>
       </c>
       <c r="G38">
@@ -1636,14 +3116,71 @@
       <c r="L38" s="1">
         <v>8</v>
       </c>
+      <c r="M38">
+        <v>186684</v>
+      </c>
+      <c r="N38">
+        <v>983</v>
+      </c>
+      <c r="O38">
+        <v>32.979195600000303</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>5660.659594741549</v>
+      </c>
       <c r="R38">
         <v>1</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V38">
+        <v>9</v>
+      </c>
+      <c r="W38">
+        <v>398</v>
+      </c>
+      <c r="X38">
+        <v>3</v>
+      </c>
+      <c r="Y38">
+        <v>6.8224199999999999E-2</v>
+      </c>
+      <c r="Z38">
+        <f>W38/Y38</f>
+        <v>5833.7071009993524</v>
+      </c>
+      <c r="AB38">
+        <v>0.1</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG38">
+        <v>9</v>
+      </c>
+      <c r="AH38">
+        <v>433</v>
+      </c>
+      <c r="AI38">
+        <v>3</v>
+      </c>
+      <c r="AJ38">
+        <v>7.8365025655436502E-2</v>
+      </c>
+      <c r="AK38">
+        <f>AH38/AJ38</f>
+        <v>5525.4240827261319</v>
+      </c>
+      <c r="AM38">
+        <v>0.1</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -1657,7 +3194,7 @@
         <v>33.5256339000005</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5586.3522389653372</v>
       </c>
       <c r="G39">
@@ -1669,17 +3206,71 @@
       <c r="L39" s="4">
         <v>9</v>
       </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
+      <c r="M39">
+        <v>129293</v>
+      </c>
+      <c r="N39">
+        <v>681</v>
+      </c>
+      <c r="O39">
+        <v>22.563777399999999</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>5730.1132566571059</v>
+      </c>
       <c r="R39">
         <v>1</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V39">
+        <v>10</v>
+      </c>
+      <c r="W39">
+        <v>664</v>
+      </c>
+      <c r="X39">
+        <v>4</v>
+      </c>
+      <c r="Y39">
+        <v>0.119048836998718</v>
+      </c>
+      <c r="Z39">
+        <f>W39/Y39</f>
+        <v>5577.5429373337802</v>
+      </c>
+      <c r="AB39">
+        <v>0.1</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG39">
+        <v>10</v>
+      </c>
+      <c r="AH39">
+        <v>220</v>
+      </c>
+      <c r="AI39">
+        <v>2</v>
+      </c>
+      <c r="AJ39">
+        <v>4.3298200000000002E-2</v>
+      </c>
+      <c r="AK39">
+        <f>AH39/AJ39</f>
+        <v>5081.0426299476649</v>
+      </c>
+      <c r="AM39">
+        <v>0.1</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10</v>
       </c>
@@ -1693,7 +3284,7 @@
         <v>33.079108700000297</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5785.4944562033579</v>
       </c>
       <c r="G40">
@@ -1705,14 +3296,39 @@
       <c r="L40" s="1">
         <v>10</v>
       </c>
+      <c r="M40">
+        <v>193917</v>
+      </c>
+      <c r="N40">
+        <v>1021</v>
+      </c>
+      <c r="O40">
+        <v>35.366588100000499</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>5483.0564783826931</v>
+      </c>
       <c r="R40">
         <v>1</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V40">
+        <v>11</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG40">
+        <v>11</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11</v>
       </c>
@@ -1726,7 +3342,7 @@
         <v>2.8057885999999899</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5501.4836114167883</v>
       </c>
       <c r="G41">
@@ -1738,14 +3354,39 @@
       <c r="L41" s="1">
         <v>11</v>
       </c>
+      <c r="M41">
+        <v>11896</v>
+      </c>
+      <c r="N41">
+        <v>63</v>
+      </c>
+      <c r="O41">
+        <v>2.1710060999999898</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>5479.4871373231317</v>
+      </c>
       <c r="R41">
         <v>0.05</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V41">
+        <v>12</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG41">
+        <v>12</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -1759,7 +3400,7 @@
         <v>2.0023970999999898</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5741.6183832867409</v>
       </c>
       <c r="G42">
@@ -1771,14 +3412,39 @@
       <c r="L42" s="1">
         <v>12</v>
       </c>
+      <c r="M42">
+        <v>15261</v>
+      </c>
+      <c r="N42">
+        <v>81</v>
+      </c>
+      <c r="O42">
+        <v>2.7189092999999902</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>5612.9125013475277</v>
+      </c>
       <c r="R42">
         <v>0.05</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V42">
+        <v>13</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG42">
+        <v>13</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>13</v>
       </c>
@@ -1792,7 +3458,7 @@
         <v>2.1722548999999902</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5723.5456115210309</v>
       </c>
       <c r="G43">
@@ -1804,15 +3470,39 @@
       <c r="L43" s="1">
         <v>13</v>
       </c>
-      <c r="M43" s="1"/>
+      <c r="M43">
+        <v>13572</v>
+      </c>
+      <c r="N43">
+        <v>72</v>
+      </c>
+      <c r="O43">
+        <v>2.37952739999999</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>5703.6535910450357</v>
+      </c>
       <c r="R43">
         <v>0.05</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V43">
+        <v>14</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG43">
+        <v>14</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14</v>
       </c>
@@ -1826,7 +3516,7 @@
         <v>2.5624339999999899</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5283.2580273287249</v>
       </c>
       <c r="G44">
@@ -1838,14 +3528,39 @@
       <c r="L44" s="1">
         <v>14</v>
       </c>
+      <c r="M44">
+        <v>13205</v>
+      </c>
+      <c r="N44">
+        <v>70</v>
+      </c>
+      <c r="O44">
+        <v>2.5331349999999899</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>5212.9081158327735</v>
+      </c>
       <c r="R44">
         <v>0.05</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V44">
+        <v>15</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG44">
+        <v>15</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>15</v>
       </c>
@@ -1859,7 +3574,7 @@
         <v>2.44224579999999</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5243.1249958542467</v>
       </c>
       <c r="G45">
@@ -1871,14 +3586,39 @@
       <c r="L45" s="1">
         <v>15</v>
       </c>
+      <c r="M45">
+        <v>13213</v>
+      </c>
+      <c r="N45">
+        <v>70</v>
+      </c>
+      <c r="O45">
+        <v>2.5134353999999899</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>5256.948318624005</v>
+      </c>
       <c r="R45">
         <v>0.05</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V45">
+        <v>16</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG45">
+        <v>16</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16</v>
       </c>
@@ -1892,7 +3632,7 @@
         <v>2.44635109999999</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5469.3702796790103</v>
       </c>
       <c r="G46">
@@ -1904,14 +3644,39 @@
       <c r="L46" s="1">
         <v>16</v>
       </c>
+      <c r="M46">
+        <v>12436</v>
+      </c>
+      <c r="N46">
+        <v>66</v>
+      </c>
+      <c r="O46">
+        <v>2.1136496999999901</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>5883.6618007232037</v>
+      </c>
       <c r="R46">
         <v>0.05</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V46">
+        <v>17</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG46">
+        <v>17</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>17</v>
       </c>
@@ -1925,7 +3690,7 @@
         <v>1.36562899999999</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5679.4341655017997</v>
       </c>
       <c r="G47">
@@ -1937,14 +3702,39 @@
       <c r="L47" s="1">
         <v>17</v>
       </c>
+      <c r="M47">
+        <v>8078</v>
+      </c>
+      <c r="N47">
+        <v>43</v>
+      </c>
+      <c r="O47">
+        <v>1.50187439999999</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="2"/>
+        <v>5378.612219503877</v>
+      </c>
       <c r="R47">
         <v>0.05</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V47">
+        <v>18</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG47">
+        <v>18</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>18</v>
       </c>
@@ -1958,7 +3748,7 @@
         <v>1.9462492</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5517.2790822470215</v>
       </c>
       <c r="G48">
@@ -1970,14 +3760,39 @@
       <c r="L48" s="1">
         <v>18</v>
       </c>
+      <c r="M48">
+        <v>13020</v>
+      </c>
+      <c r="N48">
+        <v>69</v>
+      </c>
+      <c r="O48">
+        <v>2.3951216999999998</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="2"/>
+        <v>5436.0494500133336</v>
+      </c>
       <c r="R48">
         <v>0.05</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V48">
+        <v>19</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG48">
+        <v>19</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>19</v>
       </c>
@@ -1991,7 +3806,7 @@
         <v>2.3060661999999899</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5564.4543075129659</v>
       </c>
       <c r="G49">
@@ -2003,14 +3818,39 @@
       <c r="L49" s="1">
         <v>19</v>
       </c>
+      <c r="M49">
+        <v>9204</v>
+      </c>
+      <c r="N49">
+        <v>49</v>
+      </c>
+      <c r="O49">
+        <v>1.6837332</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="2"/>
+        <v>5466.4242529635931</v>
+      </c>
       <c r="R49">
         <v>0.05</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V49">
+        <v>20</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG49">
+        <v>20</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20</v>
       </c>
@@ -2024,7 +3864,7 @@
         <v>2.29986269999999</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6046.4479031726805</v>
       </c>
       <c r="G50">
@@ -2036,16 +3876,64 @@
       <c r="L50" s="1">
         <v>20</v>
       </c>
+      <c r="M50">
+        <v>15109</v>
+      </c>
+      <c r="N50">
+        <v>80</v>
+      </c>
+      <c r="O50">
+        <v>2.6813071999999898</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="2"/>
+        <v>5634.9380630462847</v>
+      </c>
       <c r="R50">
         <v>0.05</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U50" s="6"/>
+      <c r="V50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W50">
+        <v>439.8</v>
+      </c>
+      <c r="X50">
+        <v>3.2</v>
+      </c>
+      <c r="Y50">
+        <v>7.6494631955589601E-2</v>
+      </c>
+      <c r="Z50">
+        <f>W50/Y50</f>
+        <v>5749.4230478203253</v>
+      </c>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH50">
+        <v>415</v>
+      </c>
+      <c r="AI50">
+        <v>3</v>
+      </c>
+      <c r="AJ50">
+        <v>7.5245276195618396E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" s="14">
         <v>182645.9</v>
@@ -2057,17 +3945,47 @@
         <v>32.832281270000301</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5562.9975419005759</v>
       </c>
       <c r="L51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M51">
+        <v>200202.2</v>
+      </c>
+      <c r="N51">
+        <v>1054.0999999999999</v>
+      </c>
+      <c r="O51">
+        <v>35.1029274500005</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="2"/>
+        <v>5703.2907094475722</v>
+      </c>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M51" s="7"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH51" s="6"/>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="14">
         <v>12432.1</v>
@@ -2079,22 +3997,55 @@
         <v>2.2349278599999902</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5562.6403977084319</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="M52">
+        <v>12499.4</v>
+      </c>
+      <c r="N52">
+        <v>66.3</v>
+      </c>
+      <c r="O52">
+        <v>2.2691699399999901</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="2"/>
+        <v>5508.3578270916341</v>
+      </c>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="6"/>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="V55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG55" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>9</v>
       </c>
@@ -2107,8 +4058,20 @@
       <c r="M56" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W56" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG56" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +4085,7 @@
         <v>13</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="13" t="s">
@@ -2146,17 +4109,56 @@
       <c r="O57" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P57" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="R57" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S57" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN57" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>6</v>
       </c>
@@ -2172,8 +4174,17 @@
       <c r="S58" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG58" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2199,14 +4210,67 @@
       <c r="L59" s="1">
         <v>1</v>
       </c>
+      <c r="M59">
+        <v>309660</v>
+      </c>
+      <c r="N59">
+        <v>3170</v>
+      </c>
+      <c r="O59">
+        <v>99.999999999999403</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="2"/>
+        <v>3096.6000000000186</v>
+      </c>
       <c r="R59">
         <v>1</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>25152</v>
+      </c>
+      <c r="X59">
+        <v>364</v>
+      </c>
+      <c r="Y59">
+        <v>4.7135231198663803</v>
+      </c>
+      <c r="AB59">
+        <v>0.1</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59">
+        <v>25152</v>
+      </c>
+      <c r="AI59">
+        <v>364</v>
+      </c>
+      <c r="AJ59">
+        <v>4.7135231198663803</v>
+      </c>
+      <c r="AK59">
+        <f>AH59/AJ59</f>
+        <v>5336.1359137054606</v>
+      </c>
+      <c r="AM59">
+        <v>0.1</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2220,7 +4284,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:E104" si="1">B60/D60</f>
+        <f t="shared" ref="E60:E104" si="3">B60/D60</f>
         <v>3292.4000000000228</v>
       </c>
       <c r="G60">
@@ -2232,14 +4296,67 @@
       <c r="L60" s="1">
         <v>2</v>
       </c>
+      <c r="M60">
+        <v>405475</v>
+      </c>
+      <c r="N60">
+        <v>3316</v>
+      </c>
+      <c r="O60">
+        <v>99.999999999999105</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="2"/>
+        <v>4054.7500000000364</v>
+      </c>
       <c r="R60">
         <v>1</v>
       </c>
       <c r="S60" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V60">
+        <v>2</v>
+      </c>
+      <c r="W60">
+        <v>26844</v>
+      </c>
+      <c r="X60">
+        <v>354</v>
+      </c>
+      <c r="Y60">
+        <v>5.0736666720577004</v>
+      </c>
+      <c r="AB60">
+        <v>0.1</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG60">
+        <v>2</v>
+      </c>
+      <c r="AH60">
+        <v>26844</v>
+      </c>
+      <c r="AI60">
+        <v>354</v>
+      </c>
+      <c r="AJ60">
+        <v>5.0736666720577004</v>
+      </c>
+      <c r="AK60">
+        <f>AH60/AJ60</f>
+        <v>5290.8481646692453</v>
+      </c>
+      <c r="AM60">
+        <v>0.1</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>3</v>
       </c>
@@ -2253,7 +4370,7 @@
         <v>99.999999999999005</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3627.5900000000361</v>
       </c>
       <c r="G61">
@@ -2265,14 +4382,67 @@
       <c r="L61" s="1">
         <v>3</v>
       </c>
+      <c r="M61">
+        <v>416956</v>
+      </c>
+      <c r="N61">
+        <v>2988</v>
+      </c>
+      <c r="O61">
+        <v>99.999999999999403</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="2"/>
+        <v>4169.560000000025</v>
+      </c>
       <c r="R61">
         <v>1</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V61">
+        <v>3</v>
+      </c>
+      <c r="W61">
+        <v>30931</v>
+      </c>
+      <c r="X61">
+        <v>530</v>
+      </c>
+      <c r="Y61">
+        <v>5.4010479502786302</v>
+      </c>
+      <c r="AB61">
+        <v>0.1</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG61">
+        <v>3</v>
+      </c>
+      <c r="AH61">
+        <v>30931</v>
+      </c>
+      <c r="AI61">
+        <v>530</v>
+      </c>
+      <c r="AJ61">
+        <v>5.4010479502786302</v>
+      </c>
+      <c r="AK61">
+        <f>AH61/AJ61</f>
+        <v>5726.8515822756817</v>
+      </c>
+      <c r="AM61">
+        <v>0.1</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -2286,7 +4456,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4459.8600000000315</v>
       </c>
       <c r="G62">
@@ -2298,14 +4468,67 @@
       <c r="L62" s="1">
         <v>4</v>
       </c>
+      <c r="M62">
+        <v>431659</v>
+      </c>
+      <c r="N62">
+        <v>3196</v>
+      </c>
+      <c r="O62">
+        <v>99.999999999999503</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="2"/>
+        <v>4316.5900000000211</v>
+      </c>
       <c r="R62">
         <v>1</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V62">
+        <v>4</v>
+      </c>
+      <c r="W62">
+        <v>29130</v>
+      </c>
+      <c r="X62">
+        <v>663</v>
+      </c>
+      <c r="Y62">
+        <v>5.1708317748811004</v>
+      </c>
+      <c r="AB62">
+        <v>0.1</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG62">
+        <v>4</v>
+      </c>
+      <c r="AH62">
+        <v>29130</v>
+      </c>
+      <c r="AI62">
+        <v>663</v>
+      </c>
+      <c r="AJ62">
+        <v>5.1708317748811004</v>
+      </c>
+      <c r="AK62">
+        <f>AH62/AJ62</f>
+        <v>5633.5230516505871</v>
+      </c>
+      <c r="AM62">
+        <v>0.1</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -2319,7 +4542,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4449.8700000000308</v>
       </c>
       <c r="G63">
@@ -2331,14 +4554,67 @@
       <c r="L63" s="1">
         <v>5</v>
       </c>
+      <c r="M63">
+        <v>386379</v>
+      </c>
+      <c r="N63">
+        <v>3039</v>
+      </c>
+      <c r="O63">
+        <v>100</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="2"/>
+        <v>3863.79</v>
+      </c>
       <c r="R63">
         <v>1</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V63">
+        <v>5</v>
+      </c>
+      <c r="W63">
+        <v>26449</v>
+      </c>
+      <c r="X63">
+        <v>502</v>
+      </c>
+      <c r="Y63">
+        <v>4.607218281622</v>
+      </c>
+      <c r="AB63">
+        <v>0.1</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG63">
+        <v>5</v>
+      </c>
+      <c r="AH63">
+        <v>26449</v>
+      </c>
+      <c r="AI63">
+        <v>502</v>
+      </c>
+      <c r="AJ63">
+        <v>4.607218281622</v>
+      </c>
+      <c r="AK63">
+        <f>AH63/AJ63</f>
+        <v>5740.7742336637157</v>
+      </c>
+      <c r="AM63">
+        <v>0.1</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -2352,7 +4628,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2926.7500000000173</v>
       </c>
       <c r="G64">
@@ -2364,14 +4640,67 @@
       <c r="L64" s="1">
         <v>6</v>
       </c>
+      <c r="M64">
+        <v>403681</v>
+      </c>
+      <c r="N64">
+        <v>3237</v>
+      </c>
+      <c r="O64">
+        <v>99.999999999999602</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="2"/>
+        <v>4036.8100000000159</v>
+      </c>
       <c r="R64">
         <v>1</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V64">
+        <v>6</v>
+      </c>
+      <c r="W64">
+        <v>29541</v>
+      </c>
+      <c r="X64">
+        <v>382</v>
+      </c>
+      <c r="Y64">
+        <v>5.1990802181957196</v>
+      </c>
+      <c r="AB64">
+        <v>0.1</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG64">
+        <v>6</v>
+      </c>
+      <c r="AH64">
+        <v>29541</v>
+      </c>
+      <c r="AI64">
+        <v>382</v>
+      </c>
+      <c r="AJ64">
+        <v>5.1990802181957196</v>
+      </c>
+      <c r="AK64">
+        <f>AH64/AJ64</f>
+        <v>5681.9665710508807</v>
+      </c>
+      <c r="AM64">
+        <v>0.1</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -2385,7 +4714,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3881.6400000000231</v>
       </c>
       <c r="G65">
@@ -2397,14 +4726,67 @@
       <c r="L65" s="1">
         <v>7</v>
       </c>
+      <c r="M65">
+        <v>530734</v>
+      </c>
+      <c r="N65">
+        <v>3915</v>
+      </c>
+      <c r="O65">
+        <v>99.999999999999204</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="2"/>
+        <v>5307.340000000042</v>
+      </c>
       <c r="R65">
         <v>1</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V65">
+        <v>7</v>
+      </c>
+      <c r="W65">
+        <v>29578</v>
+      </c>
+      <c r="X65">
+        <v>541</v>
+      </c>
+      <c r="Y65">
+        <v>5.0146175314406696</v>
+      </c>
+      <c r="AB65">
+        <v>0.1</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG65">
+        <v>7</v>
+      </c>
+      <c r="AH65">
+        <v>29578</v>
+      </c>
+      <c r="AI65">
+        <v>541</v>
+      </c>
+      <c r="AJ65">
+        <v>5.0146175314406696</v>
+      </c>
+      <c r="AK65">
+        <f>AH65/AJ65</f>
+        <v>5898.3561187970436</v>
+      </c>
+      <c r="AM65">
+        <v>0.1</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -2418,7 +4800,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3892.1300000000269</v>
       </c>
       <c r="G66">
@@ -2430,14 +4812,67 @@
       <c r="L66" s="1">
         <v>8</v>
       </c>
+      <c r="M66">
+        <v>338667</v>
+      </c>
+      <c r="N66">
+        <v>2551</v>
+      </c>
+      <c r="O66">
+        <v>99.999999999999304</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="2"/>
+        <v>3386.6700000000237</v>
+      </c>
       <c r="R66">
         <v>1</v>
       </c>
       <c r="S66" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V66">
+        <v>8</v>
+      </c>
+      <c r="W66">
+        <v>29843</v>
+      </c>
+      <c r="X66">
+        <v>390</v>
+      </c>
+      <c r="Y66">
+        <v>5.3842574434798403</v>
+      </c>
+      <c r="AB66">
+        <v>0.1</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG66">
+        <v>8</v>
+      </c>
+      <c r="AH66">
+        <v>29843</v>
+      </c>
+      <c r="AI66">
+        <v>390</v>
+      </c>
+      <c r="AJ66">
+        <v>5.3842574434798403</v>
+      </c>
+      <c r="AK66">
+        <f>AH66/AJ66</f>
+        <v>5542.6398743505288</v>
+      </c>
+      <c r="AM66">
+        <v>0.1</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9</v>
       </c>
@@ -2451,7 +4886,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4348.0500000000256</v>
       </c>
       <c r="G67">
@@ -2463,17 +4898,67 @@
       <c r="L67" s="4">
         <v>9</v>
       </c>
-      <c r="M67" s="4"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
+      <c r="M67">
+        <v>358566</v>
+      </c>
+      <c r="N67">
+        <v>2670</v>
+      </c>
+      <c r="O67">
+        <v>99.999999999999503</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="2"/>
+        <v>3585.660000000018</v>
+      </c>
       <c r="R67">
         <v>1</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V67">
+        <v>9</v>
+      </c>
+      <c r="W67">
+        <v>29829</v>
+      </c>
+      <c r="X67">
+        <v>522</v>
+      </c>
+      <c r="Y67">
+        <v>4.6555144312847903</v>
+      </c>
+      <c r="AB67">
+        <v>0.1</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG67">
+        <v>9</v>
+      </c>
+      <c r="AH67">
+        <v>29829</v>
+      </c>
+      <c r="AI67">
+        <v>522</v>
+      </c>
+      <c r="AJ67">
+        <v>4.6555144312847903</v>
+      </c>
+      <c r="AK67">
+        <f>AH67/AJ67</f>
+        <v>6407.240368443674</v>
+      </c>
+      <c r="AM67">
+        <v>0.1</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10</v>
       </c>
@@ -2487,7 +4972,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4258.5600000000259</v>
       </c>
       <c r="G68">
@@ -2499,14 +4984,67 @@
       <c r="L68" s="1">
         <v>10</v>
       </c>
+      <c r="M68">
+        <v>327320</v>
+      </c>
+      <c r="N68">
+        <v>2659</v>
+      </c>
+      <c r="O68">
+        <v>99.999999999999901</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="2"/>
+        <v>3273.2000000000035</v>
+      </c>
       <c r="R68">
         <v>1</v>
       </c>
       <c r="S68" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V68">
+        <v>10</v>
+      </c>
+      <c r="W68">
+        <v>22775</v>
+      </c>
+      <c r="X68">
+        <v>503</v>
+      </c>
+      <c r="Y68">
+        <v>4.7922887865122901</v>
+      </c>
+      <c r="AB68">
+        <v>0.1</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG68">
+        <v>10</v>
+      </c>
+      <c r="AH68">
+        <v>22775</v>
+      </c>
+      <c r="AI68">
+        <v>503</v>
+      </c>
+      <c r="AJ68">
+        <v>4.7922887865122901</v>
+      </c>
+      <c r="AK68">
+        <f>AH68/AJ68</f>
+        <v>4752.4264531176314</v>
+      </c>
+      <c r="AM68">
+        <v>0.1</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>11</v>
       </c>
@@ -2520,7 +5058,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4977.00000000001</v>
       </c>
       <c r="G69">
@@ -2532,14 +5070,39 @@
       <c r="L69" s="1">
         <v>11</v>
       </c>
+      <c r="M69">
+        <v>29857</v>
+      </c>
+      <c r="N69">
+        <v>317</v>
+      </c>
+      <c r="O69">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="2"/>
+        <v>5971.4000000000115</v>
+      </c>
       <c r="R69">
         <v>0.05</v>
       </c>
       <c r="S69" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V69">
+        <v>11</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG69">
+        <v>11</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12</v>
       </c>
@@ -2553,7 +5116,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4523.2000000000089</v>
       </c>
       <c r="G70">
@@ -2565,14 +5128,39 @@
       <c r="L70" s="1">
         <v>12</v>
       </c>
+      <c r="M70">
+        <v>30924</v>
+      </c>
+      <c r="N70">
+        <v>288</v>
+      </c>
+      <c r="O70">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="2"/>
+        <v>6184.800000000012</v>
+      </c>
       <c r="R70">
         <v>0.05</v>
       </c>
       <c r="S70" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V70">
+        <v>12</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG70">
+        <v>12</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>13</v>
       </c>
@@ -2586,7 +5174,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6565.2000000000126</v>
       </c>
       <c r="G71">
@@ -2598,15 +5186,39 @@
       <c r="L71" s="1">
         <v>13</v>
       </c>
-      <c r="M71" s="1"/>
+      <c r="M71">
+        <v>33875</v>
+      </c>
+      <c r="N71">
+        <v>366</v>
+      </c>
+      <c r="O71">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="2"/>
+        <v>6775.0000000000136</v>
+      </c>
       <c r="R71">
         <v>0.05</v>
       </c>
       <c r="S71" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V71">
+        <v>13</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG71">
+        <v>13</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14</v>
       </c>
@@ -2620,7 +5232,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6330.4000000000124</v>
       </c>
       <c r="G72">
@@ -2632,14 +5244,39 @@
       <c r="L72" s="1">
         <v>14</v>
       </c>
+      <c r="M72">
+        <v>29685</v>
+      </c>
+      <c r="N72">
+        <v>359</v>
+      </c>
+      <c r="O72">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="2"/>
+        <v>5937.0000000000118</v>
+      </c>
       <c r="R72">
         <v>0.05</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V72">
+        <v>14</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG72">
+        <v>14</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>15</v>
       </c>
@@ -2653,7 +5290,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6354.4000000000124</v>
       </c>
       <c r="G73">
@@ -2665,14 +5302,39 @@
       <c r="L73" s="1">
         <v>15</v>
       </c>
+      <c r="M73">
+        <v>29549</v>
+      </c>
+      <c r="N73">
+        <v>311</v>
+      </c>
+      <c r="O73">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="2"/>
+        <v>5909.8000000000111</v>
+      </c>
       <c r="R73">
         <v>0.05</v>
       </c>
       <c r="S73" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V73">
+        <v>15</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG73">
+        <v>15</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>16</v>
       </c>
@@ -2686,7 +5348,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4178.0000000000082</v>
       </c>
       <c r="G74">
@@ -2698,14 +5360,39 @@
       <c r="L74" s="1">
         <v>16</v>
       </c>
+      <c r="M74">
+        <v>29210</v>
+      </c>
+      <c r="N74">
+        <v>298</v>
+      </c>
+      <c r="O74">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="2"/>
+        <v>5842.0000000000118</v>
+      </c>
       <c r="R74">
         <v>0.05</v>
       </c>
       <c r="S74" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V74">
+        <v>16</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG74">
+        <v>16</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>17</v>
       </c>
@@ -2719,7 +5406,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5805.8000000000111</v>
       </c>
       <c r="G75">
@@ -2731,14 +5418,39 @@
       <c r="L75" s="1">
         <v>17</v>
       </c>
+      <c r="M75">
+        <v>29658</v>
+      </c>
+      <c r="N75">
+        <v>222</v>
+      </c>
+      <c r="O75">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="2"/>
+        <v>5931.6000000000113</v>
+      </c>
       <c r="R75">
         <v>0.05</v>
       </c>
       <c r="S75" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V75">
+        <v>17</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG75">
+        <v>17</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>18</v>
       </c>
@@ -2752,7 +5464,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6480.6000000000131</v>
       </c>
       <c r="G76">
@@ -2764,14 +5476,39 @@
       <c r="L76" s="1">
         <v>18</v>
       </c>
+      <c r="M76">
+        <v>22481</v>
+      </c>
+      <c r="N76">
+        <v>180</v>
+      </c>
+      <c r="O76">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="2"/>
+        <v>4496.2000000000089</v>
+      </c>
       <c r="R76">
         <v>0.05</v>
       </c>
       <c r="S76" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V76">
+        <v>18</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG76">
+        <v>18</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>19</v>
       </c>
@@ -2785,7 +5522,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6663.0000000000127</v>
       </c>
       <c r="G77">
@@ -2797,14 +5534,39 @@
       <c r="L77" s="1">
         <v>19</v>
       </c>
+      <c r="M77">
+        <v>30331</v>
+      </c>
+      <c r="N77">
+        <v>313</v>
+      </c>
+      <c r="O77">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="2"/>
+        <v>6066.2000000000116</v>
+      </c>
       <c r="R77">
         <v>0.05</v>
       </c>
       <c r="S77" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V77">
+        <v>19</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG77">
+        <v>19</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>20</v>
       </c>
@@ -2818,7 +5580,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5440.0000000000109</v>
       </c>
       <c r="G78">
@@ -2830,16 +5592,41 @@
       <c r="L78" s="1">
         <v>20</v>
       </c>
+      <c r="M78">
+        <v>31367</v>
+      </c>
+      <c r="N78">
+        <v>295</v>
+      </c>
+      <c r="O78">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="2"/>
+        <v>6273.4000000000124</v>
+      </c>
       <c r="R78">
         <v>0.05</v>
       </c>
       <c r="S78" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V78">
+        <v>20</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG78">
+        <v>20</v>
+      </c>
+      <c r="AN78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79">
         <v>392336.2</v>
@@ -2851,18 +5638,68 @@
         <v>100</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3923.3620000000001</v>
       </c>
       <c r="G79" s="1"/>
       <c r="L79" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M79">
+        <v>390909.7</v>
+      </c>
+      <c r="N79">
+        <v>3074.1</v>
+      </c>
+      <c r="O79">
+        <v>99.999999999999503</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="2"/>
+        <v>3909.0970000000198</v>
+      </c>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W79" s="16">
+        <v>28007.200000000001</v>
+      </c>
+      <c r="X79" s="16">
+        <v>475.1</v>
+      </c>
+      <c r="Y79" s="16">
+        <v>5.0012046209619099</v>
+      </c>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="6"/>
+      <c r="AG79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH79">
+        <v>28007.200000000001</v>
+      </c>
+      <c r="AI79">
+        <v>475.1</v>
+      </c>
+      <c r="AJ79">
+        <v>5.0012046209619099</v>
+      </c>
+      <c r="AK79">
+        <f>AH79/AJ79</f>
+        <v>5600.0908026461066</v>
+      </c>
+      <c r="AL79" s="6"/>
+      <c r="AM79" s="6"/>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="M79" s="7"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="B80" s="1">
         <v>28658.799999999999</v>
@@ -2874,22 +5711,71 @@
         <v>5</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5731.76</v>
       </c>
       <c r="G80" s="1"/>
       <c r="L80" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="M80">
+        <v>29693.7</v>
+      </c>
+      <c r="N80">
+        <v>294.89999999999998</v>
+      </c>
+      <c r="O80">
+        <v>5</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="2"/>
+        <v>5938.74</v>
+      </c>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W80" s="16"/>
+      <c r="X80" s="16"/>
+      <c r="Y80" s="16"/>
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="6"/>
+      <c r="AB80" s="6"/>
+      <c r="AC80" s="6"/>
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="6"/>
+      <c r="AF80" s="6"/>
+      <c r="AG80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL80" s="6"/>
+      <c r="AM80" s="6"/>
+    </row>
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="M81" s="7"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="AA81" s="6"/>
+      <c r="AB81" s="6"/>
+      <c r="AC81" s="6"/>
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="6"/>
+      <c r="AF81" s="6"/>
+      <c r="AG81" s="6"/>
+      <c r="AL81" s="6"/>
+      <c r="AM81" s="6"/>
+    </row>
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>1</v>
       </c>
@@ -2903,7 +5789,7 @@
         <v>99.999999999999503</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6135.2400000000307</v>
       </c>
       <c r="G83">
@@ -2915,8 +5801,14 @@
       <c r="L83" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG83" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>2</v>
       </c>
@@ -2930,7 +5822,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6605.1800000000458</v>
       </c>
       <c r="G84">
@@ -2942,14 +5834,67 @@
       <c r="L84" s="1">
         <v>1</v>
       </c>
+      <c r="M84">
+        <v>619696</v>
+      </c>
+      <c r="N84">
+        <v>8290</v>
+      </c>
+      <c r="O84">
+        <v>99.999999999998806</v>
+      </c>
+      <c r="P84">
+        <f t="shared" ref="P84:P93" si="4">M84/O84</f>
+        <v>6196.9600000000737</v>
+      </c>
       <c r="R84">
         <v>1</v>
       </c>
       <c r="S84" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V84">
+        <v>1</v>
+      </c>
+      <c r="W84">
+        <v>30541</v>
+      </c>
+      <c r="X84">
+        <v>657</v>
+      </c>
+      <c r="Y84">
+        <v>4.9888096255649899</v>
+      </c>
+      <c r="AB84">
+        <v>0.1</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG84">
+        <v>1</v>
+      </c>
+      <c r="AH84">
+        <v>30541</v>
+      </c>
+      <c r="AI84">
+        <v>657</v>
+      </c>
+      <c r="AJ84">
+        <v>4.9888096255649899</v>
+      </c>
+      <c r="AK84">
+        <f>AH84/AJ84</f>
+        <v>6121.9012735009283</v>
+      </c>
+      <c r="AM84">
+        <v>0.1</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>3</v>
       </c>
@@ -2963,7 +5908,7 @@
         <v>99.999999999999005</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6969.4800000000696</v>
       </c>
       <c r="G85">
@@ -2975,14 +5920,67 @@
       <c r="L85" s="1">
         <v>2</v>
       </c>
+      <c r="M85">
+        <v>618048</v>
+      </c>
+      <c r="N85">
+        <v>8249</v>
+      </c>
+      <c r="O85">
+        <v>99.999999999999105</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="4"/>
+        <v>6180.480000000055</v>
+      </c>
       <c r="R85">
         <v>1</v>
       </c>
       <c r="S85" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V85">
+        <v>2</v>
+      </c>
+      <c r="W85">
+        <v>30750</v>
+      </c>
+      <c r="X85">
+        <v>523</v>
+      </c>
+      <c r="Y85">
+        <v>4.9965269632680496</v>
+      </c>
+      <c r="AB85">
+        <v>0.1</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG85">
+        <v>2</v>
+      </c>
+      <c r="AH85">
+        <v>30750</v>
+      </c>
+      <c r="AI85">
+        <v>523</v>
+      </c>
+      <c r="AJ85">
+        <v>4.9965269632680496</v>
+      </c>
+      <c r="AK85">
+        <f>AH85/AJ85</f>
+        <v>6154.2748044909031</v>
+      </c>
+      <c r="AM85">
+        <v>0.1</v>
+      </c>
+      <c r="AN85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>4</v>
       </c>
@@ -2996,7 +5994,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6208.1000000000431</v>
       </c>
       <c r="G86">
@@ -3008,14 +6006,67 @@
       <c r="L86" s="1">
         <v>3</v>
       </c>
+      <c r="M86">
+        <v>669803</v>
+      </c>
+      <c r="N86">
+        <v>7934</v>
+      </c>
+      <c r="O86">
+        <v>99.999999999999105</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="4"/>
+        <v>6698.0300000000598</v>
+      </c>
       <c r="R86">
         <v>1</v>
       </c>
       <c r="S86" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V86">
+        <v>3</v>
+      </c>
+      <c r="W86">
+        <v>35524</v>
+      </c>
+      <c r="X86">
+        <v>891</v>
+      </c>
+      <c r="Y86">
+        <v>5.3740807561846902</v>
+      </c>
+      <c r="AB86">
+        <v>0.1</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG86">
+        <v>3</v>
+      </c>
+      <c r="AH86">
+        <v>35524</v>
+      </c>
+      <c r="AI86">
+        <v>891</v>
+      </c>
+      <c r="AJ86">
+        <v>5.3740807561846902</v>
+      </c>
+      <c r="AK86">
+        <f>AH86/AJ86</f>
+        <v>6610.2467773893559</v>
+      </c>
+      <c r="AM86">
+        <v>0.1</v>
+      </c>
+      <c r="AN86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>5</v>
       </c>
@@ -3029,7 +6080,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6402.5900000000447</v>
       </c>
       <c r="G87">
@@ -3041,14 +6092,67 @@
       <c r="L87" s="1">
         <v>4</v>
       </c>
+      <c r="M87">
+        <v>697574</v>
+      </c>
+      <c r="N87">
+        <v>7699</v>
+      </c>
+      <c r="O87">
+        <v>99.999999999999204</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="4"/>
+        <v>6975.7400000000553</v>
+      </c>
       <c r="R87">
         <v>1</v>
       </c>
       <c r="S87" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V87">
+        <v>4</v>
+      </c>
+      <c r="W87">
+        <v>28875</v>
+      </c>
+      <c r="X87">
+        <v>630</v>
+      </c>
+      <c r="Y87">
+        <v>4.6186754317296304</v>
+      </c>
+      <c r="AB87">
+        <v>0.1</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG87">
+        <v>4</v>
+      </c>
+      <c r="AH87">
+        <v>28875</v>
+      </c>
+      <c r="AI87">
+        <v>630</v>
+      </c>
+      <c r="AJ87">
+        <v>4.6186754317296304</v>
+      </c>
+      <c r="AK87">
+        <f>AH87/AJ87</f>
+        <v>6251.7924081941192</v>
+      </c>
+      <c r="AM87">
+        <v>0.1</v>
+      </c>
+      <c r="AN87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>6</v>
       </c>
@@ -3062,7 +6166,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5756.9800000000341</v>
       </c>
       <c r="G88">
@@ -3074,14 +6178,67 @@
       <c r="L88" s="1">
         <v>5</v>
       </c>
+      <c r="M88">
+        <v>629245</v>
+      </c>
+      <c r="N88">
+        <v>8544</v>
+      </c>
+      <c r="O88">
+        <v>99.999999999999204</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="4"/>
+        <v>6292.4500000000498</v>
+      </c>
       <c r="R88">
         <v>1</v>
       </c>
       <c r="S88" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V88">
+        <v>5</v>
+      </c>
+      <c r="W88">
+        <v>29594</v>
+      </c>
+      <c r="X88">
+        <v>572</v>
+      </c>
+      <c r="Y88">
+        <v>5.2558460343515696</v>
+      </c>
+      <c r="AB88">
+        <v>0.1</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG88">
+        <v>5</v>
+      </c>
+      <c r="AH88">
+        <v>29594</v>
+      </c>
+      <c r="AI88">
+        <v>572</v>
+      </c>
+      <c r="AJ88">
+        <v>5.2558460343515696</v>
+      </c>
+      <c r="AK88">
+        <f>AH88/AJ88</f>
+        <v>5630.6824451434113</v>
+      </c>
+      <c r="AM88">
+        <v>0.1</v>
+      </c>
+      <c r="AN88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>7</v>
       </c>
@@ -3095,7 +6252,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6204.820000000037</v>
       </c>
       <c r="G89">
@@ -3107,14 +6264,67 @@
       <c r="L89" s="1">
         <v>6</v>
       </c>
+      <c r="M89">
+        <v>620795</v>
+      </c>
+      <c r="N89">
+        <v>7199</v>
+      </c>
+      <c r="O89">
+        <v>99.999999999999204</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="4"/>
+        <v>6207.9500000000498</v>
+      </c>
       <c r="R89">
         <v>1</v>
       </c>
       <c r="S89" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V89">
+        <v>6</v>
+      </c>
+      <c r="W89">
+        <v>29542</v>
+      </c>
+      <c r="X89">
+        <v>654</v>
+      </c>
+      <c r="Y89">
+        <v>4.5918534248545404</v>
+      </c>
+      <c r="AB89">
+        <v>0.1</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG89">
+        <v>6</v>
+      </c>
+      <c r="AH89">
+        <v>29542</v>
+      </c>
+      <c r="AI89">
+        <v>654</v>
+      </c>
+      <c r="AJ89">
+        <v>4.5918534248545404</v>
+      </c>
+      <c r="AK89">
+        <f>AH89/AJ89</f>
+        <v>6433.567726725908</v>
+      </c>
+      <c r="AM89">
+        <v>0.1</v>
+      </c>
+      <c r="AN89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>8</v>
       </c>
@@ -3128,7 +6338,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6431.7800000000452</v>
       </c>
       <c r="G90">
@@ -3140,14 +6350,67 @@
       <c r="L90" s="1">
         <v>7</v>
       </c>
+      <c r="M90">
+        <v>711941</v>
+      </c>
+      <c r="N90">
+        <v>9028</v>
+      </c>
+      <c r="O90">
+        <v>99.999999999999005</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="4"/>
+        <v>7119.4100000000708</v>
+      </c>
       <c r="R90">
         <v>1</v>
       </c>
       <c r="S90" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V90">
+        <v>7</v>
+      </c>
+      <c r="W90">
+        <v>34845</v>
+      </c>
+      <c r="X90">
+        <v>755</v>
+      </c>
+      <c r="Y90">
+        <v>5.3241186434945398</v>
+      </c>
+      <c r="AB90">
+        <v>0.1</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG90">
+        <v>7</v>
+      </c>
+      <c r="AH90">
+        <v>34845</v>
+      </c>
+      <c r="AI90">
+        <v>755</v>
+      </c>
+      <c r="AJ90">
+        <v>5.3241186434945398</v>
+      </c>
+      <c r="AK90">
+        <f>AH90/AJ90</f>
+        <v>6544.745211975428</v>
+      </c>
+      <c r="AM90">
+        <v>0.1</v>
+      </c>
+      <c r="AN90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>9</v>
       </c>
@@ -3161,7 +6424,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6548.8000000000393</v>
       </c>
       <c r="G91">
@@ -3173,14 +6436,67 @@
       <c r="L91" s="1">
         <v>8</v>
       </c>
+      <c r="M91">
+        <v>653696</v>
+      </c>
+      <c r="N91">
+        <v>8015</v>
+      </c>
+      <c r="O91">
+        <v>99.999999999999204</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="4"/>
+        <v>6536.9600000000519</v>
+      </c>
       <c r="R91">
         <v>1</v>
       </c>
       <c r="S91" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V91">
+        <v>8</v>
+      </c>
+      <c r="W91">
+        <v>30037</v>
+      </c>
+      <c r="X91">
+        <v>649</v>
+      </c>
+      <c r="Y91">
+        <v>5.0575267064970797</v>
+      </c>
+      <c r="AB91">
+        <v>0.1</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG91">
+        <v>8</v>
+      </c>
+      <c r="AH91">
+        <v>30037</v>
+      </c>
+      <c r="AI91">
+        <v>649</v>
+      </c>
+      <c r="AJ91">
+        <v>5.0575267064970797</v>
+      </c>
+      <c r="AK91">
+        <f>AH91/AJ91</f>
+        <v>5939.0689843344562</v>
+      </c>
+      <c r="AM91">
+        <v>0.1</v>
+      </c>
+      <c r="AN91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>10</v>
       </c>
@@ -3194,7 +6510,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6021.6200000000363</v>
       </c>
       <c r="G92">
@@ -3206,17 +6522,67 @@
       <c r="L92" s="4">
         <v>9</v>
       </c>
-      <c r="M92" s="4"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
+      <c r="M92">
+        <v>656538</v>
+      </c>
+      <c r="N92">
+        <v>7876</v>
+      </c>
+      <c r="O92">
+        <v>99.999999999999204</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="4"/>
+        <v>6565.380000000052</v>
+      </c>
       <c r="R92">
         <v>1</v>
       </c>
       <c r="S92" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V92">
+        <v>9</v>
+      </c>
+      <c r="W92">
+        <v>35580</v>
+      </c>
+      <c r="X92">
+        <v>639</v>
+      </c>
+      <c r="Y92">
+        <v>5.1277358395789703</v>
+      </c>
+      <c r="AB92">
+        <v>0.1</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG92">
+        <v>9</v>
+      </c>
+      <c r="AH92">
+        <v>35580</v>
+      </c>
+      <c r="AI92">
+        <v>639</v>
+      </c>
+      <c r="AJ92">
+        <v>5.1277358395789703</v>
+      </c>
+      <c r="AK92">
+        <f>AH92/AJ92</f>
+        <v>6938.7349725334943</v>
+      </c>
+      <c r="AM92">
+        <v>0.1</v>
+      </c>
+      <c r="AN92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>11</v>
       </c>
@@ -3230,7 +6596,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6332.2000000000126</v>
       </c>
       <c r="G93">
@@ -3242,14 +6608,67 @@
       <c r="L93" s="1">
         <v>10</v>
       </c>
+      <c r="M93">
+        <v>618910</v>
+      </c>
+      <c r="N93">
+        <v>8579</v>
+      </c>
+      <c r="O93">
+        <v>99.999999999999403</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="4"/>
+        <v>6189.1000000000367</v>
+      </c>
       <c r="R93">
         <v>1</v>
       </c>
       <c r="S93" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V93">
+        <v>10</v>
+      </c>
+      <c r="W93">
+        <v>33723</v>
+      </c>
+      <c r="X93">
+        <v>666</v>
+      </c>
+      <c r="Y93">
+        <v>5.1386003785668404</v>
+      </c>
+      <c r="AB93">
+        <v>0.1</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG93">
+        <v>10</v>
+      </c>
+      <c r="AH93">
+        <v>33723</v>
+      </c>
+      <c r="AI93">
+        <v>666</v>
+      </c>
+      <c r="AJ93">
+        <v>5.1386003785668404</v>
+      </c>
+      <c r="AK93">
+        <f>AH93/AJ93</f>
+        <v>6562.6819592079992</v>
+      </c>
+      <c r="AM93">
+        <v>0.1</v>
+      </c>
+      <c r="AN93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>12</v>
       </c>
@@ -3263,7 +6682,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6237.800000000012</v>
       </c>
       <c r="G94">
@@ -3275,14 +6694,39 @@
       <c r="L94" s="1">
         <v>11</v>
       </c>
+      <c r="M94">
+        <v>31365</v>
+      </c>
+      <c r="N94">
+        <v>390</v>
+      </c>
+      <c r="O94">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P94">
+        <f t="shared" ref="P94:P105" si="5">M94/O94</f>
+        <v>6273.0000000000118</v>
+      </c>
       <c r="R94">
         <v>0.05</v>
       </c>
       <c r="S94" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V94">
+        <v>11</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG94">
+        <v>11</v>
+      </c>
+      <c r="AN94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>13</v>
       </c>
@@ -3296,7 +6740,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6463.8000000000129</v>
       </c>
       <c r="G95">
@@ -3308,14 +6752,39 @@
       <c r="L95" s="1">
         <v>12</v>
       </c>
+      <c r="M95">
+        <v>31583</v>
+      </c>
+      <c r="N95">
+        <v>439</v>
+      </c>
+      <c r="O95">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="5"/>
+        <v>6316.6000000000122</v>
+      </c>
       <c r="R95">
         <v>0.05</v>
       </c>
       <c r="S95" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V95">
+        <v>12</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG95">
+        <v>12</v>
+      </c>
+      <c r="AN95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>14</v>
       </c>
@@ -3329,7 +6798,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6502.2000000000126</v>
       </c>
       <c r="G96">
@@ -3341,15 +6810,39 @@
       <c r="L96" s="1">
         <v>13</v>
       </c>
-      <c r="M96" s="1"/>
+      <c r="M96">
+        <v>34491</v>
+      </c>
+      <c r="N96">
+        <v>413</v>
+      </c>
+      <c r="O96">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="5"/>
+        <v>6898.2000000000135</v>
+      </c>
       <c r="R96">
         <v>0.05</v>
       </c>
       <c r="S96" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V96">
+        <v>13</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG96">
+        <v>13</v>
+      </c>
+      <c r="AN96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>15</v>
       </c>
@@ -3363,7 +6856,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6552.2000000000126</v>
       </c>
       <c r="G97">
@@ -3375,14 +6868,39 @@
       <c r="L97" s="1">
         <v>14</v>
       </c>
+      <c r="M97">
+        <v>30645</v>
+      </c>
+      <c r="N97">
+        <v>402</v>
+      </c>
+      <c r="O97">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="5"/>
+        <v>6129.0000000000118</v>
+      </c>
       <c r="R97">
         <v>0.05</v>
       </c>
       <c r="S97" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V97">
+        <v>14</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG97">
+        <v>14</v>
+      </c>
+      <c r="AN97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>16</v>
       </c>
@@ -3396,7 +6914,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6292.6000000000122</v>
       </c>
       <c r="G98">
@@ -3405,17 +6923,43 @@
       <c r="H98" t="s">
         <v>4</v>
       </c>
+      <c r="K98" s="7"/>
       <c r="L98" s="1">
         <v>15</v>
       </c>
+      <c r="M98">
+        <v>31438</v>
+      </c>
+      <c r="N98">
+        <v>391</v>
+      </c>
+      <c r="O98">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="5"/>
+        <v>6287.6000000000122</v>
+      </c>
       <c r="R98">
         <v>0.05</v>
       </c>
       <c r="S98" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V98">
+        <v>15</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG98">
+        <v>15</v>
+      </c>
+      <c r="AN98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>17</v>
       </c>
@@ -3429,7 +6973,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6847.4000000000133</v>
       </c>
       <c r="G99">
@@ -3441,14 +6985,39 @@
       <c r="L99" s="1">
         <v>16</v>
       </c>
+      <c r="M99">
+        <v>32211</v>
+      </c>
+      <c r="N99">
+        <v>432</v>
+      </c>
+      <c r="O99">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="5"/>
+        <v>6442.2000000000126</v>
+      </c>
       <c r="R99">
         <v>0.05</v>
       </c>
       <c r="S99" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V99">
+        <v>16</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG99">
+        <v>16</v>
+      </c>
+      <c r="AN99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>18</v>
       </c>
@@ -3462,7 +7031,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6937.4000000000133</v>
       </c>
       <c r="G100">
@@ -3474,14 +7043,39 @@
       <c r="L100" s="1">
         <v>17</v>
       </c>
+      <c r="M100">
+        <v>33217</v>
+      </c>
+      <c r="N100">
+        <v>420</v>
+      </c>
+      <c r="O100">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="5"/>
+        <v>6643.4000000000133</v>
+      </c>
       <c r="R100">
         <v>0.05</v>
       </c>
       <c r="S100" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V100">
+        <v>17</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG100">
+        <v>17</v>
+      </c>
+      <c r="AN100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>19</v>
       </c>
@@ -3495,7 +7089,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6882.6000000000131</v>
       </c>
       <c r="G101">
@@ -3507,14 +7101,39 @@
       <c r="L101" s="1">
         <v>18</v>
       </c>
+      <c r="M101">
+        <v>31027</v>
+      </c>
+      <c r="N101">
+        <v>395</v>
+      </c>
+      <c r="O101">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="5"/>
+        <v>6205.4000000000124</v>
+      </c>
       <c r="R101">
         <v>0.05</v>
       </c>
       <c r="S101" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V101">
+        <v>18</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG101">
+        <v>18</v>
+      </c>
+      <c r="AN101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>20</v>
       </c>
@@ -3528,7 +7147,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6609.6000000000131</v>
       </c>
       <c r="G102">
@@ -3540,16 +7159,41 @@
       <c r="L102" s="1">
         <v>19</v>
       </c>
+      <c r="M102">
+        <v>31558</v>
+      </c>
+      <c r="N102">
+        <v>420</v>
+      </c>
+      <c r="O102">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="5"/>
+        <v>6311.6000000000122</v>
+      </c>
       <c r="R102">
         <v>0.05</v>
       </c>
       <c r="S102" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V102">
+        <v>19</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG102">
+        <v>19</v>
+      </c>
+      <c r="AN102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B103">
         <v>632845.9</v>
@@ -3561,22 +7205,48 @@
         <v>100</v>
       </c>
       <c r="E103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6328.4589999999998</v>
       </c>
       <c r="L103" s="1">
         <v>20</v>
       </c>
+      <c r="M103">
+        <v>33119</v>
+      </c>
+      <c r="N103">
+        <v>403</v>
+      </c>
+      <c r="O103">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="5"/>
+        <v>6623.8000000000129</v>
+      </c>
       <c r="R103">
         <v>0.05</v>
       </c>
       <c r="S103" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V103">
+        <v>20</v>
+      </c>
+      <c r="Z103" s="16"/>
+      <c r="AC103" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG103">
+        <v>20</v>
+      </c>
+      <c r="AN103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B104">
         <v>32828.9</v>
@@ -3588,17 +7258,1049 @@
         <v>5</v>
       </c>
       <c r="E104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6565.7800000000007</v>
       </c>
       <c r="L104" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M104">
+        <v>649624.6</v>
+      </c>
+      <c r="N104">
+        <v>8141.3</v>
+      </c>
+      <c r="O104">
+        <v>99.999999999999204</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="5"/>
+        <v>6496.246000000051</v>
+      </c>
+      <c r="U104" s="6"/>
+      <c r="V104" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W104" s="16">
+        <v>31901.1</v>
+      </c>
+      <c r="X104" s="16">
+        <v>663.6</v>
+      </c>
+      <c r="Y104" s="16">
+        <v>5.04737738040909</v>
+      </c>
+      <c r="Z104" s="6"/>
+      <c r="AA104" s="6"/>
+      <c r="AB104" s="6"/>
+      <c r="AC104" s="6"/>
+      <c r="AD104" s="6"/>
+      <c r="AE104" s="6"/>
+      <c r="AF104" s="6"/>
+      <c r="AG104" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH104">
+        <v>31901.1</v>
+      </c>
+      <c r="AI104">
+        <v>663.6</v>
+      </c>
+      <c r="AJ104">
+        <v>5.04737738040909</v>
+      </c>
+      <c r="AK104">
+        <f>AH104/AJ104</f>
+        <v>6320.3318467569025</v>
+      </c>
+    </row>
+    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="L105" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M104" s="7"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L105" s="6" t="s">
+      <c r="M105">
+        <v>32065.4</v>
+      </c>
+      <c r="N105">
+        <v>410.5</v>
+      </c>
+      <c r="O105">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="5"/>
+        <v>6413.0800000000127</v>
+      </c>
+      <c r="U105" s="6"/>
+      <c r="V105" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W105" s="6"/>
+      <c r="X105" s="6"/>
+      <c r="Y105" s="6"/>
+      <c r="Z105" s="6"/>
+      <c r="AA105" s="6"/>
+      <c r="AB105" s="6"/>
+      <c r="AC105" s="6"/>
+      <c r="AD105" s="6"/>
+      <c r="AE105" s="6"/>
+      <c r="AF105" s="6"/>
+      <c r="AG105" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH105" s="6"/>
+    </row>
+    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L108" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="L109" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L110" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>8</v>
+      </c>
+      <c r="L111" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M111" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N111" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O111" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R111" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S111" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
+      <c r="S112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L113" s="1">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>1</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L114" s="1">
+        <v>2</v>
+      </c>
+      <c r="R114">
+        <v>1</v>
+      </c>
+      <c r="S114" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>4</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L115" s="1">
+        <v>3</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
+      <c r="S115" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>5</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L116" s="1">
+        <v>4</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>6</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L117" s="1">
+        <v>5</v>
+      </c>
+      <c r="R117">
+        <v>1</v>
+      </c>
+      <c r="S117" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>7</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L118" s="1">
+        <v>6</v>
+      </c>
+      <c r="R118">
+        <v>1</v>
+      </c>
+      <c r="S118" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>8</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L119" s="1">
+        <v>7</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>9</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L120" s="1">
+        <v>8</v>
+      </c>
+      <c r="R120">
+        <v>1</v>
+      </c>
+      <c r="S120" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>10</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L121" s="4">
+        <v>9</v>
+      </c>
+      <c r="M121" s="4"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>11</v>
+      </c>
+      <c r="G122">
+        <v>0.05</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L122" s="1">
+        <v>10</v>
+      </c>
+      <c r="R122">
+        <v>1</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>12</v>
+      </c>
+      <c r="G123">
+        <v>0.05</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L123" s="1">
+        <v>11</v>
+      </c>
+      <c r="R123">
+        <v>0.05</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>13</v>
+      </c>
+      <c r="G124">
+        <v>0.05</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L124" s="1">
+        <v>12</v>
+      </c>
+      <c r="R124">
+        <v>0.05</v>
+      </c>
+      <c r="S124" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>14</v>
+      </c>
+      <c r="G125">
+        <v>0.05</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L125" s="1">
+        <v>13</v>
+      </c>
+      <c r="R125">
+        <v>0.05</v>
+      </c>
+      <c r="S125" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>15</v>
+      </c>
+      <c r="G126">
+        <v>0.05</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L126" s="1">
+        <v>14</v>
+      </c>
+      <c r="R126">
+        <v>0.05</v>
+      </c>
+      <c r="S126" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>16</v>
+      </c>
+      <c r="G127">
+        <v>0.05</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L127" s="1">
+        <v>15</v>
+      </c>
+      <c r="R127">
+        <v>0.05</v>
+      </c>
+      <c r="S127" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>17</v>
+      </c>
+      <c r="G128">
+        <v>0.05</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L128" s="1">
+        <v>16</v>
+      </c>
+      <c r="R128">
+        <v>0.05</v>
+      </c>
+      <c r="S128" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>18</v>
+      </c>
+      <c r="G129">
+        <v>0.05</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L129" s="1">
+        <v>17</v>
+      </c>
+      <c r="R129">
+        <v>0.05</v>
+      </c>
+      <c r="S129" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>19</v>
+      </c>
+      <c r="G130">
+        <v>0.05</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L130" s="1">
+        <v>18</v>
+      </c>
+      <c r="R130">
+        <v>0.05</v>
+      </c>
+      <c r="S130" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>20</v>
+      </c>
+      <c r="G131">
+        <v>0.05</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L131" s="1">
+        <v>19</v>
+      </c>
+      <c r="R131">
+        <v>0.05</v>
+      </c>
+      <c r="S131" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c r="L132" s="1">
+        <v>20</v>
+      </c>
+      <c r="R132">
+        <v>0.05</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M133" s="7"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L134" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L137" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L138" s="1">
+        <v>1</v>
+      </c>
+      <c r="R138">
+        <v>1</v>
+      </c>
+      <c r="S138" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>3</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L139" s="1">
+        <v>2</v>
+      </c>
+      <c r="R139">
+        <v>1</v>
+      </c>
+      <c r="S139" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>4</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L140" s="1">
+        <v>3</v>
+      </c>
+      <c r="R140">
+        <v>1</v>
+      </c>
+      <c r="S140" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>5</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L141" s="1">
+        <v>4</v>
+      </c>
+      <c r="R141">
+        <v>1</v>
+      </c>
+      <c r="S141" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>6</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L142" s="1">
+        <v>5</v>
+      </c>
+      <c r="R142">
+        <v>1</v>
+      </c>
+      <c r="S142" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>7</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L143" s="1">
+        <v>6</v>
+      </c>
+      <c r="R143">
+        <v>1</v>
+      </c>
+      <c r="S143" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>8</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L144" s="1">
+        <v>7</v>
+      </c>
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>9</v>
+      </c>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L145" s="1">
+        <v>8</v>
+      </c>
+      <c r="R145">
+        <v>1</v>
+      </c>
+      <c r="S145" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>10</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L146" s="4">
+        <v>9</v>
+      </c>
+      <c r="M146" s="4"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="R146">
+        <v>1</v>
+      </c>
+      <c r="S146" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>11</v>
+      </c>
+      <c r="G147">
+        <v>0.05</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L147" s="1">
+        <v>10</v>
+      </c>
+      <c r="R147">
+        <v>1</v>
+      </c>
+      <c r="S147" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>12</v>
+      </c>
+      <c r="G148">
+        <v>0.05</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L148" s="1">
+        <v>11</v>
+      </c>
+      <c r="R148">
+        <v>0.05</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>13</v>
+      </c>
+      <c r="G149">
+        <v>0.05</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L149" s="1">
+        <v>12</v>
+      </c>
+      <c r="R149">
+        <v>0.05</v>
+      </c>
+      <c r="S149" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>14</v>
+      </c>
+      <c r="G150">
+        <v>0.05</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L150" s="1">
+        <v>13</v>
+      </c>
+      <c r="R150">
+        <v>0.05</v>
+      </c>
+      <c r="S150" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>15</v>
+      </c>
+      <c r="G151">
+        <v>0.05</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L151" s="1">
+        <v>14</v>
+      </c>
+      <c r="R151">
+        <v>0.05</v>
+      </c>
+      <c r="S151" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>16</v>
+      </c>
+      <c r="G152">
+        <v>0.05</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L152" s="1">
+        <v>15</v>
+      </c>
+      <c r="R152">
+        <v>0.05</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>17</v>
+      </c>
+      <c r="G153">
+        <v>0.05</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L153" s="1">
+        <v>16</v>
+      </c>
+      <c r="R153">
+        <v>0.05</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>18</v>
+      </c>
+      <c r="G154">
+        <v>0.05</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L154" s="1">
+        <v>17</v>
+      </c>
+      <c r="R154">
+        <v>0.05</v>
+      </c>
+      <c r="S154" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>19</v>
+      </c>
+      <c r="G155">
+        <v>0.05</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L155" s="1">
+        <v>18</v>
+      </c>
+      <c r="R155">
+        <v>0.05</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>20</v>
+      </c>
+      <c r="G156">
+        <v>0.05</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L156" s="1">
+        <v>19</v>
+      </c>
+      <c r="R156">
+        <v>0.05</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="7"/>
+      <c r="L157" s="1">
+        <v>20</v>
+      </c>
+      <c r="R157">
+        <v>0.05</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L158" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M158" s="7"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L159" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
+++ b/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bozho1\Desktop\Thesis Code\ThesisWorkCybercom\pyFiles\RL\Results\New Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F2856-CDC8-4ABC-B95A-D906DA13B2A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E9FE89-F97D-4BCC-B949-8E155632ECFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="30">
   <si>
     <t>Controller</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Until one Node Dies</t>
   </si>
   <si>
-    <t>______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________</t>
-  </si>
-  <si>
     <t>Until one node dies</t>
   </si>
   <si>
@@ -138,6 +135,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>____________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________</t>
+  </si>
+  <si>
+    <t>BLEACH Tests</t>
+  </si>
+  <si>
+    <t>Until All Node Dies</t>
   </si>
 </sst>
 </file>
@@ -587,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2693EA75-5C63-4FDE-887F-C7326CFE699C}">
   <dimension ref="A1:AN159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T70" workbookViewId="0">
-      <selection activeCell="AH70" sqref="AH70"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="Z165" sqref="Z165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,10 +635,10 @@
   <sheetData>
     <row r="1" spans="1:40" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -643,10 +649,10 @@
         <v>17</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -852,7 +858,7 @@
         <v>8.0960982256880906E-2</v>
       </c>
       <c r="Z6">
-        <f>W6/Y6</f>
+        <f t="shared" ref="Z6:Z15" si="1">W6/Y6</f>
         <v>5471.7715577413128</v>
       </c>
       <c r="AB6">
@@ -874,7 +880,7 @@
         <v>3.79855781103371E-2</v>
       </c>
       <c r="AK6">
-        <f>AH6/AJ6</f>
+        <f t="shared" ref="AK6:AK15" si="2">AH6/AJ6</f>
         <v>5317.8077062101966</v>
       </c>
       <c r="AM6">
@@ -898,7 +904,7 @@
         <v>43.380756600000502</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E52" si="1">B7/D7</f>
+        <f t="shared" ref="E7:E52" si="3">B7/D7</f>
         <v>3389.2677657908412</v>
       </c>
       <c r="G7">
@@ -942,7 +948,7 @@
         <v>0.20456565623946599</v>
       </c>
       <c r="Z7">
-        <f>W7/Y7</f>
+        <f t="shared" si="1"/>
         <v>5714.54672054805</v>
       </c>
       <c r="AB7">
@@ -964,7 +970,7 @@
         <v>6.4410163344809104E-2</v>
       </c>
       <c r="AK7">
-        <f>AH7/AJ7</f>
+        <f t="shared" si="2"/>
         <v>4611.0735414543178</v>
       </c>
       <c r="AM7">
@@ -988,7 +994,7 @@
         <v>47.762579000000599</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3785.2227368207596</v>
       </c>
       <c r="G8">
@@ -1032,7 +1038,7 @@
         <v>9.5694199999999896E-2</v>
       </c>
       <c r="Z8">
-        <f>W8/Y8</f>
+        <f t="shared" si="1"/>
         <v>6196.8227959479327</v>
       </c>
       <c r="AB8">
@@ -1054,7 +1060,7 @@
         <v>0.14901249999999999</v>
       </c>
       <c r="AK8">
-        <f>AH8/AJ8</f>
+        <f t="shared" si="2"/>
         <v>5583.4242093784078</v>
       </c>
       <c r="AM8">
@@ -1078,7 +1084,7 @@
         <v>48.797405000000602</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3915.4541107257169</v>
       </c>
       <c r="G9">
@@ -1122,7 +1128,7 @@
         <v>3.4754300000000002E-2</v>
       </c>
       <c r="Z9">
-        <f>W9/Y9</f>
+        <f t="shared" si="1"/>
         <v>5725.9101751437947</v>
       </c>
       <c r="AB9">
@@ -1144,7 +1150,7 @@
         <v>6.7502695408586694E-2</v>
       </c>
       <c r="AK9">
-        <f>AH9/AJ9</f>
+        <f t="shared" si="2"/>
         <v>5481.2626038179515</v>
       </c>
       <c r="AM9">
@@ -1168,7 +1174,7 @@
         <v>50.320584200000603</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3309.0434589985944</v>
       </c>
       <c r="G10">
@@ -1212,7 +1218,7 @@
         <v>3.2103327794318098E-2</v>
       </c>
       <c r="Z10">
-        <f>W10/Y10</f>
+        <f t="shared" si="1"/>
         <v>5046.2058337974559</v>
       </c>
       <c r="AB10">
@@ -1234,7 +1240,7 @@
         <v>3.7862999850257303E-2</v>
       </c>
       <c r="AK10">
-        <f>AH10/AJ10</f>
+        <f t="shared" si="2"/>
         <v>5916.0658396293911</v>
       </c>
       <c r="AM10">
@@ -1258,7 +1264,7 @@
         <v>48.646262300000799</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3671.402314500061</v>
       </c>
       <c r="G11">
@@ -1302,7 +1308,7 @@
         <v>6.4828499999999997E-2</v>
       </c>
       <c r="Z11">
-        <f>W11/Y11</f>
+        <f t="shared" si="1"/>
         <v>6447.7814541443968</v>
       </c>
       <c r="AB11">
@@ -1324,7 +1330,7 @@
         <v>3.4175571645349297E-2</v>
       </c>
       <c r="AK11">
-        <f>AH11/AJ11</f>
+        <f t="shared" si="2"/>
         <v>5501.005278007794</v>
       </c>
       <c r="AM11">
@@ -1348,7 +1354,7 @@
         <v>44.689656100000498</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4104.6411185070174</v>
       </c>
       <c r="G12">
@@ -1392,7 +1398,7 @@
         <v>4.25092068684437E-2</v>
       </c>
       <c r="Z12">
-        <f>W12/Y12</f>
+        <f t="shared" si="1"/>
         <v>4751.911759378243</v>
       </c>
       <c r="AB12">
@@ -1414,7 +1420,7 @@
         <v>9.9442390105072997E-2</v>
       </c>
       <c r="AK12">
-        <f>AH12/AJ12</f>
+        <f t="shared" si="2"/>
         <v>5550.9526613021344</v>
       </c>
       <c r="AM12">
@@ -1438,7 +1444,7 @@
         <v>48.8300467000008</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3569.7692666756584</v>
       </c>
       <c r="G13">
@@ -1482,7 +1488,7 @@
         <v>3.5021799999999999E-2</v>
       </c>
       <c r="Z13">
-        <f>W13/Y13</f>
+        <f t="shared" si="1"/>
         <v>6081.9261145914834</v>
       </c>
       <c r="AB13">
@@ -1504,7 +1510,7 @@
         <v>0.14937989999999901</v>
       </c>
       <c r="AK13">
-        <f>AH13/AJ13</f>
+        <f t="shared" si="2"/>
         <v>5703.5785939072503</v>
       </c>
       <c r="AM13">
@@ -1528,7 +1534,7 @@
         <v>50.529076200000901</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3726.4880769776796</v>
       </c>
       <c r="G14">
@@ -1572,7 +1578,7 @@
         <v>6.6500415448856098E-2</v>
       </c>
       <c r="Z14">
-        <f>W14/Y14</f>
+        <f t="shared" si="1"/>
         <v>5864.6250157630939</v>
       </c>
       <c r="AB14">
@@ -1594,7 +1600,7 @@
         <v>7.8313499999999897E-2</v>
       </c>
       <c r="AK14">
-        <f>AH14/AJ14</f>
+        <f t="shared" si="2"/>
         <v>5541.8286757711066</v>
       </c>
       <c r="AM14">
@@ -1618,7 +1624,7 @@
         <v>46.347527000000603</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4172.7145441869525</v>
       </c>
       <c r="G15">
@@ -1662,7 +1668,7 @@
         <v>0.1244639</v>
       </c>
       <c r="Z15">
-        <f>W15/Y15</f>
+        <f t="shared" si="1"/>
         <v>5503.6038562185504</v>
       </c>
       <c r="AB15">
@@ -1684,7 +1690,7 @@
         <v>4.1716103308022202E-2</v>
       </c>
       <c r="AK15">
-        <f>AH15/AJ15</f>
+        <f t="shared" si="2"/>
         <v>5034.0272304296459</v>
       </c>
       <c r="AM15">
@@ -1708,7 +1714,7 @@
         <v>2.8362612999999901</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5496.3201028057802</v>
       </c>
       <c r="G16">
@@ -1766,7 +1772,7 @@
         <v>2.0675134999999898</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5641.5592933250773</v>
       </c>
       <c r="G17">
@@ -1788,7 +1794,7 @@
         <v>2.9312787999999901</v>
       </c>
       <c r="P17">
-        <f t="shared" ref="P17:P80" si="2">M17/O17</f>
+        <f t="shared" ref="P17:P80" si="4">M17/O17</f>
         <v>5287.7945284495127</v>
       </c>
       <c r="R17">
@@ -1824,7 +1830,7 @@
         <v>2.2550701999999898</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5598.9387824822734</v>
       </c>
       <c r="G18">
@@ -1846,7 +1852,7 @@
         <v>2.4170403999999901</v>
       </c>
       <c r="P18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5717.736451571127</v>
       </c>
       <c r="R18">
@@ -1882,7 +1888,7 @@
         <v>2.61115549999999</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5259.3573994348681</v>
       </c>
       <c r="G19">
@@ -1904,7 +1910,7 @@
         <v>2.5736364999999899</v>
       </c>
       <c r="P19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5222.5712527779478</v>
       </c>
       <c r="R19">
@@ -1940,7 +1946,7 @@
         <v>2.5050877999999899</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5207.8014990133488</v>
       </c>
       <c r="G20">
@@ -1962,7 +1968,7 @@
         <v>2.6003372999999899</v>
       </c>
       <c r="P20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5195.8643980533034</v>
       </c>
       <c r="R20">
@@ -1998,7 +2004,7 @@
         <v>2.4996553999999902</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5421.9473612242928</v>
       </c>
       <c r="G21">
@@ -2020,7 +2026,7 @@
         <v>2.15862199999999</v>
       </c>
       <c r="P21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5806.4820983016289</v>
       </c>
       <c r="R21">
@@ -2056,7 +2062,7 @@
         <v>2.2754759999999998</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3411.5938818954805</v>
       </c>
       <c r="G22">
@@ -2078,7 +2084,7 @@
         <v>1.8829049999999901</v>
       </c>
       <c r="P22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4314.0785116615243</v>
       </c>
       <c r="R22">
@@ -2114,7 +2120,7 @@
         <v>2.2377007</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4875.5403258353545</v>
       </c>
       <c r="G23">
@@ -2136,7 +2142,7 @@
         <v>2.5708855999999898</v>
       </c>
       <c r="P23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5124.3042475324664</v>
       </c>
       <c r="R23">
@@ -2172,7 +2178,7 @@
         <v>2.4179460999999902</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5361.1616900807066</v>
       </c>
       <c r="G24">
@@ -2194,7 +2200,7 @@
         <v>1.89899339999999</v>
       </c>
       <c r="P24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4908.3898869790964</v>
       </c>
       <c r="R24">
@@ -2230,7 +2236,7 @@
         <v>2.739277</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5161.2158974795175</v>
       </c>
       <c r="G25">
@@ -2252,7 +2258,7 @@
         <v>2.7512728999999898</v>
       </c>
       <c r="P25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5581.0530463917476</v>
       </c>
       <c r="R25">
@@ -2288,7 +2294,7 @@
         <v>48.290751920000702</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3823.2206511477598</v>
       </c>
       <c r="L26" s="6" t="s">
@@ -2304,12 +2310,12 @@
         <v>53.333036120000898</v>
       </c>
       <c r="P26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3794.2542694304161</v>
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W26">
         <v>447.4</v>
@@ -2331,7 +2337,7 @@
       <c r="AE26" s="6"/>
       <c r="AF26" s="6"/>
       <c r="AG26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH26">
         <v>416.1</v>
@@ -2361,7 +2367,7 @@
         <v>2.4445143499999902</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5153.7844316602395</v>
       </c>
       <c r="L27" s="6" t="s">
@@ -2377,7 +2383,7 @@
         <v>2.4016086599999902</v>
       </c>
       <c r="P27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5279.5862253428295</v>
       </c>
       <c r="U27" s="6"/>
@@ -2428,7 +2434,7 @@
         <v>8.1049200000000002E-2</v>
       </c>
       <c r="Z30">
-        <f>W30/Y30</f>
+        <f t="shared" ref="Z30:Z39" si="5">W30/Y30</f>
         <v>5490.4921948643541</v>
       </c>
       <c r="AB30">
@@ -2450,7 +2456,7 @@
         <v>3.6376278085432999E-2</v>
       </c>
       <c r="AK30">
-        <f>AH30/AJ30</f>
+        <f t="shared" ref="AK30:AK39" si="6">AH30/AJ30</f>
         <v>5333.1459459478883</v>
       </c>
       <c r="AM30">
@@ -2474,7 +2480,7 @@
         <v>42.335760600000697</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5675.2021599440932</v>
       </c>
       <c r="G31">
@@ -2496,7 +2502,7 @@
         <v>38.713830400000603</v>
       </c>
       <c r="P31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5514.7991762653555</v>
       </c>
       <c r="R31">
@@ -2518,7 +2524,7 @@
         <v>0.20546209999999901</v>
       </c>
       <c r="Z31">
-        <f>W31/Y31</f>
+        <f t="shared" si="5"/>
         <v>5757.75288970572</v>
       </c>
       <c r="AB31">
@@ -2540,7 +2546,7 @@
         <v>6.4813499999999996E-2</v>
       </c>
       <c r="AK31">
-        <f>AH31/AJ31</f>
+        <f t="shared" si="6"/>
         <v>4674.9519775972603</v>
       </c>
       <c r="AM31">
@@ -2564,7 +2570,7 @@
         <v>27.3269671000001</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5316.7993165256703</v>
       </c>
       <c r="G32">
@@ -2586,7 +2592,7 @@
         <v>36.8888985000006</v>
       </c>
       <c r="P32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5657.8539475771177</v>
       </c>
       <c r="R32">
@@ -2608,7 +2614,7 @@
         <v>9.2735786303480797E-2</v>
       </c>
       <c r="Z32">
-        <f>W32/Y32</f>
+        <f t="shared" si="5"/>
         <v>6103.3612002571163</v>
       </c>
       <c r="AB32">
@@ -2630,7 +2636,7 @@
         <v>0.146754020967897</v>
       </c>
       <c r="AK32">
-        <f>AH32/AJ32</f>
+        <f t="shared" si="6"/>
         <v>5580.767018159996</v>
       </c>
       <c r="AM32">
@@ -2654,7 +2660,7 @@
         <v>33.695929600000397</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5286.8403428762476</v>
       </c>
       <c r="G33">
@@ -2676,7 +2682,7 @@
         <v>33.1780442000004</v>
       </c>
       <c r="P33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5666.8198663740923</v>
       </c>
       <c r="R33">
@@ -2698,7 +2704,7 @@
         <v>3.2243167656376699E-2</v>
       </c>
       <c r="Z33">
-        <f>W33/Y33</f>
+        <f t="shared" si="5"/>
         <v>5830.6926293210963</v>
       </c>
       <c r="AB33">
@@ -2720,7 +2726,7 @@
         <v>7.0902335112985604E-2</v>
       </c>
       <c r="AK33">
-        <f>AH33/AJ33</f>
+        <f t="shared" si="6"/>
         <v>5345.3810709625977</v>
       </c>
       <c r="AM33">
@@ -2744,7 +2750,7 @@
         <v>34.348432100000501</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5501.1535737608601</v>
       </c>
       <c r="G34">
@@ -2766,7 +2772,7 @@
         <v>42.504061900000799</v>
       </c>
       <c r="P34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5674.987029886559</v>
       </c>
       <c r="R34">
@@ -2788,7 +2794,7 @@
         <v>2.60453995694148E-2</v>
       </c>
       <c r="Z34">
-        <f>W34/Y34</f>
+        <f t="shared" si="5"/>
         <v>5528.8074815753516</v>
       </c>
       <c r="AB34">
@@ -2810,7 +2816,7 @@
         <v>3.8236999999999903E-2</v>
       </c>
       <c r="AK34">
-        <f>AH34/AJ34</f>
+        <f t="shared" si="6"/>
         <v>6015.1162486596904</v>
       </c>
       <c r="AM34">
@@ -2834,7 +2840,7 @@
         <v>30.360200100000199</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5412.2502308540097</v>
       </c>
       <c r="G35">
@@ -2856,7 +2862,7 @@
         <v>36.226749300000499</v>
       </c>
       <c r="P35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5766.7608614278051</v>
       </c>
       <c r="R35">
@@ -2878,7 +2884,7 @@
         <v>6.2683631266634399E-2</v>
       </c>
       <c r="Z35">
-        <f>W35/Y35</f>
+        <f t="shared" si="5"/>
         <v>6397.2043721316213</v>
       </c>
       <c r="AB35">
@@ -2900,7 +2906,7 @@
         <v>3.7457999999999901E-2</v>
       </c>
       <c r="AK35">
-        <f>AH35/AJ35</f>
+        <f t="shared" si="6"/>
         <v>5312.6167974798582</v>
       </c>
       <c r="AM35">
@@ -2924,7 +2930,7 @@
         <v>32.679522100000398</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5410.48303763285</v>
       </c>
       <c r="G36">
@@ -2946,7 +2952,7 @@
         <v>29.067712500000201</v>
       </c>
       <c r="P36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5651.4250992402258</v>
       </c>
       <c r="R36">
@@ -2968,7 +2974,7 @@
         <v>4.2739699999999999E-2</v>
       </c>
       <c r="Z36">
-        <f>W36/Y36</f>
+        <f t="shared" si="5"/>
         <v>4749.6823796142698</v>
       </c>
       <c r="AB36">
@@ -2990,7 +2996,7 @@
         <v>9.7946699999999998E-2</v>
       </c>
       <c r="AK36">
-        <f>AH36/AJ36</f>
+        <f t="shared" si="6"/>
         <v>5717.3952772273087</v>
       </c>
       <c r="AM36">
@@ -3014,7 +3020,7 @@
         <v>31.813657400000299</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5701.827919979999</v>
       </c>
       <c r="G37">
@@ -3036,7 +3042,7 @@
         <v>43.540416600001002</v>
       </c>
       <c r="P37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6143.9007912476854</v>
       </c>
       <c r="R37">
@@ -3058,7 +3064,7 @@
         <v>3.4714297761270899E-2</v>
       </c>
       <c r="Z37">
-        <f>W37/Y37</f>
+        <f t="shared" si="5"/>
         <v>5934.1543192564441</v>
       </c>
       <c r="AB37">
@@ -3080,7 +3086,7 @@
         <v>0.13830170213443099</v>
       </c>
       <c r="AK37">
-        <f>AH37/AJ37</f>
+        <f t="shared" si="6"/>
         <v>5878.4525964095064</v>
       </c>
       <c r="AM37">
@@ -3104,7 +3110,7 @@
         <v>29.1576011000002</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5919.9657546586996</v>
       </c>
       <c r="G38">
@@ -3126,7 +3132,7 @@
         <v>32.979195600000303</v>
       </c>
       <c r="P38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5660.659594741549</v>
       </c>
       <c r="R38">
@@ -3148,7 +3154,7 @@
         <v>6.8224199999999999E-2</v>
       </c>
       <c r="Z38">
-        <f>W38/Y38</f>
+        <f t="shared" si="5"/>
         <v>5833.7071009993524</v>
       </c>
       <c r="AB38">
@@ -3170,7 +3176,7 @@
         <v>7.8365025655436502E-2</v>
       </c>
       <c r="AK38">
-        <f>AH38/AJ38</f>
+        <f t="shared" si="6"/>
         <v>5525.4240827261319</v>
       </c>
       <c r="AM38">
@@ -3194,7 +3200,7 @@
         <v>33.5256339000005</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5586.3522389653372</v>
       </c>
       <c r="G39">
@@ -3216,7 +3222,7 @@
         <v>22.563777399999999</v>
       </c>
       <c r="P39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5730.1132566571059</v>
       </c>
       <c r="R39">
@@ -3238,7 +3244,7 @@
         <v>0.119048836998718</v>
       </c>
       <c r="Z39">
-        <f>W39/Y39</f>
+        <f t="shared" si="5"/>
         <v>5577.5429373337802</v>
       </c>
       <c r="AB39">
@@ -3260,7 +3266,7 @@
         <v>4.3298200000000002E-2</v>
       </c>
       <c r="AK39">
-        <f>AH39/AJ39</f>
+        <f t="shared" si="6"/>
         <v>5081.0426299476649</v>
       </c>
       <c r="AM39">
@@ -3284,7 +3290,7 @@
         <v>33.079108700000297</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5785.4944562033579</v>
       </c>
       <c r="G40">
@@ -3306,7 +3312,7 @@
         <v>35.366588100000499</v>
       </c>
       <c r="P40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5483.0564783826931</v>
       </c>
       <c r="R40">
@@ -3342,7 +3348,7 @@
         <v>2.8057885999999899</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5501.4836114167883</v>
       </c>
       <c r="G41">
@@ -3364,7 +3370,7 @@
         <v>2.1710060999999898</v>
       </c>
       <c r="P41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5479.4871373231317</v>
       </c>
       <c r="R41">
@@ -3400,7 +3406,7 @@
         <v>2.0023970999999898</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5741.6183832867409</v>
       </c>
       <c r="G42">
@@ -3422,7 +3428,7 @@
         <v>2.7189092999999902</v>
       </c>
       <c r="P42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5612.9125013475277</v>
       </c>
       <c r="R42">
@@ -3458,7 +3464,7 @@
         <v>2.1722548999999902</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5723.5456115210309</v>
       </c>
       <c r="G43">
@@ -3480,7 +3486,7 @@
         <v>2.37952739999999</v>
       </c>
       <c r="P43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5703.6535910450357</v>
       </c>
       <c r="R43">
@@ -3516,7 +3522,7 @@
         <v>2.5624339999999899</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5283.2580273287249</v>
       </c>
       <c r="G44">
@@ -3538,7 +3544,7 @@
         <v>2.5331349999999899</v>
       </c>
       <c r="P44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5212.9081158327735</v>
       </c>
       <c r="R44">
@@ -3574,7 +3580,7 @@
         <v>2.44224579999999</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5243.1249958542467</v>
       </c>
       <c r="G45">
@@ -3596,7 +3602,7 @@
         <v>2.5134353999999899</v>
       </c>
       <c r="P45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5256.948318624005</v>
       </c>
       <c r="R45">
@@ -3632,7 +3638,7 @@
         <v>2.44635109999999</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5469.3702796790103</v>
       </c>
       <c r="G46">
@@ -3654,7 +3660,7 @@
         <v>2.1136496999999901</v>
       </c>
       <c r="P46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5883.6618007232037</v>
       </c>
       <c r="R46">
@@ -3690,7 +3696,7 @@
         <v>1.36562899999999</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5679.4341655017997</v>
       </c>
       <c r="G47">
@@ -3712,7 +3718,7 @@
         <v>1.50187439999999</v>
       </c>
       <c r="P47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5378.612219503877</v>
       </c>
       <c r="R47">
@@ -3748,7 +3754,7 @@
         <v>1.9462492</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5517.2790822470215</v>
       </c>
       <c r="G48">
@@ -3770,7 +3776,7 @@
         <v>2.3951216999999998</v>
       </c>
       <c r="P48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5436.0494500133336</v>
       </c>
       <c r="R48">
@@ -3806,7 +3812,7 @@
         <v>2.3060661999999899</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5564.4543075129659</v>
       </c>
       <c r="G49">
@@ -3828,7 +3834,7 @@
         <v>1.6837332</v>
       </c>
       <c r="P49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5466.4242529635931</v>
       </c>
       <c r="R49">
@@ -3864,7 +3870,7 @@
         <v>2.29986269999999</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6046.4479031726805</v>
       </c>
       <c r="G50">
@@ -3886,7 +3892,7 @@
         <v>2.6813071999999898</v>
       </c>
       <c r="P50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5634.9380630462847</v>
       </c>
       <c r="R50">
@@ -3897,7 +3903,7 @@
       </c>
       <c r="U50" s="6"/>
       <c r="V50" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W50">
         <v>439.8</v>
@@ -3919,7 +3925,7 @@
       <c r="AE50" s="6"/>
       <c r="AF50" s="6"/>
       <c r="AG50" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH50">
         <v>415</v>
@@ -3945,7 +3951,7 @@
         <v>32.832281270000301</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5562.9975419005759</v>
       </c>
       <c r="L51" s="6" t="s">
@@ -3961,7 +3967,7 @@
         <v>35.1029274500005</v>
       </c>
       <c r="P51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5703.2907094475722</v>
       </c>
       <c r="U51" s="6"/>
@@ -3997,7 +4003,7 @@
         <v>2.2349278599999902</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5562.6403977084319</v>
       </c>
       <c r="L52" s="6" t="s">
@@ -4013,7 +4019,7 @@
         <v>2.2691699399999901</v>
       </c>
       <c r="P52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5508.3578270916341</v>
       </c>
       <c r="U52" s="6"/>
@@ -4220,7 +4226,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="P59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3096.6000000000186</v>
       </c>
       <c r="R59">
@@ -4260,7 +4266,7 @@
         <v>4.7135231198663803</v>
       </c>
       <c r="AK59">
-        <f>AH59/AJ59</f>
+        <f t="shared" ref="AK59:AK68" si="7">AH59/AJ59</f>
         <v>5336.1359137054606</v>
       </c>
       <c r="AM59">
@@ -4284,7 +4290,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:E104" si="3">B60/D60</f>
+        <f t="shared" ref="E60:E104" si="8">B60/D60</f>
         <v>3292.4000000000228</v>
       </c>
       <c r="G60">
@@ -4306,7 +4312,7 @@
         <v>99.999999999999105</v>
       </c>
       <c r="P60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4054.7500000000364</v>
       </c>
       <c r="R60">
@@ -4346,7 +4352,7 @@
         <v>5.0736666720577004</v>
       </c>
       <c r="AK60">
-        <f>AH60/AJ60</f>
+        <f t="shared" si="7"/>
         <v>5290.8481646692453</v>
       </c>
       <c r="AM60">
@@ -4370,7 +4376,7 @@
         <v>99.999999999999005</v>
       </c>
       <c r="E61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3627.5900000000361</v>
       </c>
       <c r="G61">
@@ -4392,7 +4398,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="P61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4169.560000000025</v>
       </c>
       <c r="R61">
@@ -4432,7 +4438,7 @@
         <v>5.4010479502786302</v>
       </c>
       <c r="AK61">
-        <f>AH61/AJ61</f>
+        <f t="shared" si="7"/>
         <v>5726.8515822756817</v>
       </c>
       <c r="AM61">
@@ -4456,7 +4462,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4459.8600000000315</v>
       </c>
       <c r="G62">
@@ -4478,7 +4484,7 @@
         <v>99.999999999999503</v>
       </c>
       <c r="P62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4316.5900000000211</v>
       </c>
       <c r="R62">
@@ -4518,7 +4524,7 @@
         <v>5.1708317748811004</v>
       </c>
       <c r="AK62">
-        <f>AH62/AJ62</f>
+        <f t="shared" si="7"/>
         <v>5633.5230516505871</v>
       </c>
       <c r="AM62">
@@ -4542,7 +4548,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4449.8700000000308</v>
       </c>
       <c r="G63">
@@ -4564,7 +4570,7 @@
         <v>100</v>
       </c>
       <c r="P63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3863.79</v>
       </c>
       <c r="R63">
@@ -4604,7 +4610,7 @@
         <v>4.607218281622</v>
       </c>
       <c r="AK63">
-        <f>AH63/AJ63</f>
+        <f t="shared" si="7"/>
         <v>5740.7742336637157</v>
       </c>
       <c r="AM63">
@@ -4628,7 +4634,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2926.7500000000173</v>
       </c>
       <c r="G64">
@@ -4650,7 +4656,7 @@
         <v>99.999999999999602</v>
       </c>
       <c r="P64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4036.8100000000159</v>
       </c>
       <c r="R64">
@@ -4690,7 +4696,7 @@
         <v>5.1990802181957196</v>
       </c>
       <c r="AK64">
-        <f>AH64/AJ64</f>
+        <f t="shared" si="7"/>
         <v>5681.9665710508807</v>
       </c>
       <c r="AM64">
@@ -4714,7 +4720,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3881.6400000000231</v>
       </c>
       <c r="G65">
@@ -4736,7 +4742,7 @@
         <v>99.999999999999204</v>
       </c>
       <c r="P65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5307.340000000042</v>
       </c>
       <c r="R65">
@@ -4776,7 +4782,7 @@
         <v>5.0146175314406696</v>
       </c>
       <c r="AK65">
-        <f>AH65/AJ65</f>
+        <f t="shared" si="7"/>
         <v>5898.3561187970436</v>
       </c>
       <c r="AM65">
@@ -4800,7 +4806,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3892.1300000000269</v>
       </c>
       <c r="G66">
@@ -4822,7 +4828,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="P66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3386.6700000000237</v>
       </c>
       <c r="R66">
@@ -4862,7 +4868,7 @@
         <v>5.3842574434798403</v>
       </c>
       <c r="AK66">
-        <f>AH66/AJ66</f>
+        <f t="shared" si="7"/>
         <v>5542.6398743505288</v>
       </c>
       <c r="AM66">
@@ -4886,7 +4892,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4348.0500000000256</v>
       </c>
       <c r="G67">
@@ -4908,7 +4914,7 @@
         <v>99.999999999999503</v>
       </c>
       <c r="P67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3585.660000000018</v>
       </c>
       <c r="R67">
@@ -4948,7 +4954,7 @@
         <v>4.6555144312847903</v>
       </c>
       <c r="AK67">
-        <f>AH67/AJ67</f>
+        <f t="shared" si="7"/>
         <v>6407.240368443674</v>
       </c>
       <c r="AM67">
@@ -4972,7 +4978,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4258.5600000000259</v>
       </c>
       <c r="G68">
@@ -4994,7 +5000,7 @@
         <v>99.999999999999901</v>
       </c>
       <c r="P68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3273.2000000000035</v>
       </c>
       <c r="R68">
@@ -5034,7 +5040,7 @@
         <v>4.7922887865122901</v>
       </c>
       <c r="AK68">
-        <f>AH68/AJ68</f>
+        <f t="shared" si="7"/>
         <v>4752.4264531176314</v>
       </c>
       <c r="AM68">
@@ -5058,7 +5064,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4977.00000000001</v>
       </c>
       <c r="G69">
@@ -5080,7 +5086,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5971.4000000000115</v>
       </c>
       <c r="R69">
@@ -5116,7 +5122,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4523.2000000000089</v>
       </c>
       <c r="G70">
@@ -5138,7 +5144,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6184.800000000012</v>
       </c>
       <c r="R70">
@@ -5174,7 +5180,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6565.2000000000126</v>
       </c>
       <c r="G71">
@@ -5196,7 +5202,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6775.0000000000136</v>
       </c>
       <c r="R71">
@@ -5232,7 +5238,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6330.4000000000124</v>
       </c>
       <c r="G72">
@@ -5254,7 +5260,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5937.0000000000118</v>
       </c>
       <c r="R72">
@@ -5290,7 +5296,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6354.4000000000124</v>
       </c>
       <c r="G73">
@@ -5312,7 +5318,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5909.8000000000111</v>
       </c>
       <c r="R73">
@@ -5348,7 +5354,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4178.0000000000082</v>
       </c>
       <c r="G74">
@@ -5370,7 +5376,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5842.0000000000118</v>
       </c>
       <c r="R74">
@@ -5406,7 +5412,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5805.8000000000111</v>
       </c>
       <c r="G75">
@@ -5428,7 +5434,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5931.6000000000113</v>
       </c>
       <c r="R75">
@@ -5464,7 +5470,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6480.6000000000131</v>
       </c>
       <c r="G76">
@@ -5486,7 +5492,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4496.2000000000089</v>
       </c>
       <c r="R76">
@@ -5522,7 +5528,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6663.0000000000127</v>
       </c>
       <c r="G77">
@@ -5544,7 +5550,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6066.2000000000116</v>
       </c>
       <c r="R77">
@@ -5580,7 +5586,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5440.0000000000109</v>
       </c>
       <c r="G78">
@@ -5602,7 +5608,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6273.4000000000124</v>
       </c>
       <c r="R78">
@@ -5638,7 +5644,7 @@
         <v>100</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3923.3620000000001</v>
       </c>
       <c r="G79" s="1"/>
@@ -5655,12 +5661,12 @@
         <v>99.999999999999503</v>
       </c>
       <c r="P79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3909.0970000000198</v>
       </c>
       <c r="U79" s="6"/>
       <c r="V79" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W79" s="16">
         <v>28007.200000000001</v>
@@ -5679,7 +5685,7 @@
       <c r="AE79" s="6"/>
       <c r="AF79" s="6"/>
       <c r="AG79" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH79">
         <v>28007.200000000001</v>
@@ -5711,7 +5717,7 @@
         <v>5</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5731.76</v>
       </c>
       <c r="G80" s="1"/>
@@ -5728,7 +5734,7 @@
         <v>5</v>
       </c>
       <c r="P80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5938.74</v>
       </c>
       <c r="U80" s="6"/>
@@ -5749,7 +5755,7 @@
         <v>16</v>
       </c>
       <c r="AK80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL80" s="6"/>
       <c r="AM80" s="6"/>
@@ -5789,7 +5795,7 @@
         <v>99.999999999999503</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6135.2400000000307</v>
       </c>
       <c r="G83">
@@ -5822,7 +5828,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6605.1800000000458</v>
       </c>
       <c r="G84">
@@ -5844,7 +5850,7 @@
         <v>99.999999999998806</v>
       </c>
       <c r="P84">
-        <f t="shared" ref="P84:P93" si="4">M84/O84</f>
+        <f t="shared" ref="P84:P93" si="9">M84/O84</f>
         <v>6196.9600000000737</v>
       </c>
       <c r="R84">
@@ -5884,7 +5890,7 @@
         <v>4.9888096255649899</v>
       </c>
       <c r="AK84">
-        <f>AH84/AJ84</f>
+        <f t="shared" ref="AK84:AK93" si="10">AH84/AJ84</f>
         <v>6121.9012735009283</v>
       </c>
       <c r="AM84">
@@ -5908,7 +5914,7 @@
         <v>99.999999999999005</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6969.4800000000696</v>
       </c>
       <c r="G85">
@@ -5930,7 +5936,7 @@
         <v>99.999999999999105</v>
       </c>
       <c r="P85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6180.480000000055</v>
       </c>
       <c r="R85">
@@ -5970,7 +5976,7 @@
         <v>4.9965269632680496</v>
       </c>
       <c r="AK85">
-        <f>AH85/AJ85</f>
+        <f t="shared" si="10"/>
         <v>6154.2748044909031</v>
       </c>
       <c r="AM85">
@@ -5994,7 +6000,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6208.1000000000431</v>
       </c>
       <c r="G86">
@@ -6016,7 +6022,7 @@
         <v>99.999999999999105</v>
       </c>
       <c r="P86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6698.0300000000598</v>
       </c>
       <c r="R86">
@@ -6056,7 +6062,7 @@
         <v>5.3740807561846902</v>
       </c>
       <c r="AK86">
-        <f>AH86/AJ86</f>
+        <f t="shared" si="10"/>
         <v>6610.2467773893559</v>
       </c>
       <c r="AM86">
@@ -6080,7 +6086,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6402.5900000000447</v>
       </c>
       <c r="G87">
@@ -6102,7 +6108,7 @@
         <v>99.999999999999204</v>
       </c>
       <c r="P87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6975.7400000000553</v>
       </c>
       <c r="R87">
@@ -6142,7 +6148,7 @@
         <v>4.6186754317296304</v>
       </c>
       <c r="AK87">
-        <f>AH87/AJ87</f>
+        <f t="shared" si="10"/>
         <v>6251.7924081941192</v>
       </c>
       <c r="AM87">
@@ -6166,7 +6172,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5756.9800000000341</v>
       </c>
       <c r="G88">
@@ -6188,7 +6194,7 @@
         <v>99.999999999999204</v>
       </c>
       <c r="P88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6292.4500000000498</v>
       </c>
       <c r="R88">
@@ -6228,7 +6234,7 @@
         <v>5.2558460343515696</v>
       </c>
       <c r="AK88">
-        <f>AH88/AJ88</f>
+        <f t="shared" si="10"/>
         <v>5630.6824451434113</v>
       </c>
       <c r="AM88">
@@ -6252,7 +6258,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6204.820000000037</v>
       </c>
       <c r="G89">
@@ -6274,7 +6280,7 @@
         <v>99.999999999999204</v>
       </c>
       <c r="P89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6207.9500000000498</v>
       </c>
       <c r="R89">
@@ -6314,7 +6320,7 @@
         <v>4.5918534248545404</v>
       </c>
       <c r="AK89">
-        <f>AH89/AJ89</f>
+        <f t="shared" si="10"/>
         <v>6433.567726725908</v>
       </c>
       <c r="AM89">
@@ -6338,7 +6344,7 @@
         <v>99.999999999999304</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6431.7800000000452</v>
       </c>
       <c r="G90">
@@ -6360,7 +6366,7 @@
         <v>99.999999999999005</v>
       </c>
       <c r="P90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7119.4100000000708</v>
       </c>
       <c r="R90">
@@ -6400,7 +6406,7 @@
         <v>5.3241186434945398</v>
       </c>
       <c r="AK90">
-        <f>AH90/AJ90</f>
+        <f t="shared" si="10"/>
         <v>6544.745211975428</v>
       </c>
       <c r="AM90">
@@ -6424,7 +6430,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6548.8000000000393</v>
       </c>
       <c r="G91">
@@ -6446,7 +6452,7 @@
         <v>99.999999999999204</v>
       </c>
       <c r="P91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6536.9600000000519</v>
       </c>
       <c r="R91">
@@ -6486,7 +6492,7 @@
         <v>5.0575267064970797</v>
       </c>
       <c r="AK91">
-        <f>AH91/AJ91</f>
+        <f t="shared" si="10"/>
         <v>5939.0689843344562</v>
       </c>
       <c r="AM91">
@@ -6510,7 +6516,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6021.6200000000363</v>
       </c>
       <c r="G92">
@@ -6532,7 +6538,7 @@
         <v>99.999999999999204</v>
       </c>
       <c r="P92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6565.380000000052</v>
       </c>
       <c r="R92">
@@ -6572,7 +6578,7 @@
         <v>5.1277358395789703</v>
       </c>
       <c r="AK92">
-        <f>AH92/AJ92</f>
+        <f t="shared" si="10"/>
         <v>6938.7349725334943</v>
       </c>
       <c r="AM92">
@@ -6596,7 +6602,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6332.2000000000126</v>
       </c>
       <c r="G93">
@@ -6618,7 +6624,7 @@
         <v>99.999999999999403</v>
       </c>
       <c r="P93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6189.1000000000367</v>
       </c>
       <c r="R93">
@@ -6658,7 +6664,7 @@
         <v>5.1386003785668404</v>
       </c>
       <c r="AK93">
-        <f>AH93/AJ93</f>
+        <f t="shared" si="10"/>
         <v>6562.6819592079992</v>
       </c>
       <c r="AM93">
@@ -6682,7 +6688,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6237.800000000012</v>
       </c>
       <c r="G94">
@@ -6704,7 +6710,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P94">
-        <f t="shared" ref="P94:P105" si="5">M94/O94</f>
+        <f t="shared" ref="P94:P105" si="11">M94/O94</f>
         <v>6273.0000000000118</v>
       </c>
       <c r="R94">
@@ -6740,7 +6746,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6463.8000000000129</v>
       </c>
       <c r="G95">
@@ -6762,7 +6768,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6316.6000000000122</v>
       </c>
       <c r="R95">
@@ -6798,7 +6804,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6502.2000000000126</v>
       </c>
       <c r="G96">
@@ -6820,7 +6826,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6898.2000000000135</v>
       </c>
       <c r="R96">
@@ -6856,7 +6862,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6552.2000000000126</v>
       </c>
       <c r="G97">
@@ -6878,7 +6884,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6129.0000000000118</v>
       </c>
       <c r="R97">
@@ -6914,7 +6920,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6292.6000000000122</v>
       </c>
       <c r="G98">
@@ -6937,7 +6943,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6287.6000000000122</v>
       </c>
       <c r="R98">
@@ -6973,7 +6979,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6847.4000000000133</v>
       </c>
       <c r="G99">
@@ -6995,7 +7001,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6442.2000000000126</v>
       </c>
       <c r="R99">
@@ -7031,7 +7037,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6937.4000000000133</v>
       </c>
       <c r="G100">
@@ -7053,7 +7059,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6643.4000000000133</v>
       </c>
       <c r="R100">
@@ -7089,7 +7095,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6882.6000000000131</v>
       </c>
       <c r="G101">
@@ -7111,7 +7117,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6205.4000000000124</v>
       </c>
       <c r="R101">
@@ -7147,7 +7153,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6609.6000000000131</v>
       </c>
       <c r="G102">
@@ -7169,7 +7175,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6311.6000000000122</v>
       </c>
       <c r="R102">
@@ -7205,7 +7211,7 @@
         <v>100</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6328.4589999999998</v>
       </c>
       <c r="L103" s="1">
@@ -7221,7 +7227,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6623.8000000000129</v>
       </c>
       <c r="R103">
@@ -7258,7 +7264,7 @@
         <v>5</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6565.7800000000007</v>
       </c>
       <c r="L104" s="6" t="s">
@@ -7274,12 +7280,12 @@
         <v>99.999999999999204</v>
       </c>
       <c r="P104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6496.246000000051</v>
       </c>
       <c r="U104" s="6"/>
       <c r="V104" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W104" s="16">
         <v>31901.1</v>
@@ -7298,7 +7304,7 @@
       <c r="AE104" s="6"/>
       <c r="AF104" s="6"/>
       <c r="AG104" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH104">
         <v>31901.1</v>
@@ -7328,12 +7334,12 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="P105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6413.0800000000127</v>
       </c>
       <c r="U105" s="6"/>
       <c r="V105" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W105" s="6"/>
       <c r="X105" s="6"/>
@@ -7352,20 +7358,35 @@
     </row>
     <row r="106" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="L107" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V107" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG107" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="108" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>20</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="V108" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG108" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.25">
@@ -7376,7 +7397,22 @@
         <v>12</v>
       </c>
       <c r="L109" s="10" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="M109" t="s">
+        <v>12</v>
+      </c>
+      <c r="V109" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="W109" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG109" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH109" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
@@ -7398,14 +7434,62 @@
       <c r="H110" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L110" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M110" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L110" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M110" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N110" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O110" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R110" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S110" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V110" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W110" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X110" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y110" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB110" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC110" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG110" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH110" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI110" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ110" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM110" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN110" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>6</v>
       </c>
@@ -7415,23 +7499,32 @@
       <c r="H111" t="s">
         <v>8</v>
       </c>
-      <c r="L111" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M111" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N111" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O111" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="R111" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S111" s="13" t="s">
-        <v>3</v>
+      <c r="L111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
+      <c r="S111" t="s">
+        <v>8</v>
+      </c>
+      <c r="V111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB111">
+        <v>1</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM111">
+        <v>1</v>
+      </c>
+      <c r="AN111" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.25">
@@ -7444,17 +7537,35 @@
       <c r="H112" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L112" s="6" t="s">
-        <v>6</v>
+      <c r="L112" s="1">
+        <v>1</v>
       </c>
       <c r="R112">
         <v>1</v>
       </c>
-      <c r="S112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V112" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB112">
+        <v>1</v>
+      </c>
+      <c r="AC112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG112" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM112">
+        <v>1</v>
+      </c>
+      <c r="AN112" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -7465,7 +7576,7 @@
         <v>8</v>
       </c>
       <c r="L113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R113">
         <v>1</v>
@@ -7473,8 +7584,26 @@
       <c r="S113" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V113" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB113">
+        <v>1</v>
+      </c>
+      <c r="AC113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG113" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM113">
+        <v>1</v>
+      </c>
+      <c r="AN113" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>3</v>
       </c>
@@ -7485,7 +7614,7 @@
         <v>8</v>
       </c>
       <c r="L114" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R114">
         <v>1</v>
@@ -7493,8 +7622,26 @@
       <c r="S114" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V114" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB114">
+        <v>1</v>
+      </c>
+      <c r="AC114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG114" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM114">
+        <v>1</v>
+      </c>
+      <c r="AN114" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>4</v>
       </c>
@@ -7505,7 +7652,7 @@
         <v>8</v>
       </c>
       <c r="L115" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R115">
         <v>1</v>
@@ -7513,8 +7660,26 @@
       <c r="S115" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V115" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB115">
+        <v>1</v>
+      </c>
+      <c r="AC115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG115" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM115">
+        <v>1</v>
+      </c>
+      <c r="AN115" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>5</v>
       </c>
@@ -7525,7 +7690,7 @@
         <v>8</v>
       </c>
       <c r="L116" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R116">
         <v>1</v>
@@ -7533,8 +7698,26 @@
       <c r="S116" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V116" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB116">
+        <v>1</v>
+      </c>
+      <c r="AC116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG116" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM116">
+        <v>1</v>
+      </c>
+      <c r="AN116" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>6</v>
       </c>
@@ -7545,7 +7728,7 @@
         <v>8</v>
       </c>
       <c r="L117" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R117">
         <v>1</v>
@@ -7553,8 +7736,26 @@
       <c r="S117" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V117" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB117">
+        <v>1</v>
+      </c>
+      <c r="AC117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG117" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM117">
+        <v>1</v>
+      </c>
+      <c r="AN117" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>7</v>
       </c>
@@ -7565,7 +7766,7 @@
         <v>8</v>
       </c>
       <c r="L118" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R118">
         <v>1</v>
@@ -7573,8 +7774,26 @@
       <c r="S118" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V118" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB118">
+        <v>1</v>
+      </c>
+      <c r="AC118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG118" s="1">
+        <v>7</v>
+      </c>
+      <c r="AM118">
+        <v>1</v>
+      </c>
+      <c r="AN118" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>8</v>
       </c>
@@ -7585,7 +7804,7 @@
         <v>8</v>
       </c>
       <c r="L119" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R119">
         <v>1</v>
@@ -7593,22 +7812,37 @@
       <c r="S119" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V119" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB119">
+        <v>1</v>
+      </c>
+      <c r="AC119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG119" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM119">
+        <v>1</v>
+      </c>
+      <c r="AN119" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>9</v>
       </c>
-      <c r="B120" s="4"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
       <c r="G120">
         <v>1</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L120" s="1">
-        <v>8</v>
+      <c r="L120" s="4">
+        <v>9</v>
       </c>
       <c r="R120">
         <v>1</v>
@@ -7616,8 +7850,26 @@
       <c r="S120" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V120" s="4">
+        <v>9</v>
+      </c>
+      <c r="AB120">
+        <v>1</v>
+      </c>
+      <c r="AC120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG120" s="4">
+        <v>9</v>
+      </c>
+      <c r="AM120">
+        <v>1</v>
+      </c>
+      <c r="AN120" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>10</v>
       </c>
@@ -7627,23 +7879,51 @@
       <c r="H121" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L121" s="4">
-        <v>9</v>
-      </c>
-      <c r="M121" s="4"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
+      <c r="L121" s="1">
+        <v>10</v>
+      </c>
       <c r="R121">
         <v>1</v>
       </c>
       <c r="S121" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V121" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB121">
+        <v>1</v>
+      </c>
+      <c r="AC121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG121" s="1">
+        <v>10</v>
+      </c>
+      <c r="AM121">
+        <v>1</v>
+      </c>
+      <c r="AN121" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>11</v>
       </c>
+      <c r="B122">
+        <v>14820</v>
+      </c>
+      <c r="C122">
+        <v>76</v>
+      </c>
+      <c r="D122">
+        <v>2.6316465999999901</v>
+      </c>
+      <c r="E122">
+        <f>B122/D122</f>
+        <v>5631.4552265490574</v>
+      </c>
       <c r="G122">
         <v>0.05</v>
       </c>
@@ -7651,19 +7931,89 @@
         <v>8</v>
       </c>
       <c r="L122" s="1">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="M122">
+        <v>30825</v>
+      </c>
+      <c r="N122">
+        <v>253</v>
+      </c>
+      <c r="O122">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P122">
+        <f>M122/O122</f>
+        <v>6165.0000000000118</v>
       </c>
       <c r="R122">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="S122" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V122" s="1">
+        <v>11</v>
+      </c>
+      <c r="W122">
+        <v>13652</v>
+      </c>
+      <c r="X122">
+        <v>71</v>
+      </c>
+      <c r="Y122">
+        <v>2.5118605999999901</v>
+      </c>
+      <c r="Z122">
+        <f>W122/Y122</f>
+        <v>5435.0149845099104</v>
+      </c>
+      <c r="AB122">
+        <v>0.05</v>
+      </c>
+      <c r="AC122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG122" s="1">
+        <v>11</v>
+      </c>
+      <c r="AH122" s="16">
+        <v>30030</v>
+      </c>
+      <c r="AI122" s="16">
+        <v>416</v>
+      </c>
+      <c r="AJ122" s="16">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK122">
+        <f>AH122/AJ122</f>
+        <v>6006.0000000000118</v>
+      </c>
+      <c r="AM122">
+        <v>0.05</v>
+      </c>
+      <c r="AN122" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>12</v>
       </c>
+      <c r="B123">
+        <v>13487</v>
+      </c>
+      <c r="C123">
+        <v>71</v>
+      </c>
+      <c r="D123">
+        <v>2.51870549999999</v>
+      </c>
+      <c r="E123">
+        <f t="shared" ref="E123:E133" si="12">B123/D123</f>
+        <v>5354.7348032551063</v>
+      </c>
       <c r="G123">
         <v>0.05</v>
       </c>
@@ -7671,7 +8021,20 @@
         <v>8</v>
       </c>
       <c r="L123" s="1">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="M123">
+        <v>33465</v>
+      </c>
+      <c r="N123">
+        <v>408</v>
+      </c>
+      <c r="O123">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P123">
+        <f t="shared" ref="P123:P133" si="13">M123/O123</f>
+        <v>6693.0000000000127</v>
       </c>
       <c r="R123">
         <v>0.05</v>
@@ -7679,11 +8042,68 @@
       <c r="S123" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V123" s="1">
+        <v>12</v>
+      </c>
+      <c r="W123">
+        <v>11002</v>
+      </c>
+      <c r="X123">
+        <v>58</v>
+      </c>
+      <c r="Y123">
+        <v>2.2352497999999899</v>
+      </c>
+      <c r="Z123">
+        <f t="shared" ref="Z123:Z159" si="14">W123/Y123</f>
+        <v>4922.044954438672</v>
+      </c>
+      <c r="AB123">
+        <v>0.05</v>
+      </c>
+      <c r="AC123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG123" s="1">
+        <v>12</v>
+      </c>
+      <c r="AH123">
+        <v>29238</v>
+      </c>
+      <c r="AI123">
+        <v>228</v>
+      </c>
+      <c r="AJ123">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK123">
+        <f t="shared" ref="AK123:AK158" si="15">AH123/AJ123</f>
+        <v>5847.6000000000113</v>
+      </c>
+      <c r="AM123">
+        <v>0.05</v>
+      </c>
+      <c r="AN123" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>13</v>
       </c>
+      <c r="B124">
+        <v>13922</v>
+      </c>
+      <c r="C124">
+        <v>72</v>
+      </c>
+      <c r="D124">
+        <v>2.4247627999999901</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="12"/>
+        <v>5741.5925384536813</v>
+      </c>
       <c r="G124">
         <v>0.05</v>
       </c>
@@ -7691,7 +8111,20 @@
         <v>8</v>
       </c>
       <c r="L124" s="1">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="M124">
+        <v>32191</v>
+      </c>
+      <c r="N124">
+        <v>368</v>
+      </c>
+      <c r="O124">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="13"/>
+        <v>6438.2000000000126</v>
       </c>
       <c r="R124">
         <v>0.05</v>
@@ -7699,11 +8132,68 @@
       <c r="S124" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V124" s="1">
+        <v>13</v>
+      </c>
+      <c r="W124">
+        <v>14033</v>
+      </c>
+      <c r="X124">
+        <v>73</v>
+      </c>
+      <c r="Y124">
+        <v>2.4887638999999901</v>
+      </c>
+      <c r="Z124">
+        <f t="shared" si="14"/>
+        <v>5638.542089106988</v>
+      </c>
+      <c r="AB124">
+        <v>0.05</v>
+      </c>
+      <c r="AC124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG124" s="1">
+        <v>13</v>
+      </c>
+      <c r="AH124">
+        <v>23644</v>
+      </c>
+      <c r="AI124">
+        <v>282</v>
+      </c>
+      <c r="AJ124">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK124">
+        <f t="shared" si="15"/>
+        <v>4728.8000000000093</v>
+      </c>
+      <c r="AM124">
+        <v>0.05</v>
+      </c>
+      <c r="AN124" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>14</v>
       </c>
+      <c r="B125">
+        <v>10086</v>
+      </c>
+      <c r="C125">
+        <v>53</v>
+      </c>
+      <c r="D125">
+        <v>1.9051395999999901</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="12"/>
+        <v>5294.1002328648528</v>
+      </c>
       <c r="G125">
         <v>0.05</v>
       </c>
@@ -7711,7 +8201,20 @@
         <v>8</v>
       </c>
       <c r="L125" s="1">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="M125">
+        <v>24653</v>
+      </c>
+      <c r="N125">
+        <v>288</v>
+      </c>
+      <c r="O125">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="13"/>
+        <v>4930.6000000000095</v>
       </c>
       <c r="R125">
         <v>0.05</v>
@@ -7719,11 +8222,68 @@
       <c r="S125" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V125" s="1">
+        <v>14</v>
+      </c>
+      <c r="W125">
+        <v>13615</v>
+      </c>
+      <c r="X125">
+        <v>71</v>
+      </c>
+      <c r="Y125">
+        <v>2.5935568999999901</v>
+      </c>
+      <c r="Z125">
+        <f t="shared" si="14"/>
+        <v>5249.5474458262524</v>
+      </c>
+      <c r="AB125">
+        <v>0.05</v>
+      </c>
+      <c r="AC125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG125" s="1">
+        <v>14</v>
+      </c>
+      <c r="AH125">
+        <v>27114</v>
+      </c>
+      <c r="AI125">
+        <v>242</v>
+      </c>
+      <c r="AJ125">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK125">
+        <f t="shared" si="15"/>
+        <v>5422.8000000000102</v>
+      </c>
+      <c r="AM125">
+        <v>0.05</v>
+      </c>
+      <c r="AN125" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>15</v>
       </c>
+      <c r="B126">
+        <v>11347</v>
+      </c>
+      <c r="C126">
+        <v>59</v>
+      </c>
+      <c r="D126">
+        <v>1.95607909999999</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="12"/>
+        <v>5800.8901582763492</v>
+      </c>
       <c r="G126">
         <v>0.05</v>
       </c>
@@ -7731,7 +8291,20 @@
         <v>8</v>
       </c>
       <c r="L126" s="1">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="M126">
+        <v>14885</v>
+      </c>
+      <c r="N126">
+        <v>318</v>
+      </c>
+      <c r="O126">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="13"/>
+        <v>2977.0000000000059</v>
       </c>
       <c r="R126">
         <v>0.05</v>
@@ -7739,11 +8312,68 @@
       <c r="S126" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V126" s="1">
+        <v>15</v>
+      </c>
+      <c r="W126">
+        <v>12899</v>
+      </c>
+      <c r="X126">
+        <v>68</v>
+      </c>
+      <c r="Y126">
+        <v>2.4435127999999899</v>
+      </c>
+      <c r="Z126">
+        <f t="shared" si="14"/>
+        <v>5278.8755598088346</v>
+      </c>
+      <c r="AB126">
+        <v>0.05</v>
+      </c>
+      <c r="AC126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG126" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH126">
+        <v>25551</v>
+      </c>
+      <c r="AI126">
+        <v>383</v>
+      </c>
+      <c r="AJ126">
+        <v>5</v>
+      </c>
+      <c r="AK126">
+        <f t="shared" si="15"/>
+        <v>5110.2</v>
+      </c>
+      <c r="AM126">
+        <v>0.05</v>
+      </c>
+      <c r="AN126" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>16</v>
       </c>
+      <c r="B127">
+        <v>12229</v>
+      </c>
+      <c r="C127">
+        <v>64</v>
+      </c>
+      <c r="D127">
+        <v>2.2009265999999998</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="12"/>
+        <v>5556.2961527204043</v>
+      </c>
       <c r="G127">
         <v>0.05</v>
       </c>
@@ -7751,7 +8381,20 @@
         <v>8</v>
       </c>
       <c r="L127" s="1">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="M127">
+        <v>22203</v>
+      </c>
+      <c r="N127">
+        <v>164</v>
+      </c>
+      <c r="O127">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="13"/>
+        <v>4440.6000000000085</v>
       </c>
       <c r="R127">
         <v>0.05</v>
@@ -7759,11 +8402,68 @@
       <c r="S127" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V127" s="1">
+        <v>16</v>
+      </c>
+      <c r="W127">
+        <v>14455</v>
+      </c>
+      <c r="X127">
+        <v>76</v>
+      </c>
+      <c r="Y127">
+        <v>2.7151884999999898</v>
+      </c>
+      <c r="Z127">
+        <f t="shared" si="14"/>
+        <v>5323.7556066549541</v>
+      </c>
+      <c r="AB127">
+        <v>0.05</v>
+      </c>
+      <c r="AC127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG127" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH127">
+        <v>31158</v>
+      </c>
+      <c r="AI127">
+        <v>347</v>
+      </c>
+      <c r="AJ127">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK127">
+        <f t="shared" si="15"/>
+        <v>6231.6000000000122</v>
+      </c>
+      <c r="AM127">
+        <v>0.05</v>
+      </c>
+      <c r="AN127" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>17</v>
       </c>
+      <c r="B128">
+        <v>9794</v>
+      </c>
+      <c r="C128">
+        <v>51</v>
+      </c>
+      <c r="D128">
+        <v>1.8805353999999901</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="12"/>
+        <v>5208.0912701776588</v>
+      </c>
       <c r="G128">
         <v>0.05</v>
       </c>
@@ -7771,7 +8471,20 @@
         <v>8</v>
       </c>
       <c r="L128" s="1">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="M128">
+        <v>27610</v>
+      </c>
+      <c r="N128">
+        <v>220</v>
+      </c>
+      <c r="O128">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="13"/>
+        <v>5522.0000000000109</v>
       </c>
       <c r="R128">
         <v>0.05</v>
@@ -7779,11 +8492,68 @@
       <c r="S128" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V128" s="1">
+        <v>17</v>
+      </c>
+      <c r="W128">
+        <v>12512</v>
+      </c>
+      <c r="X128">
+        <v>66</v>
+      </c>
+      <c r="Y128">
+        <v>2.3765959999999899</v>
+      </c>
+      <c r="Z128">
+        <f t="shared" si="14"/>
+        <v>5264.6726662840692</v>
+      </c>
+      <c r="AB128">
+        <v>0.05</v>
+      </c>
+      <c r="AC128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG128" s="1">
+        <v>17</v>
+      </c>
+      <c r="AH128">
+        <v>28512</v>
+      </c>
+      <c r="AI128">
+        <v>305</v>
+      </c>
+      <c r="AJ128">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK128">
+        <f t="shared" si="15"/>
+        <v>5702.4000000000115</v>
+      </c>
+      <c r="AM128">
+        <v>0.05</v>
+      </c>
+      <c r="AN128" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>18</v>
       </c>
+      <c r="B129">
+        <v>7933</v>
+      </c>
+      <c r="C129">
+        <v>42</v>
+      </c>
+      <c r="D129">
+        <v>1.9638447000000001</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="12"/>
+        <v>4039.5251213092356</v>
+      </c>
       <c r="G129">
         <v>0.05</v>
       </c>
@@ -7791,7 +8561,20 @@
         <v>8</v>
       </c>
       <c r="L129" s="1">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="M129">
+        <v>31934</v>
+      </c>
+      <c r="N129">
+        <v>331</v>
+      </c>
+      <c r="O129">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="13"/>
+        <v>6386.8000000000129</v>
       </c>
       <c r="R129">
         <v>0.05</v>
@@ -7799,11 +8582,68 @@
       <c r="S129" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V129" s="1">
+        <v>18</v>
+      </c>
+      <c r="W129">
+        <v>11645</v>
+      </c>
+      <c r="X129">
+        <v>61</v>
+      </c>
+      <c r="Y129">
+        <v>2.5828834000000001</v>
+      </c>
+      <c r="Z129">
+        <f t="shared" si="14"/>
+        <v>4508.5271754814794</v>
+      </c>
+      <c r="AB129">
+        <v>0.05</v>
+      </c>
+      <c r="AC129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG129" s="1">
+        <v>18</v>
+      </c>
+      <c r="AH129">
+        <v>31415</v>
+      </c>
+      <c r="AI129">
+        <v>290</v>
+      </c>
+      <c r="AJ129">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK129">
+        <f t="shared" si="15"/>
+        <v>6283.0000000000118</v>
+      </c>
+      <c r="AM129">
+        <v>0.05</v>
+      </c>
+      <c r="AN129" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>19</v>
       </c>
+      <c r="B130">
+        <v>9461</v>
+      </c>
+      <c r="C130">
+        <v>49</v>
+      </c>
+      <c r="D130">
+        <v>1.8998845</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="12"/>
+        <v>4979.7764021970806</v>
+      </c>
       <c r="G130">
         <v>0.05</v>
       </c>
@@ -7811,7 +8651,20 @@
         <v>8</v>
       </c>
       <c r="L130" s="1">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="M130">
+        <v>32386</v>
+      </c>
+      <c r="N130">
+        <v>307</v>
+      </c>
+      <c r="O130">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="13"/>
+        <v>6477.2000000000126</v>
       </c>
       <c r="R130">
         <v>0.05</v>
@@ -7819,11 +8672,68 @@
       <c r="S130" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V130" s="1">
+        <v>19</v>
+      </c>
+      <c r="W130">
+        <v>6315</v>
+      </c>
+      <c r="X130">
+        <v>33</v>
+      </c>
+      <c r="Y130">
+        <v>1.5445770999999999</v>
+      </c>
+      <c r="Z130">
+        <f t="shared" si="14"/>
+        <v>4088.4977512614942</v>
+      </c>
+      <c r="AB130">
+        <v>0.05</v>
+      </c>
+      <c r="AC130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG130" s="1">
+        <v>19</v>
+      </c>
+      <c r="AH130">
+        <v>28260</v>
+      </c>
+      <c r="AI130">
+        <v>257</v>
+      </c>
+      <c r="AJ130">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK130">
+        <f t="shared" si="15"/>
+        <v>5652.0000000000109</v>
+      </c>
+      <c r="AM130">
+        <v>0.05</v>
+      </c>
+      <c r="AN130" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>20</v>
       </c>
+      <c r="B131">
+        <v>3937</v>
+      </c>
+      <c r="C131">
+        <v>21</v>
+      </c>
+      <c r="D131">
+        <v>0.79820519999999995</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="12"/>
+        <v>4932.3156501611365</v>
+      </c>
       <c r="G131">
         <v>0.05</v>
       </c>
@@ -7831,7 +8741,20 @@
         <v>8</v>
       </c>
       <c r="L131" s="1">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M131">
+        <v>28851</v>
+      </c>
+      <c r="N131">
+        <v>284</v>
+      </c>
+      <c r="O131">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P131">
+        <f t="shared" si="13"/>
+        <v>5770.2000000000116</v>
       </c>
       <c r="R131">
         <v>0.05</v>
@@ -7839,42 +8762,149 @@
       <c r="S131" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V131" s="1">
+        <v>20</v>
+      </c>
+      <c r="W131">
+        <v>7834</v>
+      </c>
+      <c r="X131">
+        <v>42</v>
+      </c>
+      <c r="Y131">
+        <v>1.6736416999999999</v>
+      </c>
+      <c r="Z131">
+        <f t="shared" si="14"/>
+        <v>4680.8107135475893</v>
+      </c>
+      <c r="AB131">
+        <v>0.05</v>
+      </c>
+      <c r="AC131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG131" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH131">
+        <v>31301</v>
+      </c>
+      <c r="AI131">
+        <v>317</v>
+      </c>
+      <c r="AJ131">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK131">
+        <f t="shared" si="15"/>
+        <v>6260.2000000000126</v>
+      </c>
+      <c r="AM131">
+        <v>0.05</v>
+      </c>
+      <c r="AN131" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B132" s="7"/>
-      <c r="L132" s="1">
-        <v>20</v>
-      </c>
-      <c r="R132">
-        <v>0.05</v>
-      </c>
-      <c r="S132" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L132" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V132" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG132" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="B133">
+        <v>10701.6</v>
+      </c>
+      <c r="C133">
+        <v>55.8</v>
+      </c>
+      <c r="D133">
+        <v>2.0179729999999898</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="12"/>
+        <v>5303.1433027102221</v>
+      </c>
       <c r="L133" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M133" s="7"/>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L134" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M133">
+        <v>27900.3</v>
+      </c>
+      <c r="N133">
+        <v>294.10000000000002</v>
+      </c>
+      <c r="O133">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="13"/>
+        <v>5580.0600000000104</v>
+      </c>
+      <c r="V133" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W133">
+        <v>11796.2</v>
+      </c>
+      <c r="X133">
+        <v>61.9</v>
+      </c>
+      <c r="Y133">
+        <v>2.3165830699999899</v>
+      </c>
+      <c r="Z133">
+        <f t="shared" si="14"/>
+        <v>5092.0686388336817</v>
+      </c>
+      <c r="AG133" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH133">
+        <v>28622.3</v>
+      </c>
+      <c r="AI133">
+        <v>306.7</v>
+      </c>
+      <c r="AJ133">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK133">
+        <f>AH133/AJ133</f>
+        <v>5724.460000000011</v>
+      </c>
+    </row>
+    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B134" s="6"/>
+    </row>
+    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L136" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V136" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG136" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1</v>
       </c>
@@ -7884,11 +8914,35 @@
       <c r="H137" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L137" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L137" s="1">
+        <v>1</v>
+      </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
+      <c r="S137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V137" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB137">
+        <v>1</v>
+      </c>
+      <c r="AC137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG137" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM137">
+        <v>1</v>
+      </c>
+      <c r="AN137" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2</v>
       </c>
@@ -7899,7 +8953,7 @@
         <v>8</v>
       </c>
       <c r="L138" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R138">
         <v>1</v>
@@ -7907,8 +8961,26 @@
       <c r="S138" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V138" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB138">
+        <v>1</v>
+      </c>
+      <c r="AC138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG138" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM138">
+        <v>1</v>
+      </c>
+      <c r="AN138" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>3</v>
       </c>
@@ -7919,7 +8991,7 @@
         <v>8</v>
       </c>
       <c r="L139" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R139">
         <v>1</v>
@@ -7927,8 +8999,26 @@
       <c r="S139" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V139" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB139">
+        <v>1</v>
+      </c>
+      <c r="AC139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG139" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM139">
+        <v>1</v>
+      </c>
+      <c r="AN139" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>4</v>
       </c>
@@ -7939,7 +9029,7 @@
         <v>8</v>
       </c>
       <c r="L140" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R140">
         <v>1</v>
@@ -7947,8 +9037,26 @@
       <c r="S140" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V140" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB140">
+        <v>1</v>
+      </c>
+      <c r="AC140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG140" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM140">
+        <v>1</v>
+      </c>
+      <c r="AN140" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>5</v>
       </c>
@@ -7959,7 +9067,7 @@
         <v>8</v>
       </c>
       <c r="L141" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R141">
         <v>1</v>
@@ -7967,8 +9075,26 @@
       <c r="S141" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V141" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB141">
+        <v>1</v>
+      </c>
+      <c r="AC141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG141" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM141">
+        <v>1</v>
+      </c>
+      <c r="AN141" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>6</v>
       </c>
@@ -7979,7 +9105,7 @@
         <v>8</v>
       </c>
       <c r="L142" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R142">
         <v>1</v>
@@ -7987,8 +9113,26 @@
       <c r="S142" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V142" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB142">
+        <v>1</v>
+      </c>
+      <c r="AC142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG142" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM142">
+        <v>1</v>
+      </c>
+      <c r="AN142" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>7</v>
       </c>
@@ -7999,7 +9143,7 @@
         <v>8</v>
       </c>
       <c r="L143" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R143">
         <v>1</v>
@@ -8007,8 +9151,26 @@
       <c r="S143" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V143" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB143">
+        <v>1</v>
+      </c>
+      <c r="AC143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG143" s="1">
+        <v>7</v>
+      </c>
+      <c r="AM143">
+        <v>1</v>
+      </c>
+      <c r="AN143" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>8</v>
       </c>
@@ -8019,7 +9181,7 @@
         <v>8</v>
       </c>
       <c r="L144" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R144">
         <v>1</v>
@@ -8027,22 +9189,37 @@
       <c r="S144" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V144" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB144">
+        <v>1</v>
+      </c>
+      <c r="AC144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG144" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM144">
+        <v>1</v>
+      </c>
+      <c r="AN144" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>9</v>
       </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
       <c r="G145">
         <v>1</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L145" s="1">
-        <v>8</v>
+      <c r="L145" s="4">
+        <v>9</v>
       </c>
       <c r="R145">
         <v>1</v>
@@ -8050,8 +9227,26 @@
       <c r="S145" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V145" s="4">
+        <v>9</v>
+      </c>
+      <c r="AB145">
+        <v>1</v>
+      </c>
+      <c r="AC145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG145" s="4">
+        <v>9</v>
+      </c>
+      <c r="AM145">
+        <v>1</v>
+      </c>
+      <c r="AN145" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>10</v>
       </c>
@@ -8061,23 +9256,51 @@
       <c r="H146" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L146" s="4">
-        <v>9</v>
-      </c>
-      <c r="M146" s="4"/>
-      <c r="N146" s="5"/>
-      <c r="O146" s="5"/>
+      <c r="L146" s="1">
+        <v>10</v>
+      </c>
       <c r="R146">
         <v>1</v>
       </c>
       <c r="S146" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V146" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB146">
+        <v>1</v>
+      </c>
+      <c r="AC146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG146" s="1">
+        <v>10</v>
+      </c>
+      <c r="AM146">
+        <v>1</v>
+      </c>
+      <c r="AN146" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>11</v>
       </c>
+      <c r="B147" s="16">
+        <v>14529</v>
+      </c>
+      <c r="C147">
+        <v>77</v>
+      </c>
+      <c r="D147" s="16">
+        <v>2.5075209999999899</v>
+      </c>
+      <c r="E147">
+        <f>B147/D147</f>
+        <v>5794.1688225143707</v>
+      </c>
       <c r="G147">
         <v>0.05</v>
       </c>
@@ -8085,19 +9308,89 @@
         <v>8</v>
       </c>
       <c r="L147" s="1">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="M147">
+        <v>33918</v>
+      </c>
+      <c r="N147">
+        <v>402</v>
+      </c>
+      <c r="O147">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P147">
+        <f>M147/O147</f>
+        <v>6783.6000000000131</v>
       </c>
       <c r="R147">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="S147" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V147" s="1">
+        <v>11</v>
+      </c>
+      <c r="W147">
+        <v>13507</v>
+      </c>
+      <c r="X147">
+        <v>72</v>
+      </c>
+      <c r="Y147">
+        <v>2.4660380999999898</v>
+      </c>
+      <c r="Z147">
+        <f t="shared" si="14"/>
+        <v>5477.2065362656222</v>
+      </c>
+      <c r="AB147">
+        <v>0.05</v>
+      </c>
+      <c r="AC147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG147" s="1">
+        <v>11</v>
+      </c>
+      <c r="AH147" s="16">
+        <v>30293</v>
+      </c>
+      <c r="AI147" s="16">
+        <v>399</v>
+      </c>
+      <c r="AJ147" s="16">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK147">
+        <f t="shared" si="15"/>
+        <v>6058.6000000000122</v>
+      </c>
+      <c r="AM147">
+        <v>0.05</v>
+      </c>
+      <c r="AN147" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>12</v>
       </c>
+      <c r="B148">
+        <v>13374</v>
+      </c>
+      <c r="C148">
+        <v>71</v>
+      </c>
+      <c r="D148">
+        <v>2.3313926999999901</v>
+      </c>
+      <c r="E148">
+        <f t="shared" ref="E148:E158" si="16">B148/D148</f>
+        <v>5736.4853205554164</v>
+      </c>
       <c r="G148">
         <v>0.05</v>
       </c>
@@ -8105,7 +9398,20 @@
         <v>8</v>
       </c>
       <c r="L148" s="1">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="M148">
+        <v>34093</v>
+      </c>
+      <c r="N148">
+        <v>429</v>
+      </c>
+      <c r="O148">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P148">
+        <f t="shared" ref="P148:P159" si="17">M148/O148</f>
+        <v>6818.6000000000131</v>
       </c>
       <c r="R148">
         <v>0.05</v>
@@ -8113,11 +9419,68 @@
       <c r="S148" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V148" s="1">
+        <v>12</v>
+      </c>
+      <c r="W148">
+        <v>10902</v>
+      </c>
+      <c r="X148">
+        <v>58</v>
+      </c>
+      <c r="Y148">
+        <v>1.9788546999999901</v>
+      </c>
+      <c r="Z148">
+        <f t="shared" si="14"/>
+        <v>5509.2473439308378</v>
+      </c>
+      <c r="AB148">
+        <v>0.05</v>
+      </c>
+      <c r="AC148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG148" s="1">
+        <v>12</v>
+      </c>
+      <c r="AH148">
+        <v>33551</v>
+      </c>
+      <c r="AI148">
+        <v>460</v>
+      </c>
+      <c r="AJ148">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK148">
+        <f t="shared" si="15"/>
+        <v>6710.2000000000135</v>
+      </c>
+      <c r="AM148">
+        <v>0.05</v>
+      </c>
+      <c r="AN148" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>13</v>
       </c>
+      <c r="B149">
+        <v>13772</v>
+      </c>
+      <c r="C149">
+        <v>73</v>
+      </c>
+      <c r="D149">
+        <v>2.3839102999999899</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="16"/>
+        <v>5777.0630044259879</v>
+      </c>
       <c r="G149">
         <v>0.05</v>
       </c>
@@ -8125,7 +9488,20 @@
         <v>8</v>
       </c>
       <c r="L149" s="1">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="M149">
+        <v>34109</v>
+      </c>
+      <c r="N149">
+        <v>424</v>
+      </c>
+      <c r="O149">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="17"/>
+        <v>6821.8000000000129</v>
       </c>
       <c r="R149">
         <v>0.05</v>
@@ -8133,11 +9509,68 @@
       <c r="S149" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V149" s="1">
+        <v>13</v>
+      </c>
+      <c r="W149">
+        <v>13918</v>
+      </c>
+      <c r="X149">
+        <v>74</v>
+      </c>
+      <c r="Y149">
+        <v>2.4225132999999901</v>
+      </c>
+      <c r="Z149">
+        <f t="shared" si="14"/>
+        <v>5745.2728948898057</v>
+      </c>
+      <c r="AB149">
+        <v>0.05</v>
+      </c>
+      <c r="AC149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG149" s="1">
+        <v>13</v>
+      </c>
+      <c r="AH149">
+        <v>31455</v>
+      </c>
+      <c r="AI149">
+        <v>418</v>
+      </c>
+      <c r="AJ149">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK149">
+        <f t="shared" si="15"/>
+        <v>6291.0000000000127</v>
+      </c>
+      <c r="AM149">
+        <v>0.05</v>
+      </c>
+      <c r="AN149" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>14</v>
       </c>
+      <c r="B150">
+        <v>10010</v>
+      </c>
+      <c r="C150">
+        <v>53</v>
+      </c>
+      <c r="D150">
+        <v>1.74173979999999</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="16"/>
+        <v>5747.127096711034</v>
+      </c>
       <c r="G150">
         <v>0.05</v>
       </c>
@@ -8145,7 +9578,20 @@
         <v>8</v>
       </c>
       <c r="L150" s="1">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="M150">
+        <v>34114</v>
+      </c>
+      <c r="N150">
+        <v>411</v>
+      </c>
+      <c r="O150">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="17"/>
+        <v>6822.8000000000129</v>
       </c>
       <c r="R150">
         <v>0.05</v>
@@ -8153,11 +9599,68 @@
       <c r="S150" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V150" s="1">
+        <v>14</v>
+      </c>
+      <c r="W150">
+        <v>13461</v>
+      </c>
+      <c r="X150">
+        <v>71</v>
+      </c>
+      <c r="Y150">
+        <v>2.44069609999999</v>
+      </c>
+      <c r="Z150">
+        <f t="shared" si="14"/>
+        <v>5515.2298559415303</v>
+      </c>
+      <c r="AB150">
+        <v>0.05</v>
+      </c>
+      <c r="AC150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG150" s="1">
+        <v>14</v>
+      </c>
+      <c r="AH150">
+        <v>32843</v>
+      </c>
+      <c r="AI150">
+        <v>376</v>
+      </c>
+      <c r="AJ150">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK150">
+        <f t="shared" si="15"/>
+        <v>6568.6000000000131</v>
+      </c>
+      <c r="AM150">
+        <v>0.05</v>
+      </c>
+      <c r="AN150" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>15</v>
       </c>
+      <c r="B151">
+        <v>11144</v>
+      </c>
+      <c r="C151">
+        <v>59</v>
+      </c>
+      <c r="D151">
+        <v>1.91347179999999</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="16"/>
+        <v>5823.9687671383808</v>
+      </c>
       <c r="G151">
         <v>0.05</v>
       </c>
@@ -8165,7 +9668,20 @@
         <v>8</v>
       </c>
       <c r="L151" s="1">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="M151">
+        <v>33877</v>
+      </c>
+      <c r="N151">
+        <v>419</v>
+      </c>
+      <c r="O151">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P151">
+        <f t="shared" si="17"/>
+        <v>6775.4000000000133</v>
       </c>
       <c r="R151">
         <v>0.05</v>
@@ -8173,11 +9689,68 @@
       <c r="S151" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V151" s="1">
+        <v>15</v>
+      </c>
+      <c r="W151">
+        <v>12796</v>
+      </c>
+      <c r="X151">
+        <v>68</v>
+      </c>
+      <c r="Y151">
+        <v>2.3355050999999998</v>
+      </c>
+      <c r="Z151">
+        <f t="shared" si="14"/>
+        <v>5478.9004742485904</v>
+      </c>
+      <c r="AB151">
+        <v>0.05</v>
+      </c>
+      <c r="AC151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG151" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH151">
+        <v>30899</v>
+      </c>
+      <c r="AI151">
+        <v>422</v>
+      </c>
+      <c r="AJ151">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK151">
+        <f t="shared" si="15"/>
+        <v>6179.800000000012</v>
+      </c>
+      <c r="AM151">
+        <v>0.05</v>
+      </c>
+      <c r="AN151" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>16</v>
       </c>
+      <c r="B152">
+        <v>12068</v>
+      </c>
+      <c r="C152">
+        <v>64</v>
+      </c>
+      <c r="D152">
+        <v>2.1074690999999901</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="16"/>
+        <v>5726.2998541710795</v>
+      </c>
       <c r="G152">
         <v>0.05</v>
       </c>
@@ -8185,7 +9758,20 @@
         <v>8</v>
       </c>
       <c r="L152" s="1">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="M152">
+        <v>33895</v>
+      </c>
+      <c r="N152">
+        <v>425</v>
+      </c>
+      <c r="O152">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P152">
+        <f t="shared" si="17"/>
+        <v>6779.0000000000136</v>
       </c>
       <c r="R152">
         <v>0.05</v>
@@ -8193,11 +9779,68 @@
       <c r="S152" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V152" s="1">
+        <v>16</v>
+      </c>
+      <c r="W152">
+        <v>14367</v>
+      </c>
+      <c r="X152">
+        <v>76</v>
+      </c>
+      <c r="Y152">
+        <v>2.6850428999999898</v>
+      </c>
+      <c r="Z152">
+        <f t="shared" si="14"/>
+        <v>5350.7524963567821</v>
+      </c>
+      <c r="AB152">
+        <v>0.05</v>
+      </c>
+      <c r="AC152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG152" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH152">
+        <v>32673</v>
+      </c>
+      <c r="AI152">
+        <v>395</v>
+      </c>
+      <c r="AJ152">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK152">
+        <f t="shared" si="15"/>
+        <v>6534.6000000000131</v>
+      </c>
+      <c r="AM152">
+        <v>0.05</v>
+      </c>
+      <c r="AN152" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>17</v>
       </c>
+      <c r="B153">
+        <v>9633</v>
+      </c>
+      <c r="C153">
+        <v>51</v>
+      </c>
+      <c r="D153">
+        <v>1.6777936999999901</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="16"/>
+        <v>5741.4686918898651</v>
+      </c>
       <c r="G153">
         <v>0.05</v>
       </c>
@@ -8205,7 +9848,20 @@
         <v>8</v>
       </c>
       <c r="L153" s="1">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="M153">
+        <v>33962</v>
+      </c>
+      <c r="N153">
+        <v>417</v>
+      </c>
+      <c r="O153">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P153">
+        <f t="shared" si="17"/>
+        <v>6792.4000000000133</v>
       </c>
       <c r="R153">
         <v>0.05</v>
@@ -8213,11 +9869,68 @@
       <c r="S153" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V153" s="1">
+        <v>17</v>
+      </c>
+      <c r="W153">
+        <v>12407</v>
+      </c>
+      <c r="X153">
+        <v>66</v>
+      </c>
+      <c r="Y153">
+        <v>2.1225534999999902</v>
+      </c>
+      <c r="Z153">
+        <f t="shared" si="14"/>
+        <v>5845.3179154259515</v>
+      </c>
+      <c r="AB153">
+        <v>0.05</v>
+      </c>
+      <c r="AC153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG153" s="1">
+        <v>17</v>
+      </c>
+      <c r="AH153">
+        <v>31134</v>
+      </c>
+      <c r="AI153">
+        <v>413</v>
+      </c>
+      <c r="AJ153">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK153">
+        <f t="shared" si="15"/>
+        <v>6226.800000000012</v>
+      </c>
+      <c r="AM153">
+        <v>0.05</v>
+      </c>
+      <c r="AN153" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>18</v>
       </c>
+      <c r="B154">
+        <v>7853</v>
+      </c>
+      <c r="C154">
+        <v>42</v>
+      </c>
+      <c r="D154">
+        <v>1.3605422999999901</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="16"/>
+        <v>5771.963135582082</v>
+      </c>
       <c r="G154">
         <v>0.05</v>
       </c>
@@ -8225,7 +9938,20 @@
         <v>8</v>
       </c>
       <c r="L154" s="1">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="M154">
+        <v>34227</v>
+      </c>
+      <c r="N154">
+        <v>416</v>
+      </c>
+      <c r="O154">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P154">
+        <f t="shared" si="17"/>
+        <v>6845.4000000000133</v>
       </c>
       <c r="R154">
         <v>0.05</v>
@@ -8233,11 +9959,68 @@
       <c r="S154" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V154" s="1">
+        <v>18</v>
+      </c>
+      <c r="W154">
+        <v>11533</v>
+      </c>
+      <c r="X154">
+        <v>61</v>
+      </c>
+      <c r="Y154">
+        <v>2.2113712999999899</v>
+      </c>
+      <c r="Z154">
+        <f t="shared" si="14"/>
+        <v>5215.3159444549419</v>
+      </c>
+      <c r="AB154">
+        <v>0.05</v>
+      </c>
+      <c r="AC154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG154" s="1">
+        <v>18</v>
+      </c>
+      <c r="AH154">
+        <v>33143</v>
+      </c>
+      <c r="AI154">
+        <v>440</v>
+      </c>
+      <c r="AJ154">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK154">
+        <f t="shared" si="15"/>
+        <v>6628.6000000000131</v>
+      </c>
+      <c r="AM154">
+        <v>0.05</v>
+      </c>
+      <c r="AN154" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>19</v>
       </c>
+      <c r="B155">
+        <v>9244</v>
+      </c>
+      <c r="C155">
+        <v>49</v>
+      </c>
+      <c r="D155">
+        <v>1.60131029999999</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="16"/>
+        <v>5772.7724601534492</v>
+      </c>
       <c r="G155">
         <v>0.05</v>
       </c>
@@ -8245,7 +10028,20 @@
         <v>8</v>
       </c>
       <c r="L155" s="1">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="M155">
+        <v>34056</v>
+      </c>
+      <c r="N155">
+        <v>416</v>
+      </c>
+      <c r="O155">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P155">
+        <f t="shared" si="17"/>
+        <v>6811.2000000000135</v>
       </c>
       <c r="R155">
         <v>0.05</v>
@@ -8253,11 +10049,68 @@
       <c r="S155" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V155" s="1">
+        <v>19</v>
+      </c>
+      <c r="W155">
+        <v>6239</v>
+      </c>
+      <c r="X155">
+        <v>33</v>
+      </c>
+      <c r="Y155">
+        <v>1.1429606999999899</v>
+      </c>
+      <c r="Z155">
+        <f t="shared" si="14"/>
+        <v>5458.6303798547533</v>
+      </c>
+      <c r="AB155">
+        <v>0.05</v>
+      </c>
+      <c r="AC155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG155" s="1">
+        <v>19</v>
+      </c>
+      <c r="AH155">
+        <v>33014</v>
+      </c>
+      <c r="AI155">
+        <v>381</v>
+      </c>
+      <c r="AJ155">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK155">
+        <f t="shared" si="15"/>
+        <v>6602.8000000000129</v>
+      </c>
+      <c r="AM155">
+        <v>0.05</v>
+      </c>
+      <c r="AN155" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>20</v>
       </c>
+      <c r="B156">
+        <v>3863</v>
+      </c>
+      <c r="C156">
+        <v>21</v>
+      </c>
+      <c r="D156">
+        <v>0.66983360000000003</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="16"/>
+        <v>5767.1039493987755</v>
+      </c>
       <c r="G156">
         <v>0.05</v>
       </c>
@@ -8265,7 +10118,20 @@
         <v>8</v>
       </c>
       <c r="L156" s="1">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M156">
+        <v>33967</v>
+      </c>
+      <c r="N156">
+        <v>408</v>
+      </c>
+      <c r="O156">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P156">
+        <f t="shared" si="17"/>
+        <v>6793.4000000000133</v>
       </c>
       <c r="R156">
         <v>0.05</v>
@@ -8273,34 +10139,134 @@
       <c r="S156" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V156" s="1">
+        <v>20</v>
+      </c>
+      <c r="W156">
+        <v>7837</v>
+      </c>
+      <c r="X156">
+        <v>42</v>
+      </c>
+      <c r="Y156">
+        <v>1.3584932999999899</v>
+      </c>
+      <c r="Z156">
+        <f t="shared" si="14"/>
+        <v>5768.8911678843451</v>
+      </c>
+      <c r="AB156">
+        <v>0.05</v>
+      </c>
+      <c r="AC156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG156" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH156">
+        <v>32684</v>
+      </c>
+      <c r="AI156">
+        <v>400</v>
+      </c>
+      <c r="AJ156">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK156">
+        <f t="shared" si="15"/>
+        <v>6536.8000000000129</v>
+      </c>
+      <c r="AM156">
+        <v>0.05</v>
+      </c>
+      <c r="AN156" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B157" s="7"/>
-      <c r="L157" s="1">
-        <v>20</v>
-      </c>
-      <c r="R157">
-        <v>0.05</v>
-      </c>
-      <c r="S157" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AH157" s="7"/>
+    </row>
+    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="B158">
+        <v>10549</v>
+      </c>
+      <c r="C158">
+        <v>56</v>
+      </c>
+      <c r="D158">
+        <v>1.8294984599999899</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="16"/>
+        <v>5766.061153175312</v>
+      </c>
       <c r="L158" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M158" s="7"/>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V158" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W158" s="7"/>
+      <c r="AG158" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
       <c r="L159" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="M159">
+        <v>34021.800000000003</v>
+      </c>
+      <c r="N159">
+        <v>416.7</v>
+      </c>
+      <c r="O159">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P159">
+        <f t="shared" si="17"/>
+        <v>6804.3600000000142</v>
+      </c>
+      <c r="V159" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W159">
+        <v>11696.7</v>
+      </c>
+      <c r="X159">
+        <v>62.1</v>
+      </c>
+      <c r="Y159">
+        <v>2.11640289999999</v>
+      </c>
+      <c r="Z159">
+        <f>W159/Y159</f>
+        <v>5526.6887037435336</v>
+      </c>
+      <c r="AG159" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH159">
+        <v>32168.9</v>
+      </c>
+      <c r="AI159">
+        <v>410.4</v>
+      </c>
+      <c r="AJ159">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="AK159">
+        <f>AH159/AJ159</f>
+        <v>6433.7800000000125</v>
       </c>
     </row>
   </sheetData>

--- a/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
+++ b/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bozho1\Desktop\Thesis Code\ThesisWorkCybercom\pyFiles\RL\Results\New Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E9FE89-F97D-4BCC-B949-8E155632ECFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729A3D91-2F0E-48EF-9BBC-3C4B1985314F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="31">
   <si>
     <t>Controller</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Until All Node Dies</t>
+  </si>
+  <si>
+    <t>Sink Speed Tests</t>
   </si>
 </sst>
 </file>
@@ -591,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2693EA75-5C63-4FDE-887F-C7326CFE699C}">
-  <dimension ref="A1:AN159"/>
+  <dimension ref="A1:AN213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="Z165" sqref="Z165"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="H216" sqref="H216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8055,7 +8058,7 @@
         <v>2.2352497999999899</v>
       </c>
       <c r="Z123">
-        <f t="shared" ref="Z123:Z159" si="14">W123/Y123</f>
+        <f t="shared" ref="Z123:Z156" si="14">W123/Y123</f>
         <v>4922.044954438672</v>
       </c>
       <c r="AB123">
@@ -8077,7 +8080,7 @@
         <v>4.9999999999999902</v>
       </c>
       <c r="AK123">
-        <f t="shared" ref="AK123:AK158" si="15">AH123/AJ123</f>
+        <f t="shared" ref="AK123:AK156" si="15">AH123/AJ123</f>
         <v>5847.6000000000113</v>
       </c>
       <c r="AM123">
@@ -10267,6 +10270,947 @@
       <c r="AK159">
         <f>AH159/AJ159</f>
         <v>6433.7800000000125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L161" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L162" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="L163" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A164" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H164" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L164" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M164" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N164" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O164" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R164" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S164" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165" t="s">
+        <v>8</v>
+      </c>
+      <c r="L165" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R165">
+        <v>1</v>
+      </c>
+      <c r="S165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L166" s="1">
+        <v>1</v>
+      </c>
+      <c r="R166">
+        <v>1</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>2</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L167" s="1">
+        <v>2</v>
+      </c>
+      <c r="R167">
+        <v>1</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>3</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L168" s="1">
+        <v>3</v>
+      </c>
+      <c r="R168">
+        <v>1</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>4</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L169" s="1">
+        <v>4</v>
+      </c>
+      <c r="R169">
+        <v>1</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>5</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L170" s="1">
+        <v>5</v>
+      </c>
+      <c r="R170">
+        <v>1</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>6</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L171" s="1">
+        <v>6</v>
+      </c>
+      <c r="R171">
+        <v>1</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>7</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L172" s="1">
+        <v>7</v>
+      </c>
+      <c r="R172">
+        <v>1</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>8</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L173" s="1">
+        <v>8</v>
+      </c>
+      <c r="R173">
+        <v>1</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>9</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L174" s="4">
+        <v>9</v>
+      </c>
+      <c r="R174">
+        <v>1</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>10</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L175" s="1">
+        <v>10</v>
+      </c>
+      <c r="R175">
+        <v>1</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>11</v>
+      </c>
+      <c r="G176">
+        <v>0.05</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L176" s="1">
+        <v>11</v>
+      </c>
+      <c r="R176">
+        <v>0.05</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>12</v>
+      </c>
+      <c r="G177">
+        <v>0.05</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L177" s="1">
+        <v>12</v>
+      </c>
+      <c r="R177">
+        <v>0.05</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>13</v>
+      </c>
+      <c r="G178">
+        <v>0.05</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L178" s="1">
+        <v>13</v>
+      </c>
+      <c r="R178">
+        <v>0.05</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>14</v>
+      </c>
+      <c r="G179">
+        <v>0.05</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L179" s="1">
+        <v>14</v>
+      </c>
+      <c r="R179">
+        <v>0.05</v>
+      </c>
+      <c r="S179" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>15</v>
+      </c>
+      <c r="G180">
+        <v>0.05</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L180" s="1">
+        <v>15</v>
+      </c>
+      <c r="R180">
+        <v>0.05</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>16</v>
+      </c>
+      <c r="G181">
+        <v>0.05</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L181" s="1">
+        <v>16</v>
+      </c>
+      <c r="R181">
+        <v>0.05</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>17</v>
+      </c>
+      <c r="G182">
+        <v>0.05</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L182" s="1">
+        <v>17</v>
+      </c>
+      <c r="R182">
+        <v>0.05</v>
+      </c>
+      <c r="S182" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>18</v>
+      </c>
+      <c r="G183">
+        <v>0.05</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L183" s="1">
+        <v>18</v>
+      </c>
+      <c r="R183">
+        <v>0.05</v>
+      </c>
+      <c r="S183" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>19</v>
+      </c>
+      <c r="G184">
+        <v>0.05</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L184" s="1">
+        <v>19</v>
+      </c>
+      <c r="R184">
+        <v>0.05</v>
+      </c>
+      <c r="S184" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>20</v>
+      </c>
+      <c r="G185">
+        <v>0.05</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L185" s="1">
+        <v>20</v>
+      </c>
+      <c r="R185">
+        <v>0.05</v>
+      </c>
+      <c r="S185" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L186" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L187" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B188" s="6"/>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L190" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L191" s="1">
+        <v>1</v>
+      </c>
+      <c r="R191">
+        <v>1</v>
+      </c>
+      <c r="S191" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>2</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L192" s="1">
+        <v>2</v>
+      </c>
+      <c r="R192">
+        <v>1</v>
+      </c>
+      <c r="S192" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>3</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L193" s="1">
+        <v>3</v>
+      </c>
+      <c r="R193">
+        <v>1</v>
+      </c>
+      <c r="S193" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>4</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L194" s="1">
+        <v>4</v>
+      </c>
+      <c r="R194">
+        <v>1</v>
+      </c>
+      <c r="S194" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>5</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L195" s="1">
+        <v>5</v>
+      </c>
+      <c r="R195">
+        <v>1</v>
+      </c>
+      <c r="S195" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>6</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L196" s="1">
+        <v>6</v>
+      </c>
+      <c r="R196">
+        <v>1</v>
+      </c>
+      <c r="S196" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>7</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L197" s="1">
+        <v>7</v>
+      </c>
+      <c r="R197">
+        <v>1</v>
+      </c>
+      <c r="S197" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>8</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L198" s="1">
+        <v>8</v>
+      </c>
+      <c r="R198">
+        <v>1</v>
+      </c>
+      <c r="S198" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>9</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L199" s="4">
+        <v>9</v>
+      </c>
+      <c r="R199">
+        <v>1</v>
+      </c>
+      <c r="S199" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>10</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L200" s="1">
+        <v>10</v>
+      </c>
+      <c r="R200">
+        <v>1</v>
+      </c>
+      <c r="S200" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>11</v>
+      </c>
+      <c r="B201" s="16"/>
+      <c r="D201" s="16"/>
+      <c r="G201">
+        <v>0.05</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L201" s="1">
+        <v>11</v>
+      </c>
+      <c r="R201">
+        <v>0.05</v>
+      </c>
+      <c r="S201" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>12</v>
+      </c>
+      <c r="G202">
+        <v>0.05</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L202" s="1">
+        <v>12</v>
+      </c>
+      <c r="R202">
+        <v>0.05</v>
+      </c>
+      <c r="S202" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>13</v>
+      </c>
+      <c r="G203">
+        <v>0.05</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L203" s="1">
+        <v>13</v>
+      </c>
+      <c r="R203">
+        <v>0.05</v>
+      </c>
+      <c r="S203" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>14</v>
+      </c>
+      <c r="G204">
+        <v>0.05</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L204" s="1">
+        <v>14</v>
+      </c>
+      <c r="R204">
+        <v>0.05</v>
+      </c>
+      <c r="S204" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>15</v>
+      </c>
+      <c r="G205">
+        <v>0.05</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L205" s="1">
+        <v>15</v>
+      </c>
+      <c r="R205">
+        <v>0.05</v>
+      </c>
+      <c r="S205" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>16</v>
+      </c>
+      <c r="G206">
+        <v>0.05</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L206" s="1">
+        <v>16</v>
+      </c>
+      <c r="R206">
+        <v>0.05</v>
+      </c>
+      <c r="S206" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>17</v>
+      </c>
+      <c r="G207">
+        <v>0.05</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L207" s="1">
+        <v>17</v>
+      </c>
+      <c r="R207">
+        <v>0.05</v>
+      </c>
+      <c r="S207" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>18</v>
+      </c>
+      <c r="G208">
+        <v>0.05</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L208" s="1">
+        <v>18</v>
+      </c>
+      <c r="R208">
+        <v>0.05</v>
+      </c>
+      <c r="S208" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>19</v>
+      </c>
+      <c r="G209">
+        <v>0.05</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L209" s="1">
+        <v>19</v>
+      </c>
+      <c r="R209">
+        <v>0.05</v>
+      </c>
+      <c r="S209" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>20</v>
+      </c>
+      <c r="G210">
+        <v>0.05</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L210" s="1">
+        <v>20</v>
+      </c>
+      <c r="R210">
+        <v>0.05</v>
+      </c>
+      <c r="S210" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" s="7"/>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L212" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L213" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
+++ b/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bozho1\Desktop\Thesis Code\ThesisWorkCybercom\pyFiles\RL\Results\New Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729A3D91-2F0E-48EF-9BBC-3C4B1985314F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC73190F-F000-49E8-B2D2-500BD9CCBB59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
@@ -594,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2693EA75-5C63-4FDE-887F-C7326CFE699C}">
-  <dimension ref="A1:AN213"/>
+  <dimension ref="A1:AN212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="H216" sqref="H216"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10569,6 +10569,19 @@
       <c r="A176" s="1">
         <v>11</v>
       </c>
+      <c r="B176">
+        <v>4080</v>
+      </c>
+      <c r="C176" s="16">
+        <v>22</v>
+      </c>
+      <c r="D176">
+        <v>1.6245023999999899</v>
+      </c>
+      <c r="E176">
+        <f>B176/D176</f>
+        <v>2511.5383024365033</v>
+      </c>
       <c r="G176">
         <v>0.05</v>
       </c>
@@ -10577,6 +10590,19 @@
       </c>
       <c r="L176" s="1">
         <v>11</v>
+      </c>
+      <c r="M176">
+        <v>15293</v>
+      </c>
+      <c r="N176">
+        <v>170</v>
+      </c>
+      <c r="O176">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P176">
+        <f>M176/O176</f>
+        <v>3058.6000000000058</v>
       </c>
       <c r="R176">
         <v>0.05</v>
@@ -10589,6 +10615,19 @@
       <c r="A177" s="1">
         <v>12</v>
       </c>
+      <c r="B177">
+        <v>5116</v>
+      </c>
+      <c r="C177">
+        <v>27</v>
+      </c>
+      <c r="D177">
+        <v>2.1356321</v>
+      </c>
+      <c r="E177">
+        <f t="shared" ref="E177:E187" si="18">B177/D177</f>
+        <v>2395.5436893835786</v>
+      </c>
       <c r="G177">
         <v>0.05</v>
       </c>
@@ -10597,6 +10636,19 @@
       </c>
       <c r="L177" s="1">
         <v>12</v>
+      </c>
+      <c r="M177">
+        <v>16241</v>
+      </c>
+      <c r="N177">
+        <v>334</v>
+      </c>
+      <c r="O177">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P177">
+        <f t="shared" ref="P177:P187" si="19">M177/O177</f>
+        <v>3248.2000000000062</v>
       </c>
       <c r="R177">
         <v>0.05</v>
@@ -10609,6 +10661,19 @@
       <c r="A178" s="1">
         <v>13</v>
       </c>
+      <c r="B178">
+        <v>3169</v>
+      </c>
+      <c r="C178">
+        <v>17</v>
+      </c>
+      <c r="D178">
+        <v>1.48072099999999</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="18"/>
+        <v>2140.1736046156038</v>
+      </c>
       <c r="G178">
         <v>0.05</v>
       </c>
@@ -10617,6 +10682,19 @@
       </c>
       <c r="L178" s="1">
         <v>13</v>
+      </c>
+      <c r="M178">
+        <v>14255</v>
+      </c>
+      <c r="N178">
+        <v>324</v>
+      </c>
+      <c r="O178">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P178">
+        <f t="shared" si="19"/>
+        <v>2851.0000000000055</v>
       </c>
       <c r="R178">
         <v>0.05</v>
@@ -10629,6 +10707,19 @@
       <c r="A179" s="1">
         <v>14</v>
       </c>
+      <c r="B179">
+        <v>6893</v>
+      </c>
+      <c r="C179">
+        <v>37</v>
+      </c>
+      <c r="D179">
+        <v>2.57983329999999</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="18"/>
+        <v>2671.8780628190307</v>
+      </c>
       <c r="G179">
         <v>0.05</v>
       </c>
@@ -10637,6 +10728,19 @@
       </c>
       <c r="L179" s="1">
         <v>14</v>
+      </c>
+      <c r="M179">
+        <v>12571</v>
+      </c>
+      <c r="N179">
+        <v>165</v>
+      </c>
+      <c r="O179">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P179">
+        <f t="shared" si="19"/>
+        <v>2514.2000000000048</v>
       </c>
       <c r="R179">
         <v>0.05</v>
@@ -10649,6 +10753,19 @@
       <c r="A180" s="1">
         <v>15</v>
       </c>
+      <c r="B180">
+        <v>5616</v>
+      </c>
+      <c r="C180">
+        <v>30</v>
+      </c>
+      <c r="D180">
+        <v>2.1950238999999998</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="18"/>
+        <v>2558.5142831474413</v>
+      </c>
       <c r="G180">
         <v>0.05</v>
       </c>
@@ -10657,6 +10774,19 @@
       </c>
       <c r="L180" s="1">
         <v>15</v>
+      </c>
+      <c r="M180">
+        <v>18758</v>
+      </c>
+      <c r="N180">
+        <v>354</v>
+      </c>
+      <c r="O180">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P180">
+        <f t="shared" si="19"/>
+        <v>3751.6000000000072</v>
       </c>
       <c r="R180">
         <v>0.05</v>
@@ -10669,6 +10799,19 @@
       <c r="A181" s="1">
         <v>16</v>
       </c>
+      <c r="B181">
+        <v>5055</v>
+      </c>
+      <c r="C181">
+        <v>27</v>
+      </c>
+      <c r="D181">
+        <v>2.1003627999999899</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="18"/>
+        <v>2406.727066390637</v>
+      </c>
       <c r="G181">
         <v>0.05</v>
       </c>
@@ -10677,6 +10820,19 @@
       </c>
       <c r="L181" s="1">
         <v>16</v>
+      </c>
+      <c r="M181">
+        <v>15679</v>
+      </c>
+      <c r="N181">
+        <v>331</v>
+      </c>
+      <c r="O181">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P181">
+        <f t="shared" si="19"/>
+        <v>3135.8000000000061</v>
       </c>
       <c r="R181">
         <v>0.05</v>
@@ -10689,6 +10845,19 @@
       <c r="A182" s="1">
         <v>17</v>
       </c>
+      <c r="B182">
+        <v>4802</v>
+      </c>
+      <c r="C182">
+        <v>26</v>
+      </c>
+      <c r="D182">
+        <v>2.09389289999999</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="18"/>
+        <v>2293.3360154189468</v>
+      </c>
       <c r="G182">
         <v>0.05</v>
       </c>
@@ -10697,6 +10866,19 @@
       </c>
       <c r="L182" s="1">
         <v>17</v>
+      </c>
+      <c r="M182">
+        <v>13771</v>
+      </c>
+      <c r="N182">
+        <v>211</v>
+      </c>
+      <c r="O182">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P182">
+        <f t="shared" si="19"/>
+        <v>2754.2000000000053</v>
       </c>
       <c r="R182">
         <v>0.05</v>
@@ -10709,6 +10891,19 @@
       <c r="A183" s="1">
         <v>18</v>
       </c>
+      <c r="B183">
+        <v>4381</v>
+      </c>
+      <c r="C183">
+        <v>23</v>
+      </c>
+      <c r="D183">
+        <v>1.70647119999999</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="18"/>
+        <v>2567.2862220001284</v>
+      </c>
       <c r="G183">
         <v>0.05</v>
       </c>
@@ -10717,6 +10912,19 @@
       </c>
       <c r="L183" s="1">
         <v>18</v>
+      </c>
+      <c r="M183">
+        <v>14884</v>
+      </c>
+      <c r="N183">
+        <v>145</v>
+      </c>
+      <c r="O183">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P183">
+        <f t="shared" si="19"/>
+        <v>2976.8000000000056</v>
       </c>
       <c r="R183">
         <v>0.05</v>
@@ -10729,6 +10937,19 @@
       <c r="A184" s="1">
         <v>19</v>
       </c>
+      <c r="B184">
+        <v>3956</v>
+      </c>
+      <c r="C184">
+        <v>21</v>
+      </c>
+      <c r="D184">
+        <v>1.6813514999999899</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="18"/>
+        <v>2352.869105597505</v>
+      </c>
       <c r="G184">
         <v>0.05</v>
       </c>
@@ -10737,6 +10958,19 @@
       </c>
       <c r="L184" s="1">
         <v>19</v>
+      </c>
+      <c r="M184">
+        <v>17929</v>
+      </c>
+      <c r="N184">
+        <v>170</v>
+      </c>
+      <c r="O184">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P184">
+        <f t="shared" si="19"/>
+        <v>3585.800000000007</v>
       </c>
       <c r="R184">
         <v>0.05</v>
@@ -10749,6 +10983,19 @@
       <c r="A185" s="1">
         <v>20</v>
       </c>
+      <c r="B185">
+        <v>4289</v>
+      </c>
+      <c r="C185">
+        <v>23</v>
+      </c>
+      <c r="D185">
+        <v>1.9395910999999899</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="18"/>
+        <v>2211.29082310185</v>
+      </c>
       <c r="G185">
         <v>0.05</v>
       </c>
@@ -10757,6 +11004,19 @@
       </c>
       <c r="L185" s="1">
         <v>20</v>
+      </c>
+      <c r="M185">
+        <v>16655</v>
+      </c>
+      <c r="N185">
+        <v>173</v>
+      </c>
+      <c r="O185">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P185">
+        <f t="shared" si="19"/>
+        <v>3331.0000000000064</v>
       </c>
       <c r="R185">
         <v>0.05</v>
@@ -10777,12 +11037,39 @@
       <c r="A187" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="B187">
+        <v>4735.7</v>
+      </c>
+      <c r="C187">
+        <v>25.3</v>
+      </c>
+      <c r="D187">
+        <v>1.95373821999999</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="18"/>
+        <v>2423.9173659611492</v>
+      </c>
       <c r="L187" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="M187">
+        <v>15603.6</v>
+      </c>
+      <c r="N187">
+        <v>237.7</v>
+      </c>
+      <c r="O187">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P187">
+        <f t="shared" si="19"/>
+        <v>3120.7200000000062</v>
+      </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B188" s="6"/>
+      <c r="C188" s="7"/>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
@@ -10996,8 +11283,19 @@
       <c r="A201" s="1">
         <v>11</v>
       </c>
-      <c r="B201" s="16"/>
-      <c r="D201" s="16"/>
+      <c r="B201">
+        <v>4024</v>
+      </c>
+      <c r="C201">
+        <v>22</v>
+      </c>
+      <c r="D201">
+        <v>0.73214820000000003</v>
+      </c>
+      <c r="E201">
+        <f>B201/D201</f>
+        <v>5496.1550134248773</v>
+      </c>
       <c r="G201">
         <v>0.05</v>
       </c>
@@ -11006,6 +11304,19 @@
       </c>
       <c r="L201" s="1">
         <v>11</v>
+      </c>
+      <c r="M201">
+        <v>32964</v>
+      </c>
+      <c r="N201">
+        <v>428</v>
+      </c>
+      <c r="O201">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P201">
+        <f>M201/O201</f>
+        <v>6592.8000000000129</v>
       </c>
       <c r="R201">
         <v>0.05</v>
@@ -11018,6 +11329,19 @@
       <c r="A202" s="1">
         <v>12</v>
       </c>
+      <c r="B202">
+        <v>5019</v>
+      </c>
+      <c r="C202">
+        <v>27</v>
+      </c>
+      <c r="D202">
+        <v>0.89836909999999903</v>
+      </c>
+      <c r="E202">
+        <f t="shared" ref="E202:E212" si="20">B202/D202</f>
+        <v>5586.7905519012238</v>
+      </c>
       <c r="G202">
         <v>0.05</v>
       </c>
@@ -11026,6 +11350,19 @@
       </c>
       <c r="L202" s="1">
         <v>12</v>
+      </c>
+      <c r="M202">
+        <v>33970</v>
+      </c>
+      <c r="N202">
+        <v>403</v>
+      </c>
+      <c r="O202">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P202">
+        <f t="shared" ref="P202:P213" si="21">M202/O202</f>
+        <v>6794.0000000000136</v>
       </c>
       <c r="R202">
         <v>0.05</v>
@@ -11038,6 +11375,19 @@
       <c r="A203" s="1">
         <v>13</v>
       </c>
+      <c r="B203">
+        <v>3114</v>
+      </c>
+      <c r="C203">
+        <v>17</v>
+      </c>
+      <c r="D203">
+        <v>0.56991760000000002</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="20"/>
+        <v>5463.9477706952721</v>
+      </c>
       <c r="G203">
         <v>0.05</v>
       </c>
@@ -11046,6 +11396,19 @@
       </c>
       <c r="L203" s="1">
         <v>13</v>
+      </c>
+      <c r="M203">
+        <v>32846</v>
+      </c>
+      <c r="N203">
+        <v>417</v>
+      </c>
+      <c r="O203">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P203">
+        <f t="shared" si="21"/>
+        <v>6569.2000000000126</v>
       </c>
       <c r="R203">
         <v>0.05</v>
@@ -11058,6 +11421,19 @@
       <c r="A204" s="1">
         <v>14</v>
       </c>
+      <c r="B204">
+        <v>6893</v>
+      </c>
+      <c r="C204">
+        <v>37</v>
+      </c>
+      <c r="D204">
+        <v>1.2542549000000001</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="20"/>
+        <v>5495.693100341884</v>
+      </c>
       <c r="G204">
         <v>0.05</v>
       </c>
@@ -11066,6 +11442,19 @@
       </c>
       <c r="L204" s="1">
         <v>14</v>
+      </c>
+      <c r="M204">
+        <v>33205</v>
+      </c>
+      <c r="N204">
+        <v>425</v>
+      </c>
+      <c r="O204">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P204">
+        <f t="shared" si="21"/>
+        <v>6641.0000000000127</v>
       </c>
       <c r="R204">
         <v>0.05</v>
@@ -11078,6 +11467,19 @@
       <c r="A205" s="1">
         <v>15</v>
       </c>
+      <c r="B205">
+        <v>5613</v>
+      </c>
+      <c r="C205">
+        <v>30</v>
+      </c>
+      <c r="D205">
+        <v>0.93838729999999904</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="20"/>
+        <v>5981.5387527090425</v>
+      </c>
       <c r="G205">
         <v>0.05</v>
       </c>
@@ -11086,6 +11488,19 @@
       </c>
       <c r="L205" s="1">
         <v>15</v>
+      </c>
+      <c r="M205">
+        <v>31588</v>
+      </c>
+      <c r="N205">
+        <v>386</v>
+      </c>
+      <c r="O205">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P205">
+        <f t="shared" si="21"/>
+        <v>6317.6000000000122</v>
       </c>
       <c r="R205">
         <v>0.05</v>
@@ -11098,6 +11513,19 @@
       <c r="A206" s="1">
         <v>16</v>
       </c>
+      <c r="B206">
+        <v>5057</v>
+      </c>
+      <c r="C206">
+        <v>27</v>
+      </c>
+      <c r="D206">
+        <v>0.90773760000000003</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="20"/>
+        <v>5570.993203322193</v>
+      </c>
       <c r="G206">
         <v>0.05</v>
       </c>
@@ -11106,6 +11534,19 @@
       </c>
       <c r="L206" s="1">
         <v>16</v>
+      </c>
+      <c r="M206">
+        <v>31216</v>
+      </c>
+      <c r="N206">
+        <v>436</v>
+      </c>
+      <c r="O206">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P206">
+        <f t="shared" si="21"/>
+        <v>6243.2000000000126</v>
       </c>
       <c r="R206">
         <v>0.05</v>
@@ -11118,6 +11559,19 @@
       <c r="A207" s="1">
         <v>17</v>
       </c>
+      <c r="B207">
+        <v>4780</v>
+      </c>
+      <c r="C207">
+        <v>26</v>
+      </c>
+      <c r="D207">
+        <v>0.82166700000000004</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="20"/>
+        <v>5817.4418590499554</v>
+      </c>
       <c r="G207">
         <v>0.05</v>
       </c>
@@ -11126,6 +11580,19 @@
       </c>
       <c r="L207" s="1">
         <v>17</v>
+      </c>
+      <c r="M207">
+        <v>34591</v>
+      </c>
+      <c r="N207">
+        <v>405</v>
+      </c>
+      <c r="O207">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P207">
+        <f t="shared" si="21"/>
+        <v>6918.2000000000135</v>
       </c>
       <c r="R207">
         <v>0.05</v>
@@ -11138,6 +11605,19 @@
       <c r="A208" s="1">
         <v>18</v>
       </c>
+      <c r="B208">
+        <v>4309</v>
+      </c>
+      <c r="C208">
+        <v>23</v>
+      </c>
+      <c r="D208">
+        <v>0.7910992</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="20"/>
+        <v>5446.8516716993263</v>
+      </c>
       <c r="G208">
         <v>0.05</v>
       </c>
@@ -11146,6 +11626,19 @@
       </c>
       <c r="L208" s="1">
         <v>18</v>
+      </c>
+      <c r="M208">
+        <v>32594</v>
+      </c>
+      <c r="N208">
+        <v>430</v>
+      </c>
+      <c r="O208">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P208">
+        <f t="shared" si="21"/>
+        <v>6518.8000000000129</v>
       </c>
       <c r="R208">
         <v>0.05</v>
@@ -11158,6 +11651,19 @@
       <c r="A209" s="1">
         <v>19</v>
       </c>
+      <c r="B209">
+        <v>3916</v>
+      </c>
+      <c r="C209">
+        <v>21</v>
+      </c>
+      <c r="D209">
+        <v>0.74726840000000005</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="20"/>
+        <v>5240.4196403862379</v>
+      </c>
       <c r="G209">
         <v>0.05</v>
       </c>
@@ -11166,6 +11672,19 @@
       </c>
       <c r="L209" s="1">
         <v>19</v>
+      </c>
+      <c r="M209">
+        <v>31033</v>
+      </c>
+      <c r="N209">
+        <v>439</v>
+      </c>
+      <c r="O209">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P209">
+        <f t="shared" si="21"/>
+        <v>6206.6000000000122</v>
       </c>
       <c r="R209">
         <v>0.05</v>
@@ -11178,6 +11697,19 @@
       <c r="A210" s="1">
         <v>20</v>
       </c>
+      <c r="B210">
+        <v>4228</v>
+      </c>
+      <c r="C210">
+        <v>23</v>
+      </c>
+      <c r="D210">
+        <v>0.78835560000000005</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="20"/>
+        <v>5363.0620496638821</v>
+      </c>
       <c r="G210">
         <v>0.05</v>
       </c>
@@ -11186,6 +11718,19 @@
       </c>
       <c r="L210" s="1">
         <v>20</v>
+      </c>
+      <c r="M210">
+        <v>31338</v>
+      </c>
+      <c r="N210">
+        <v>439</v>
+      </c>
+      <c r="O210">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P210">
+        <f t="shared" si="21"/>
+        <v>6267.6000000000122</v>
       </c>
       <c r="R210">
         <v>0.05</v>
@@ -11199,18 +11744,42 @@
         <v>15</v>
       </c>
       <c r="B211" s="7"/>
+      <c r="L211" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="B212">
+        <v>4695.3</v>
+      </c>
+      <c r="C212">
+        <v>25.3</v>
+      </c>
+      <c r="D212">
+        <v>0.84492049000000002</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="20"/>
+        <v>5557.0909400007567</v>
+      </c>
       <c r="L212" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L213" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="M212">
+        <v>32534.5</v>
+      </c>
+      <c r="N212">
+        <v>420.8</v>
+      </c>
+      <c r="O212">
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="P212">
+        <f>M212/O212</f>
+        <v>6506.9000000000124</v>
       </c>
     </row>
   </sheetData>

--- a/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
+++ b/pyFiles/RL/Results/New Results/ResultsDQNfixEpsilon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bozho1\Desktop\Thesis Code\ThesisWorkCybercom\pyFiles\RL\Results\New Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC73190F-F000-49E8-B2D2-500BD9CCBB59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1298A6-8A92-4015-8029-8EE415D06E05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2693EA75-5C63-4FDE-887F-C7326CFE699C}">
   <dimension ref="A1:AN212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="E186" sqref="E186"/>
+    <sheetView tabSelected="1" topLeftCell="K179" workbookViewId="0">
+      <selection activeCell="M187" sqref="M187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
